--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Summaries" sheetId="16" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="770">
   <si>
     <t>Jan-16</t>
   </si>
@@ -2924,7 +2924,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3333,6 +3333,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -39782,8 +39788,8 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView topLeftCell="M25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39884,12 +39890,12 @@
         <v>616</v>
       </c>
       <c r="K3" s="4">
-        <v>51</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>634</v>
       </c>
     </row>
@@ -39905,7 +39911,7 @@
         <v>632</v>
       </c>
       <c r="K4" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>625</v>
@@ -39929,7 +39935,7 @@
         <v>60</v>
       </c>
       <c r="U4" s="4" t="str">
-        <f>IF(S4="Yes",VLOOKUP(VALUE(T4),$K$2:$M$18,3),"")</f>
+        <f>IF(S4="Yes",VLOOKUP(VALUE(T4),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V4" s="4">
@@ -39953,7 +39959,7 @@
         <v>632</v>
       </c>
       <c r="K5" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>625</v>
@@ -39977,15 +39983,15 @@
         <v>50</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f t="shared" ref="U5:U43" si="3">IF(S5="Yes",VLOOKUP(VALUE(T5),$K$2:$M$18,3),"")</f>
+        <f>IF(S5="Yes",VLOOKUP(VALUE(T5),$K$2:$M$19,3),"")</f>
         <v/>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5:V43" si="4">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
+        <f t="shared" ref="V5:V43" si="3">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
         <v>0</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" ref="W5:W43" si="5">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
+        <f t="shared" ref="W5:W43" si="4">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40004,7 +40010,7 @@
         <v>614</v>
       </c>
       <c r="K6" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>625</v>
@@ -40028,15 +40034,15 @@
         <v>53</v>
       </c>
       <c r="U6" s="4" t="str">
+        <f>IF(S6="Yes",VLOOKUP(VALUE(T6),$K$2:$M$19,3),"")</f>
+        <v/>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40058,7 +40064,7 @@
         <v>731</v>
       </c>
       <c r="K7" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>625</v>
@@ -40082,15 +40088,15 @@
         <v>49</v>
       </c>
       <c r="U7" s="4" t="str">
+        <f>IF(S7="Yes",VLOOKUP(VALUE(T7),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V7" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W7" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40112,7 +40118,7 @@
         <v>621</v>
       </c>
       <c r="K8" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>625</v>
@@ -40136,15 +40142,15 @@
         <v>49</v>
       </c>
       <c r="U8" s="4" t="str">
+        <f>IF(S8="Yes",VLOOKUP(VALUE(T8),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V8" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40160,7 +40166,7 @@
         <v>632</v>
       </c>
       <c r="K9" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>625</v>
@@ -40184,15 +40190,15 @@
         <v>49</v>
       </c>
       <c r="U9" s="4" t="str">
+        <f>IF(S9="Yes",VLOOKUP(VALUE(T9),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V9" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40208,13 +40214,13 @@
         <v>632</v>
       </c>
       <c r="K10" s="4">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q10" t="s">
         <v>647</v>
@@ -40232,15 +40238,15 @@
         <v>55</v>
       </c>
       <c r="U10" s="4" t="str">
+        <f>IF(S10="Yes",VLOOKUP(VALUE(T10),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V10" s="4" t="str">
+        <v>MAGR1</v>
+      </c>
+      <c r="W10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40262,13 +40268,13 @@
         <v>621</v>
       </c>
       <c r="K11" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q11" t="s">
         <v>647</v>
@@ -40286,15 +40292,15 @@
         <v>55</v>
       </c>
       <c r="U11" s="4" t="str">
+        <f>IF(S11="Yes",VLOOKUP(VALUE(T11),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V11" s="4" t="str">
+        <v>MAGR1</v>
+      </c>
+      <c r="W11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40310,7 +40316,7 @@
         <v>632</v>
       </c>
       <c r="K12" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>626</v>
@@ -40334,15 +40340,15 @@
         <v>55</v>
       </c>
       <c r="U12" s="4" t="str">
+        <f>IF(S12="Yes",VLOOKUP(VALUE(T12),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V12" s="4" t="str">
+        <v>MAGR1</v>
+      </c>
+      <c r="W12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W12" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40358,7 +40364,7 @@
         <v>632</v>
       </c>
       <c r="K13" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>626</v>
@@ -40382,15 +40388,15 @@
         <v>55</v>
       </c>
       <c r="U13" s="4" t="str">
+        <f>IF(S13="Yes",VLOOKUP(VALUE(T13),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V13" s="4" t="str">
+        <v>MAGR1</v>
+      </c>
+      <c r="W13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40409,7 +40415,7 @@
         <v>616</v>
       </c>
       <c r="K14" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>626</v>
@@ -40433,15 +40439,15 @@
         <v>55</v>
       </c>
       <c r="U14" s="4" t="str">
+        <f>IF(S14="Yes",VLOOKUP(VALUE(T14),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V14" s="4" t="str">
+        <v>MAGR1</v>
+      </c>
+      <c r="W14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40457,7 +40463,7 @@
         <v>632</v>
       </c>
       <c r="K15" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>626</v>
@@ -40481,15 +40487,15 @@
         <v>60</v>
       </c>
       <c r="U15" s="4" t="str">
+        <f>IF(S15="Yes",VLOOKUP(VALUE(T15),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V15" s="4">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40511,7 +40517,7 @@
         <v>620</v>
       </c>
       <c r="K16" s="4">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>626</v>
@@ -40535,15 +40541,15 @@
         <v>60</v>
       </c>
       <c r="U16" s="4" t="str">
+        <f>IF(S16="Yes",VLOOKUP(VALUE(T16),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V16" s="4">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40559,19 +40565,19 @@
         <v>631</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>623</v>
-      </c>
       <c r="K17" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q17" t="s">
         <v>650</v>
@@ -40589,16 +40595,16 @@
         <v>50</v>
       </c>
       <c r="U17" s="4" t="str">
+        <f>IF(S17="Yes",VLOOKUP(VALUE(T17),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V17" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -40619,13 +40625,13 @@
         <v>620</v>
       </c>
       <c r="K18" s="4">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q18" t="s">
         <v>651</v>
@@ -40643,15 +40649,15 @@
         <v>55</v>
       </c>
       <c r="U18" s="4" t="str">
+        <f>IF(S18="Yes",VLOOKUP(VALUE(T18),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V18" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W18" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -40666,6 +40672,15 @@
       <c r="D19" s="110" t="s">
         <v>632</v>
       </c>
+      <c r="K19" s="4">
+        <v>82</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>634</v>
+      </c>
       <c r="Q19" t="s">
         <v>652</v>
       </c>
@@ -40682,15 +40697,15 @@
         <v>60</v>
       </c>
       <c r="U19" s="4" t="str">
+        <f>IF(S19="Yes",VLOOKUP(VALUE(T19),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V19" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W19" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40721,15 +40736,15 @@
         <v>60</v>
       </c>
       <c r="U20" s="4" t="str">
+        <f>IF(S20="Yes",VLOOKUP(VALUE(T20),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V20" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40760,15 +40775,15 @@
         <v>60</v>
       </c>
       <c r="U21" s="4" t="str">
+        <f>IF(S21="Yes",VLOOKUP(VALUE(T21),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V21" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40799,15 +40814,15 @@
         <v>60</v>
       </c>
       <c r="U22" s="4" t="str">
+        <f>IF(S22="Yes",VLOOKUP(VALUE(T22),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V22" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W22" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40844,15 +40859,15 @@
         <v>60</v>
       </c>
       <c r="U23" s="4" t="str">
+        <f>IF(S23="Yes",VLOOKUP(VALUE(T23),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V23" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W23" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40898,15 +40913,15 @@
         <v>60</v>
       </c>
       <c r="U24" s="4" t="str">
+        <f>IF(S24="Yes",VLOOKUP(VALUE(T24),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V24" s="4" t="str">
+        <v>CHOK3</v>
+      </c>
+      <c r="W24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK3</v>
-      </c>
-      <c r="W24" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK3</v>
       </c>
     </row>
@@ -40916,13 +40931,13 @@
         <v>141</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>631</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="K25" s="95" t="s">
         <v>507</v>
@@ -40949,15 +40964,15 @@
         <v>60</v>
       </c>
       <c r="U25" s="4" t="str">
+        <f>IF(S25="Yes",VLOOKUP(VALUE(T25),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V25" s="4" t="str">
+        <v>CHOK3</v>
+      </c>
+      <c r="W25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK3</v>
-      </c>
-      <c r="W25" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK3</v>
       </c>
     </row>
@@ -41003,15 +41018,15 @@
         <v>53</v>
       </c>
       <c r="U26" s="4" t="str">
+        <f>IF(S26="Yes",VLOOKUP(VALUE(T26),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V26" s="4" t="str">
+        <v>MAGR3</v>
+      </c>
+      <c r="W26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR3</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR3</v>
       </c>
     </row>
@@ -41054,15 +41069,15 @@
         <v>60</v>
       </c>
       <c r="U27" s="4" t="str">
+        <f>IF(S27="Yes",VLOOKUP(VALUE(T27),$K$2:$M$19,3),"")</f>
+        <v/>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41102,15 +41117,15 @@
         <v>52</v>
       </c>
       <c r="U28" s="4" t="str">
+        <f>IF(S28="Yes",VLOOKUP(VALUE(T28),$K$2:$M$19,3),"")</f>
+        <v/>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41156,15 +41171,15 @@
         <v>52</v>
       </c>
       <c r="U29" s="4" t="str">
+        <f>IF(S29="Yes",VLOOKUP(VALUE(T29),$K$2:$M$19,3),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41179,13 +41194,13 @@
       <c r="D30" s="110" t="s">
         <v>632</v>
       </c>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="144" t="s">
         <v>513</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="145" t="s">
         <v>622</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="145" t="s">
         <v>624</v>
       </c>
       <c r="Q30" t="s">
@@ -41204,15 +41219,15 @@
         <v>53</v>
       </c>
       <c r="U30" s="4" t="str">
+        <f>IF(S30="Yes",VLOOKUP(VALUE(T30),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V30" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W30" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41252,15 +41267,15 @@
         <v>55</v>
       </c>
       <c r="U31" s="4" t="str">
+        <f>IF(S31="Yes",VLOOKUP(VALUE(T31),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V31" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W31" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41306,15 +41321,15 @@
         <v>55</v>
       </c>
       <c r="U32" s="4" t="str">
+        <f>IF(S32="Yes",VLOOKUP(VALUE(T32),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V32" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41360,15 +41375,15 @@
         <v>49</v>
       </c>
       <c r="U33" s="4" t="str">
+        <f>IF(S33="Yes",VLOOKUP(VALUE(T33),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V33" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V33" s="4" t="str">
+        <v>CHOK FULL</v>
+      </c>
+      <c r="W33" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W33" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -41414,15 +41429,15 @@
         <v>55</v>
       </c>
       <c r="U34" s="4" t="str">
+        <f>IF(S34="Yes",VLOOKUP(VALUE(T34),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V34" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V34" s="4" t="str">
+        <v>MAGR FULL</v>
+      </c>
+      <c r="W34" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W34" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41465,16 +41480,16 @@
         <v>52</v>
       </c>
       <c r="U35" s="4" t="str">
+        <f>IF(S35="Yes",VLOOKUP(VALUE(T35),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V35" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V35" s="4" t="str">
+        <v>MAGR7</v>
+      </c>
+      <c r="W35" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK7</v>
-      </c>
-      <c r="W35" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR7</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -41504,16 +41519,16 @@
         <v>55</v>
       </c>
       <c r="U36" s="4" t="str">
+        <f>IF(S36="Yes",VLOOKUP(VALUE(T36),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V36" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V36" s="4" t="str">
+        <v>MAGR7</v>
+      </c>
+      <c r="W36" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>CHOK7</v>
-      </c>
-      <c r="W36" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR7</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -41543,15 +41558,15 @@
         <v>51</v>
       </c>
       <c r="U37" s="4" t="str">
+        <f>IF(S37="Yes",VLOOKUP(VALUE(T37),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V37" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V37" s="4" t="str">
+        <v>MAGR4</v>
+      </c>
+      <c r="W37" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR4</v>
-      </c>
-      <c r="W37" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR4</v>
       </c>
     </row>
@@ -41585,15 +41600,15 @@
         <v>49</v>
       </c>
       <c r="U38" s="4" t="str">
+        <f>IF(S38="Yes",VLOOKUP(VALUE(T38),$K$2:$M$19,3),"")</f>
+        <v>CHOK</v>
+      </c>
+      <c r="V38" s="4">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41624,16 +41639,16 @@
         <v>50</v>
       </c>
       <c r="U39" s="4" t="str">
+        <f>IF(S39="Yes",VLOOKUP(VALUE(T39),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V39" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V39" s="4">
+        <v>MAGR5</v>
+      </c>
+      <c r="W39" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -41663,16 +41678,16 @@
         <v>50</v>
       </c>
       <c r="U40" s="4" t="str">
+        <f>IF(S40="Yes",VLOOKUP(VALUE(T40),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V40" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V40" s="4">
+        <v>MAGR5</v>
+      </c>
+      <c r="W40" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -41702,16 +41717,16 @@
         <v>50</v>
       </c>
       <c r="U41" s="4" t="str">
+        <f>IF(S41="Yes",VLOOKUP(VALUE(T41),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V41" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V41" s="4">
+        <v>MAGR5</v>
+      </c>
+      <c r="W41" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -41741,16 +41756,16 @@
         <v>50</v>
       </c>
       <c r="U42" s="4" t="str">
+        <f>IF(S42="Yes",VLOOKUP(VALUE(T42),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V42" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V42" s="4">
+        <v>MAGR5</v>
+      </c>
+      <c r="W42" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -41780,16 +41795,16 @@
         <v>51</v>
       </c>
       <c r="U43" s="4" t="str">
+        <f>IF(S43="Yes",VLOOKUP(VALUE(T43),$K$2:$M$19,3),"")</f>
+        <v>MAGR</v>
+      </c>
+      <c r="V43" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V43" s="4" t="str">
+        <v>MAGR5</v>
+      </c>
+      <c r="W43" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>MAGR6</v>
-      </c>
-      <c r="W43" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR6</v>
+        <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -42068,10 +42083,10 @@
         <v>631</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -42200,13 +42215,13 @@
         <v>409</v>
       </c>
       <c r="C69" s="110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D69" s="110" t="s">
         <v>631</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -45851,8 +45866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46507,7 +46522,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D24,"x",C24)</f>
         <v>1244x1838</v>
       </c>
     </row>
@@ -46519,7 +46534,7 @@
         <v>588</v>
       </c>
       <c r="C25">
-        <v>1700</v>
+        <v>1838</v>
       </c>
       <c r="D25">
         <v>1549</v>
@@ -46535,7 +46550,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>1549x1700</v>
+        <v>1549x1838</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -47707,7 +47722,7 @@
         <v>533</v>
       </c>
       <c r="C69">
-        <v>1700</v>
+        <v>1838</v>
       </c>
       <c r="D69">
         <v>1549</v>
@@ -47723,7 +47738,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
-        <v>1549x1700</v>
+        <v>1549x1838</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -3302,6 +3302,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3333,12 +3339,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -17431,13 +17431,13 @@
     </row>
     <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="135" t="s">
         <v>520</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
       <c r="H26" s="92" t="s">
         <v>465</v>
       </c>
@@ -39789,7 +39789,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39935,7 +39935,7 @@
         <v>60</v>
       </c>
       <c r="U4" s="4" t="str">
-        <f>IF(S4="Yes",VLOOKUP(VALUE(T4),$K$2:$M$19,3),"")</f>
+        <f t="shared" ref="U4:U43" si="0">IF(S4="Yes",VLOOKUP(VALUE(T4),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V4" s="4">
@@ -39971,27 +39971,27 @@
         <v>643</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f t="shared" ref="R5:R43" si="0">IF(LEFT(Q5,2)="MG",LEFT(Q5,6),LEFT(Q5,7))</f>
+        <f t="shared" ref="R5:R43" si="1">IF(LEFT(Q5,2)="MG",LEFT(Q5,6),LEFT(Q5,7))</f>
         <v>MG2208</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" ref="S5:S43" si="1">VLOOKUP(R5,$B$2:$D$77,3)</f>
+        <f t="shared" ref="S5:S43" si="2">VLOOKUP(R5,$B$2:$D$77,3)</f>
         <v>No</v>
       </c>
       <c r="T5" s="4" t="str">
-        <f t="shared" ref="T5:T43" si="2">IF(LEFT(Q5,2)="MG",MID(Q5,8,2),MID(Q5,9,2))</f>
+        <f t="shared" ref="T5:T43" si="3">IF(LEFT(Q5,2)="MG",MID(Q5,8,2),MID(Q5,9,2))</f>
         <v>50</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f>IF(S5="Yes",VLOOKUP(VALUE(T5),$K$2:$M$19,3),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5:V43" si="3">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
+        <f t="shared" ref="V5:V43" si="4">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
         <v>0</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" ref="W5:W43" si="4">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
+        <f t="shared" ref="W5:W43" si="5">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40022,27 +40022,27 @@
         <v>644</v>
       </c>
       <c r="R6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2208</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="U6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2208</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f>IF(S6="Yes",VLOOKUP(VALUE(T6),$K$2:$M$19,3),"")</f>
         <v/>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40076,27 +40076,27 @@
         <v>645</v>
       </c>
       <c r="R7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2214</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="U7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2214</v>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U7" s="4" t="str">
-        <f>IF(S7="Yes",VLOOKUP(VALUE(T7),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40130,27 +40130,27 @@
         <v>646</v>
       </c>
       <c r="R8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2216</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="U8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U8" s="4" t="str">
-        <f>IF(S8="Yes",VLOOKUP(VALUE(T8),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40178,27 +40178,27 @@
         <v>646</v>
       </c>
       <c r="R9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2216</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="U9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f>IF(S9="Yes",VLOOKUP(VALUE(T9),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W9" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40226,27 +40226,27 @@
         <v>647</v>
       </c>
       <c r="R10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <f>IF(S10="Yes",VLOOKUP(VALUE(T10),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR1</v>
       </c>
       <c r="W10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40280,27 +40280,27 @@
         <v>647</v>
       </c>
       <c r="R11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U11" s="4" t="str">
-        <f>IF(S11="Yes",VLOOKUP(VALUE(T11),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR1</v>
       </c>
       <c r="W11" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40328,27 +40328,27 @@
         <v>647</v>
       </c>
       <c r="R12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U12" s="4" t="str">
-        <f>IF(S12="Yes",VLOOKUP(VALUE(T12),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR1</v>
       </c>
       <c r="W12" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40376,27 +40376,27 @@
         <v>647</v>
       </c>
       <c r="R13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U13" s="4" t="str">
-        <f>IF(S13="Yes",VLOOKUP(VALUE(T13),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR1</v>
       </c>
       <c r="W13" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40427,27 +40427,27 @@
         <v>647</v>
       </c>
       <c r="R14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U14" s="4" t="str">
-        <f>IF(S14="Yes",VLOOKUP(VALUE(T14),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR1</v>
       </c>
       <c r="W14" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR1</v>
       </c>
     </row>
@@ -40475,27 +40475,27 @@
         <v>648</v>
       </c>
       <c r="R15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U15" s="4" t="str">
-        <f>IF(S15="Yes",VLOOKUP(VALUE(T15),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40529,27 +40529,27 @@
         <v>649</v>
       </c>
       <c r="R16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U16" s="4" t="str">
-        <f>IF(S16="Yes",VLOOKUP(VALUE(T16),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40583,27 +40583,27 @@
         <v>650</v>
       </c>
       <c r="R17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U17" s="4" t="str">
-        <f>IF(S17="Yes",VLOOKUP(VALUE(T17),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W17" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -40637,27 +40637,27 @@
         <v>651</v>
       </c>
       <c r="R18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U18" s="4" t="str">
-        <f>IF(S18="Yes",VLOOKUP(VALUE(T18),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V18" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -40685,27 +40685,27 @@
         <v>652</v>
       </c>
       <c r="R19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U19" s="4" t="str">
-        <f>IF(S19="Yes",VLOOKUP(VALUE(T19),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W19" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40724,27 +40724,27 @@
         <v>652</v>
       </c>
       <c r="R20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U20" s="4" t="str">
-        <f>IF(S20="Yes",VLOOKUP(VALUE(T20),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W20" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40763,27 +40763,27 @@
         <v>652</v>
       </c>
       <c r="R21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U21" s="4" t="str">
-        <f>IF(S21="Yes",VLOOKUP(VALUE(T21),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W21" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40802,27 +40802,27 @@
         <v>652</v>
       </c>
       <c r="R22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U22" s="4" t="str">
-        <f>IF(S22="Yes",VLOOKUP(VALUE(T22),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W22" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40847,27 +40847,27 @@
         <v>652</v>
       </c>
       <c r="R23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U23" s="4" t="str">
-        <f>IF(S23="Yes",VLOOKUP(VALUE(T23),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W23" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -40901,27 +40901,27 @@
         <v>653</v>
       </c>
       <c r="R24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2227</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U24" s="4" t="str">
-        <f>IF(S24="Yes",VLOOKUP(VALUE(T24),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK3</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK3</v>
       </c>
     </row>
@@ -40952,27 +40952,27 @@
         <v>653</v>
       </c>
       <c r="R25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2227</v>
+      </c>
+      <c r="S25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U25" s="4" t="str">
-        <f>IF(S25="Yes",VLOOKUP(VALUE(T25),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK3</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK3</v>
       </c>
     </row>
@@ -41006,27 +41006,27 @@
         <v>654</v>
       </c>
       <c r="R26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2230</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="U26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2230</v>
-      </c>
-      <c r="S26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U26" s="4" t="str">
-        <f>IF(S26="Yes",VLOOKUP(VALUE(T26),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR3</v>
       </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR3</v>
       </c>
     </row>
@@ -41042,7 +41042,7 @@
         <v>631</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>615</v>
+        <v>732</v>
       </c>
       <c r="K27" s="118" t="s">
         <v>508</v>
@@ -41057,27 +41057,27 @@
         <v>655</v>
       </c>
       <c r="R27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2236</v>
+      </c>
+      <c r="S27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="T27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2236</v>
-      </c>
-      <c r="S27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U27" s="4" t="str">
-        <f>IF(S27="Yes",VLOOKUP(VALUE(T27),$K$2:$M$19,3),"")</f>
         <v/>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41105,27 +41105,27 @@
         <v>656</v>
       </c>
       <c r="R28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2237</v>
+      </c>
+      <c r="S28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="T28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="U28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U28" s="4" t="str">
-        <f>IF(S28="Yes",VLOOKUP(VALUE(T28),$K$2:$M$19,3),"")</f>
         <v/>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41159,27 +41159,27 @@
         <v>656</v>
       </c>
       <c r="R29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2237</v>
+      </c>
+      <c r="S29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="T29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="U29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U29" s="4" t="str">
-        <f>IF(S29="Yes",VLOOKUP(VALUE(T29),$K$2:$M$19,3),"")</f>
         <v/>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41194,40 +41194,40 @@
       <c r="D30" s="110" t="s">
         <v>632</v>
       </c>
-      <c r="K30" s="144" t="s">
+      <c r="K30" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="L30" s="145" t="s">
+      <c r="L30" s="134" t="s">
         <v>622</v>
       </c>
-      <c r="M30" s="145" t="s">
+      <c r="M30" s="134" t="s">
         <v>624</v>
       </c>
       <c r="Q30" t="s">
         <v>657</v>
       </c>
       <c r="R30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="U30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U30" s="4" t="str">
-        <f>IF(S30="Yes",VLOOKUP(VALUE(T30),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41255,27 +41255,27 @@
         <v>658</v>
       </c>
       <c r="R31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U31" s="4" t="str">
-        <f>IF(S31="Yes",VLOOKUP(VALUE(T31),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41309,27 +41309,27 @@
         <v>658</v>
       </c>
       <c r="R32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U32" s="4" t="str">
-        <f>IF(S32="Yes",VLOOKUP(VALUE(T32),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41363,27 +41363,27 @@
         <v>659</v>
       </c>
       <c r="R33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2246</v>
+      </c>
+      <c r="S33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="U33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U33" s="4" t="str">
-        <f>IF(S33="Yes",VLOOKUP(VALUE(T33),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHOK FULL</v>
       </c>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel CHOK FULL</v>
       </c>
     </row>
@@ -41417,27 +41417,27 @@
         <v>660</v>
       </c>
       <c r="R34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2246</v>
+      </c>
+      <c r="S34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U34" s="4" t="str">
-        <f>IF(S34="Yes",VLOOKUP(VALUE(T34),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR FULL</v>
       </c>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR FULL</v>
       </c>
     </row>
@@ -41468,27 +41468,27 @@
         <v>661</v>
       </c>
       <c r="R35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2247</v>
+      </c>
+      <c r="S35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="U35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U35" s="4" t="str">
-        <f>IF(S35="Yes",VLOOKUP(VALUE(T35),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR7</v>
       </c>
       <c r="W35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR7</v>
       </c>
     </row>
@@ -41507,27 +41507,27 @@
         <v>662</v>
       </c>
       <c r="R36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2247</v>
+      </c>
+      <c r="S36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U36" s="4" t="str">
-        <f>IF(S36="Yes",VLOOKUP(VALUE(T36),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR7</v>
       </c>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR7</v>
       </c>
     </row>
@@ -41546,27 +41546,27 @@
         <v>663</v>
       </c>
       <c r="R37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2248</v>
+      </c>
+      <c r="S37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="U37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2248</v>
-      </c>
-      <c r="S37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="U37" s="4" t="str">
-        <f>IF(S37="Yes",VLOOKUP(VALUE(T37),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR4</v>
       </c>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR4</v>
       </c>
     </row>
@@ -41588,27 +41588,27 @@
         <v>664</v>
       </c>
       <c r="R38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="U38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U38" s="4" t="str">
-        <f>IF(S38="Yes",VLOOKUP(VALUE(T38),$K$2:$M$19,3),"")</f>
         <v>CHOK</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41627,27 +41627,27 @@
         <v>665</v>
       </c>
       <c r="R39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U39" s="4" t="str">
-        <f>IF(S39="Yes",VLOOKUP(VALUE(T39),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR5</v>
       </c>
       <c r="W39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
@@ -41666,27 +41666,27 @@
         <v>665</v>
       </c>
       <c r="R40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U40" s="4" t="str">
-        <f>IF(S40="Yes",VLOOKUP(VALUE(T40),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR5</v>
       </c>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
@@ -41705,27 +41705,27 @@
         <v>665</v>
       </c>
       <c r="R41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U41" s="4" t="str">
-        <f>IF(S41="Yes",VLOOKUP(VALUE(T41),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR5</v>
       </c>
       <c r="W41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
@@ -41744,27 +41744,27 @@
         <v>665</v>
       </c>
       <c r="R42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U42" s="4" t="str">
-        <f>IF(S42="Yes",VLOOKUP(VALUE(T42),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR5</v>
       </c>
       <c r="W42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
@@ -41783,27 +41783,27 @@
         <v>666</v>
       </c>
       <c r="R43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S43" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="T43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="U43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="U43" s="4" t="str">
-        <f>IF(S43="Yes",VLOOKUP(VALUE(T43),$K$2:$M$19,3),"")</f>
         <v>MAGR</v>
       </c>
       <c r="V43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MAGR5</v>
       </c>
       <c r="W43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Straight to CNC with Panel MAGR5</v>
       </c>
     </row>
@@ -42236,7 +42236,7 @@
         <v>631</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>615</v>
+        <v>732</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -42391,40 +42391,40 @@
     <row r="1" spans="1:28" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="144" t="s">
         <v>708</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="140" t="s">
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="142" t="s">
         <v>704</v>
       </c>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="134" t="s">
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="136" t="s">
         <v>706</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="136"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="138"/>
       <c r="U1" s="70"/>
-      <c r="V1" s="137" t="s">
+      <c r="V1" s="139" t="s">
         <v>707</v>
       </c>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="139"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="141"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -38,16 +38,16 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId19"/>
-    <pivotCache cacheId="1" r:id="rId20"/>
-    <pivotCache cacheId="2" r:id="rId21"/>
-    <pivotCache cacheId="3" r:id="rId22"/>
+    <pivotCache cacheId="4" r:id="rId19"/>
+    <pivotCache cacheId="5" r:id="rId20"/>
+    <pivotCache cacheId="6" r:id="rId21"/>
+    <pivotCache cacheId="7" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="771">
   <si>
     <t>Jan-16</t>
   </si>
@@ -1924,18 +1924,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Grey Glace</t>
-  </si>
-  <si>
-    <t>Maple</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Oak</t>
-  </si>
-  <si>
     <t>Color #</t>
   </si>
   <si>
@@ -2357,6 +2345,21 @@
   </si>
   <si>
     <t xml:space="preserve">24x72 </t>
+  </si>
+  <si>
+    <t>Grey Nebula</t>
+  </si>
+  <si>
+    <t>Sand Shoal</t>
+  </si>
+  <si>
+    <t>Montana Walnut</t>
+  </si>
+  <si>
+    <t>Blue Surface</t>
+  </si>
+  <si>
+    <t>CHOK5</t>
   </si>
 </sst>
 </file>
@@ -14693,7 +14696,213 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="19">
+        <item m="1" x="4"/>
+        <item m="1" x="15"/>
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="5"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="14">
+        <item x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:I62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -14937,214 +15146,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="19">
-        <item m="1" x="4"/>
-        <item m="1" x="15"/>
-        <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="5"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="14">
-        <item x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="9">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -15358,7 +15361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15516,7 +15519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B24" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15642,7 +15645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B19" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15754,7 +15757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B17" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15853,7 +15856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B14" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15945,7 +15948,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -39257,7 +39260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B20"/>
       <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="18" max="40" activeRow="19" previousRow="19" click="1" r:id="rId1">
         <pivotArea dataOnly="0" fieldPosition="0">
@@ -39788,8 +39791,8 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39799,7 +39802,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="4"/>
@@ -39815,22 +39818,22 @@
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>56</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -39842,37 +39845,37 @@
         <v>508</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K2" s="4">
-        <v>49</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>633</v>
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="Q2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>437</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -39884,19 +39887,22 @@
         <v>514</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>616</v>
+        <v>623</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="K3" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>626</v>
+        <v>440</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>634</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -39908,19 +39914,19 @@
         <v>512</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K4" s="4">
-        <v>51</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>634</v>
+        <v>48</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="Q4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="R4" s="4" t="str">
         <f>IF(LEFT(Q4,2)="MG",LEFT(Q4,6),LEFT(Q4,7))</f>
@@ -39934,17 +39940,17 @@
         <f>IF(LEFT(Q4,2)="MG",MID(Q4,8,2),MID(Q4,9,2))</f>
         <v>60</v>
       </c>
-      <c r="U4" s="4" t="str">
-        <f t="shared" ref="U4:U43" si="0">IF(S4="Yes",VLOOKUP(VALUE(T4),$K$2:$M$19,3),"")</f>
-        <v>CHOK</v>
-      </c>
-      <c r="V4" s="4">
+      <c r="U4" s="4" t="e">
+        <f>IF(S4="Yes",VLOOKUP(VALUE(T4),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V4" s="4" t="e">
         <f>IF(U4="MAGR",VLOOKUP(R4,$B$2:$F$77,4),VLOOKUP(R4,$B$2:$F$77,5))</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W4" s="4" t="e">
         <f>IF(U4=LEFT(V4,4),"Straight to CNC with Panel "&amp;V4,"Must Cut Panel")</f>
-        <v>Must Cut Panel</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -39956,42 +39962,42 @@
         <v>512</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K5" s="4">
-        <v>52</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>634</v>
+        <v>49</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="Q5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f t="shared" ref="R5:R43" si="1">IF(LEFT(Q5,2)="MG",LEFT(Q5,6),LEFT(Q5,7))</f>
+        <f t="shared" ref="R5:R43" si="0">IF(LEFT(Q5,2)="MG",LEFT(Q5,6),LEFT(Q5,7))</f>
         <v>MG2208</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" ref="S5:S43" si="2">VLOOKUP(R5,$B$2:$D$77,3)</f>
+        <f t="shared" ref="S5:S43" si="1">VLOOKUP(R5,$B$2:$D$77,3)</f>
         <v>No</v>
       </c>
       <c r="T5" s="4" t="str">
-        <f t="shared" ref="T5:T43" si="3">IF(LEFT(Q5,2)="MG",MID(Q5,8,2),MID(Q5,9,2))</f>
+        <f t="shared" ref="T5:T43" si="2">IF(LEFT(Q5,2)="MG",MID(Q5,8,2),MID(Q5,9,2))</f>
         <v>50</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(S5="Yes",VLOOKUP(VALUE(T5),#REF!,3),"")</f>
         <v/>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5:V43" si="4">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
+        <f t="shared" ref="V5:V43" si="3">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
         <v>0</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" ref="W5:W43" si="5">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
+        <f t="shared" ref="W5:W43" si="4">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40004,45 +40010,45 @@
         <v>504</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>614</v>
       </c>
       <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>640</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2208</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>644</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>MG2208</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="T6" s="4" t="str">
+      <c r="U6" s="4" t="str">
+        <f>IF(S6="Yes",VLOOKUP(VALUE(T6),#REF!,3),"")</f>
+        <v/>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -40055,49 +40061,49 @@
         <v>508</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K7" s="4">
-        <v>54</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>634</v>
+        <v>51</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="R7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2214</v>
+      </c>
+      <c r="S7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2214</v>
-      </c>
-      <c r="S7" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T7" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="U7" s="4" t="e">
+        <f>IF(S7="Yes",VLOOKUP(VALUE(T7),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="U7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V7" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W7" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -40109,7 +40115,7 @@
         <v>507</v>
       </c>
       <c r="D8" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>617</v>
@@ -40118,40 +40124,40 @@
         <v>621</v>
       </c>
       <c r="K8" s="4">
-        <v>55</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>634</v>
+        <v>52</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="R8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2216</v>
+      </c>
+      <c r="S8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S8" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T8" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="U8" s="4" t="e">
+        <f>IF(S8="Yes",VLOOKUP(VALUE(T8),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V8" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="U8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V8" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W8" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -40163,43 +40169,43 @@
         <v>506</v>
       </c>
       <c r="D9" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K9" s="4">
-        <v>56</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>634</v>
+        <v>53</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="R9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2216</v>
+      </c>
+      <c r="S9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S9" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T9" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="U9" s="4" t="e">
+        <f>IF(S9="Yes",VLOOKUP(VALUE(T9),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V9" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V9" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -40211,43 +40217,43 @@
         <v>434</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K10" s="4">
-        <v>57</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>634</v>
+        <v>54</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S10" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T10" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U10" s="4" t="e">
+        <f>IF(S10="Yes",VLOOKUP(VALUE(T10),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V10" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V10" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W10" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -40259,7 +40265,7 @@
         <v>507</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>617</v>
@@ -40268,40 +40274,40 @@
         <v>621</v>
       </c>
       <c r="K11" s="4">
-        <v>60</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>633</v>
+        <v>55</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S11" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T11" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U11" s="4" t="e">
+        <f>IF(S11="Yes",VLOOKUP(VALUE(T11),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V11" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V11" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W11" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -40313,43 +40319,43 @@
         <v>510</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K12" s="4">
-        <v>61</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>634</v>
+        <v>56</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S12" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T12" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U12" s="4" t="e">
+        <f>IF(S12="Yes",VLOOKUP(VALUE(T12),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V12" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V12" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W12" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W12" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -40361,43 +40367,43 @@
         <v>512</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K13" s="4">
-        <v>62</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>634</v>
+        <v>57</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q13" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S13" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T13" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T13" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U13" s="4" t="e">
+        <f>IF(S13="Yes",VLOOKUP(VALUE(T13),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V13" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V13" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W13" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -40409,46 +40415,46 @@
         <v>514</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>616</v>
       </c>
       <c r="K14" s="4">
-        <v>63</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>634</v>
+        <v>60</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="Q14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S14" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T14" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U14" s="4" t="e">
+        <f>IF(S14="Yes",VLOOKUP(VALUE(T14),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V14" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR1</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -40460,43 +40466,43 @@
         <v>434</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K15" s="4">
-        <v>64</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>634</v>
+        <v>61</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q15" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="R15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S15" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T15" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U15" s="4" t="e">
+        <f>IF(S15="Yes",VLOOKUP(VALUE(T15),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V15" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V15" s="4">
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -40508,7 +40514,7 @@
         <v>503</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>618</v>
@@ -40517,40 +40523,40 @@
         <v>620</v>
       </c>
       <c r="K16" s="4">
-        <v>65</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>634</v>
+        <v>62</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="R16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2224</v>
+      </c>
+      <c r="S16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S16" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T16" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U16" s="4" t="e">
+        <f>IF(S16="Yes",VLOOKUP(VALUE(T16),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V16" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V16" s="4">
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -40562,49 +40568,49 @@
         <v>516</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>619</v>
+        <v>770</v>
       </c>
       <c r="K17" s="4">
-        <v>69</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>634</v>
+        <v>63</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="R17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S17" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T17" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="U17" s="4" t="e">
+        <f>IF(S17="Yes",VLOOKUP(VALUE(T17),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V17" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="U17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V17" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W17" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -40616,7 +40622,7 @@
         <v>503</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>618</v>
@@ -40625,40 +40631,40 @@
         <v>620</v>
       </c>
       <c r="K18" s="4">
-        <v>70</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>633</v>
+        <v>64</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q18" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="R18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S18" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T18" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U18" s="4" t="e">
+        <f>IF(S18="Yes",VLOOKUP(VALUE(T18),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V18" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V18" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W18" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W18" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -40670,43 +40676,43 @@
         <v>512</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K19" s="4">
-        <v>82</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>634</v>
+        <v>65</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="R19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S19" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T19" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U19" s="4" t="e">
+        <f>IF(S19="Yes",VLOOKUP(VALUE(T19),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V19" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V19" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W19" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W19" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -40718,34 +40724,43 @@
         <v>434</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
+      </c>
+      <c r="K20" s="4">
+        <v>69</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q20" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="R20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S20" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T20" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U20" s="4" t="e">
+        <f>IF(S20="Yes",VLOOKUP(VALUE(T20),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V20" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V20" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W20" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -40757,34 +40772,43 @@
         <v>512</v>
       </c>
       <c r="D21" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
+      </c>
+      <c r="K21" s="4">
+        <v>70</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="Q21" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="R21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S21" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T21" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U21" s="4" t="e">
+        <f>IF(S21="Yes",VLOOKUP(VALUE(T21),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V21" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V21" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W21" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -40796,34 +40820,43 @@
         <v>434</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
+      </c>
+      <c r="K22" s="4">
+        <v>77</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="Q22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="R22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S22" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T22" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U22" s="4" t="e">
+        <f>IF(S22="Yes",VLOOKUP(VALUE(T22),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V22" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V22" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W22" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W22" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -40835,40 +40868,49 @@
         <v>508</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
+      </c>
+      <c r="K23" s="4">
+        <v>78</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="Q23" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="R23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2226</v>
+      </c>
+      <c r="S23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S23" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T23" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f>IF(S23="Yes",VLOOKUP(VALUE(T23),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V23" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V23" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W23" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W23" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -40880,7 +40922,7 @@
         <v>507</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>617</v>
@@ -40888,41 +40930,41 @@
       <c r="F24" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K24" s="95" t="s">
-        <v>505</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>527</v>
+      <c r="K24" s="4">
+        <v>79</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>767</v>
       </c>
       <c r="Q24" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="R24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2227</v>
+      </c>
+      <c r="S24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S24" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T24" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f>IF(S24="Yes",VLOOKUP(VALUE(T24),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V24" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V24" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W24" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK3</v>
-      </c>
-      <c r="W24" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -40934,46 +40976,46 @@
         <v>514</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="K25" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>624</v>
+      <c r="K25" s="4">
+        <v>80</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>767</v>
       </c>
       <c r="Q25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="R25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2227</v>
+      </c>
+      <c r="S25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S25" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T25" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f>IF(S25="Yes",VLOOKUP(VALUE(T25),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V25" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V25" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W25" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK3</v>
-      </c>
-      <c r="W25" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -40985,49 +41027,49 @@
         <v>508</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="K26" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="K26" s="4">
+        <v>82</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="Q26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="R26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2230</v>
+      </c>
+      <c r="S26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2230</v>
-      </c>
-      <c r="S26" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T26" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T26" s="4" t="str">
+        <v>53</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f>IF(S26="Yes",VLOOKUP(VALUE(T26),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V26" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="U26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V26" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W26" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR3</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -41039,45 +41081,36 @@
         <v>505</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="K27" s="118" t="s">
-        <v>508</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="Q27" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2236</v>
+      </c>
+      <c r="S27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2236</v>
-      </c>
-      <c r="S27" s="4" t="str">
+        <v>No</v>
+      </c>
+      <c r="T27" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="T27" s="4" t="str">
+        <v>60</v>
+      </c>
+      <c r="U27" s="4" t="str">
+        <f>IF(S27="Yes",VLOOKUP(VALUE(T27),#REF!,3),"")</f>
+        <v/>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41090,42 +41123,33 @@
         <v>512</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>632</v>
-      </c>
-      <c r="K28" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="R28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2237</v>
+      </c>
+      <c r="S28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S28" s="4" t="str">
+        <v>No</v>
+      </c>
+      <c r="T28" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="T28" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="U28" s="4" t="str">
+        <f>IF(S28="Yes",VLOOKUP(VALUE(T28),#REF!,3),"")</f>
+        <v/>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="U28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41138,48 +41162,39 @@
         <v>508</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="K29" s="95" t="s">
-        <v>504</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>527</v>
+        <v>727</v>
       </c>
       <c r="Q29" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="R29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2237</v>
+      </c>
+      <c r="S29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S29" s="4" t="str">
+        <v>No</v>
+      </c>
+      <c r="T29" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="T29" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="U29" s="4" t="str">
+        <f>IF(S29="Yes",VLOOKUP(VALUE(T29),#REF!,3),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="U29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Must Cut Panel</v>
       </c>
     </row>
@@ -41192,43 +41207,34 @@
         <v>512</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>632</v>
-      </c>
-      <c r="K30" s="133" t="s">
-        <v>513</v>
-      </c>
-      <c r="L30" s="134" t="s">
-        <v>622</v>
-      </c>
-      <c r="M30" s="134" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q30" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S30" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T30" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T30" s="4" t="str">
+        <v>53</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f>IF(S30="Yes",VLOOKUP(VALUE(T30),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V30" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="U30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V30" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W30" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W30" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -41240,43 +41246,34 @@
         <v>515</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>632</v>
-      </c>
-      <c r="K31" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q31" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="R31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S31" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T31" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T31" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f>IF(S31="Yes",VLOOKUP(VALUE(T31),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V31" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V31" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W31" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W31" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -41288,49 +41285,40 @@
         <v>508</v>
       </c>
       <c r="D32" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="K32" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>624</v>
+        <v>727</v>
       </c>
       <c r="Q32" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="R32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2245</v>
+      </c>
+      <c r="S32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S32" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T32" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T32" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f>IF(S32="Yes",VLOOKUP(VALUE(T32),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V32" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -41342,49 +41330,40 @@
         <v>508</v>
       </c>
       <c r="D33" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>624</v>
+        <v>727</v>
       </c>
       <c r="Q33" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="R33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2246</v>
+      </c>
+      <c r="S33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S33" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T33" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T33" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="U33" s="4" t="e">
+        <f>IF(S33="Yes",VLOOKUP(VALUE(T33),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="U33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V33" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>CHOK FULL</v>
-      </c>
-      <c r="W33" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel CHOK FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -41396,49 +41375,40 @@
         <v>508</v>
       </c>
       <c r="D34" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="K34" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>527</v>
+        <v>727</v>
       </c>
       <c r="Q34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="R34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2246</v>
+      </c>
+      <c r="S34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S34" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T34" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T34" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U34" s="4" t="e">
+        <f>IF(S34="Yes",VLOOKUP(VALUE(T34),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V34" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V34" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W34" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR FULL</v>
-      </c>
-      <c r="W34" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR FULL</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -41450,46 +41420,37 @@
         <v>514</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="K35" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="Q35" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="R35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2247</v>
+      </c>
+      <c r="S35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S35" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T35" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="U35" s="4" t="e">
+        <f>IF(S35="Yes",VLOOKUP(VALUE(T35),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V35" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="U35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V35" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W35" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR7</v>
-      </c>
-      <c r="W35" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -41501,34 +41462,34 @@
         <v>512</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="R36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2247</v>
+      </c>
+      <c r="S36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S36" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T36" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="U36" s="4" t="e">
+        <f>IF(S36="Yes",VLOOKUP(VALUE(T36),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V36" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V36" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W36" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR7</v>
-      </c>
-      <c r="W36" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -41540,34 +41501,34 @@
         <v>512</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q37" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="R37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2248</v>
+      </c>
+      <c r="S37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2248</v>
-      </c>
-      <c r="S37" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T37" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T37" s="4" t="str">
+        <v>51</v>
+      </c>
+      <c r="U37" s="4" t="e">
+        <f>IF(S37="Yes",VLOOKUP(VALUE(T37),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V37" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="U37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V37" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W37" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR4</v>
-      </c>
-      <c r="W37" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -41579,37 +41540,37 @@
         <v>504</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>614</v>
       </c>
       <c r="Q38" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="R38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S38" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T38" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="U38" s="4" t="e">
+        <f>IF(S38="Yes",VLOOKUP(VALUE(T38),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V38" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="U38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOK</v>
-      </c>
-      <c r="V38" s="4">
+        <v>#REF!</v>
+      </c>
+      <c r="W38" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Must Cut Panel</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -41621,34 +41582,34 @@
         <v>506</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q39" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="R39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S39" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T39" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="U39" s="4" t="e">
+        <f>IF(S39="Yes",VLOOKUP(VALUE(T39),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V39" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="U39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V39" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W39" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR5</v>
-      </c>
-      <c r="W39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -41660,34 +41621,34 @@
         <v>434</v>
       </c>
       <c r="D40" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q40" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="R40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S40" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T40" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="U40" s="4" t="e">
+        <f>IF(S40="Yes",VLOOKUP(VALUE(T40),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V40" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="U40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V40" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W40" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR5</v>
-      </c>
-      <c r="W40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -41699,34 +41660,34 @@
         <v>512</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q41" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="R41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S41" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T41" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="U41" s="4" t="e">
+        <f>IF(S41="Yes",VLOOKUP(VALUE(T41),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V41" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="U41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V41" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W41" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR5</v>
-      </c>
-      <c r="W41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -41738,34 +41699,34 @@
         <v>434</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q42" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="R42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S42" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T42" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T42" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="U42" s="4" t="e">
+        <f>IF(S42="Yes",VLOOKUP(VALUE(T42),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V42" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="U42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V42" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W42" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR5</v>
-      </c>
-      <c r="W42" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -41777,34 +41738,34 @@
         <v>434</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q43" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="R43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MG2270</v>
+      </c>
+      <c r="S43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S43" s="4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="T43" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="T43" s="4" t="str">
+        <v>51</v>
+      </c>
+      <c r="U43" s="4" t="e">
+        <f>IF(S43="Yes",VLOOKUP(VALUE(T43),#REF!,3),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="U43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MAGR</v>
-      </c>
-      <c r="V43" s="4" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="W43" s="4" t="e">
         <f t="shared" si="4"/>
-        <v>MAGR5</v>
-      </c>
-      <c r="W43" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Straight to CNC with Panel MAGR5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -41816,7 +41777,7 @@
         <v>512</v>
       </c>
       <c r="D44" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -41828,7 +41789,7 @@
         <v>509</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -41840,7 +41801,7 @@
         <v>503</v>
       </c>
       <c r="D46" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>618</v>
@@ -41858,13 +41819,13 @@
         <v>508</v>
       </c>
       <c r="D47" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -41876,13 +41837,13 @@
         <v>508</v>
       </c>
       <c r="D48" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -41894,7 +41855,7 @@
         <v>511</v>
       </c>
       <c r="D49" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -41906,7 +41867,7 @@
         <v>504</v>
       </c>
       <c r="D50" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>614</v>
@@ -41921,13 +41882,13 @@
         <v>508</v>
       </c>
       <c r="D51" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -41939,7 +41900,7 @@
         <v>507</v>
       </c>
       <c r="D52" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>617</v>
@@ -41957,7 +41918,7 @@
         <v>506</v>
       </c>
       <c r="D53" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -41969,7 +41930,7 @@
         <v>507</v>
       </c>
       <c r="D54" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>617</v>
@@ -41987,7 +41948,7 @@
         <v>510</v>
       </c>
       <c r="D55" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -41999,7 +41960,7 @@
         <v>512</v>
       </c>
       <c r="D56" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -42011,7 +41972,7 @@
         <v>514</v>
       </c>
       <c r="D57" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>616</v>
@@ -42026,7 +41987,7 @@
         <v>503</v>
       </c>
       <c r="D58" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>618</v>
@@ -42044,13 +42005,13 @@
         <v>508</v>
       </c>
       <c r="D59" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -42062,13 +42023,13 @@
         <v>508</v>
       </c>
       <c r="D60" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -42080,13 +42041,13 @@
         <v>516</v>
       </c>
       <c r="D61" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>619</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -42098,7 +42059,7 @@
         <v>503</v>
       </c>
       <c r="D62" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>618</v>
@@ -42116,7 +42077,7 @@
         <v>517</v>
       </c>
       <c r="D63" s="110" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -42128,16 +42089,16 @@
         <v>508</v>
       </c>
       <c r="D64" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="112"/>
       <c r="B65" s="110" t="s">
         <v>397</v>
@@ -42146,16 +42107,25 @@
         <v>508</v>
       </c>
       <c r="D65" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="K65" s="95" t="s">
+        <v>505</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="112"/>
       <c r="B66" s="110" t="s">
         <v>475</v>
@@ -42164,7 +42134,7 @@
         <v>503</v>
       </c>
       <c r="D66" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>618</v>
@@ -42172,8 +42142,17 @@
       <c r="F66" s="5" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K66" s="95" t="s">
+        <v>507</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="112"/>
       <c r="B67" s="110" t="s">
         <v>400</v>
@@ -42182,7 +42161,7 @@
         <v>507</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>617</v>
@@ -42190,8 +42169,17 @@
       <c r="F67" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K67" s="95" t="s">
+        <v>507</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="112"/>
       <c r="B68" s="110" t="s">
         <v>484</v>
@@ -42200,16 +42188,25 @@
         <v>508</v>
       </c>
       <c r="D68" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="K68" s="118" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="112"/>
       <c r="B69" s="110" t="s">
         <v>409</v>
@@ -42218,13 +42215,22 @@
         <v>514</v>
       </c>
       <c r="D69" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K69" s="95" t="s">
+        <v>508</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="112"/>
       <c r="B70" s="110" t="s">
         <v>406</v>
@@ -42233,13 +42239,22 @@
         <v>505</v>
       </c>
       <c r="D70" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="K70" s="95" t="s">
+        <v>504</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="112"/>
       <c r="B71" s="110" t="s">
         <v>420</v>
@@ -42248,16 +42263,25 @@
         <v>508</v>
       </c>
       <c r="D71" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="K71" s="133" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" s="134" t="s">
+        <v>622</v>
+      </c>
+      <c r="M71" s="134" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="112"/>
       <c r="B72" s="110" t="s">
         <v>499</v>
@@ -42266,10 +42290,19 @@
         <v>434</v>
       </c>
       <c r="D72" s="110" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="K72" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="112"/>
       <c r="B73" s="110" t="s">
         <v>405</v>
@@ -42278,10 +42311,19 @@
         <v>512</v>
       </c>
       <c r="D73" s="110" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="K73" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="112"/>
       <c r="B74" s="110" t="s">
         <v>500</v>
@@ -42290,10 +42332,19 @@
         <v>434</v>
       </c>
       <c r="D74" s="110" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="K74" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="112"/>
       <c r="B75" s="110" t="s">
         <v>476</v>
@@ -42302,7 +42353,7 @@
         <v>503</v>
       </c>
       <c r="D75" s="110" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>618</v>
@@ -42310,8 +42361,17 @@
       <c r="F75" s="5" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K75" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B76" s="70" t="s">
         <v>501</v>
       </c>
@@ -42319,10 +42379,19 @@
         <v>434</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="K76" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B77" s="70" t="s">
         <v>477</v>
       </c>
@@ -42330,7 +42399,7 @@
         <v>503</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>618</v>
@@ -42392,7 +42461,7 @@
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
       <c r="C1" s="144" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D1" s="142"/>
       <c r="E1" s="142"/>
@@ -42400,7 +42469,7 @@
       <c r="G1" s="142"/>
       <c r="H1" s="145"/>
       <c r="I1" s="142" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J1" s="142"/>
       <c r="K1" s="142"/>
@@ -42408,7 +42477,7 @@
       <c r="M1" s="142"/>
       <c r="N1" s="143"/>
       <c r="O1" s="136" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="P1" s="137"/>
       <c r="Q1" s="137"/>
@@ -42417,7 +42486,7 @@
       <c r="T1" s="138"/>
       <c r="U1" s="70"/>
       <c r="V1" s="139" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="W1" s="140"/>
       <c r="X1" s="140"/>
@@ -42428,46 +42497,46 @@
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" s="130" t="s">
+        <v>695</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" s="114" t="s">
         <v>697</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="F2" s="114" t="s">
+        <v>699</v>
+      </c>
+      <c r="G2" s="114" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="H2" s="131" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>695</v>
+      </c>
+      <c r="J2" s="114" t="s">
+        <v>696</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>697</v>
+      </c>
+      <c r="L2" s="114" t="s">
         <v>699</v>
       </c>
-      <c r="D2" s="114" t="s">
-        <v>700</v>
-      </c>
-      <c r="E2" s="114" t="s">
-        <v>701</v>
-      </c>
-      <c r="F2" s="114" t="s">
-        <v>703</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>702</v>
-      </c>
-      <c r="H2" s="131" t="s">
-        <v>734</v>
-      </c>
-      <c r="I2" s="114" t="s">
-        <v>699</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>700</v>
-      </c>
-      <c r="K2" s="114" t="s">
-        <v>701</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>703</v>
-      </c>
       <c r="M2" s="114" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="O2" s="121" t="s">
         <v>518</v>
@@ -42479,13 +42548,13 @@
         <v>605</v>
       </c>
       <c r="R2" s="123" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S2" s="123" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="T2" s="123" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="V2" s="122" t="s">
         <v>518</v>
@@ -42497,16 +42566,16 @@
         <v>605</v>
       </c>
       <c r="Y2" s="127" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Z2" s="127" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="AA2" s="127" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="AB2" s="127" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42527,7 +42596,7 @@
       </c>
       <c r="F3" s="112"/>
       <c r="G3" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H3" s="132"/>
       <c r="I3" s="112">
@@ -42544,7 +42613,7 @@
       </c>
       <c r="M3" s="112"/>
       <c r="O3" s="120" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="P3" s="124">
         <v>41.75</v>
@@ -42556,11 +42625,11 @@
         <v>2.5</v>
       </c>
       <c r="S3" s="124" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T3" s="124"/>
       <c r="V3" s="120" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="W3" s="124">
         <v>50.125</v>
@@ -42575,7 +42644,7 @@
         <v>5</v>
       </c>
       <c r="AA3" s="124" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AB3" s="124"/>
     </row>
@@ -42596,7 +42665,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H4" s="132"/>
       <c r="I4" s="112">
@@ -42612,10 +42681,10 @@
         <v>5</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="P4" s="125">
         <v>40.625</v>
@@ -42627,11 +42696,11 @@
         <v>2.25</v>
       </c>
       <c r="S4" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T4" s="125"/>
       <c r="V4" s="119" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="W4" s="125">
         <v>50.25</v>
@@ -42646,7 +42715,7 @@
         <v>6</v>
       </c>
       <c r="AA4" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB4" s="125"/>
     </row>
@@ -42668,7 +42737,7 @@
       </c>
       <c r="F5" s="112"/>
       <c r="G5" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H5" s="132"/>
       <c r="I5" s="112">
@@ -42684,10 +42753,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="P5" s="125">
         <v>52.75</v>
@@ -42699,11 +42768,11 @@
         <v>2.5</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T5" s="125"/>
       <c r="V5" s="119" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="W5" s="125">
         <v>62.38</v>
@@ -42718,10 +42787,10 @@
         <v>7</v>
       </c>
       <c r="AA5" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB5" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42743,7 +42812,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="112"/>
       <c r="O6" s="119" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P6" s="125">
         <v>52.75</v>
@@ -42755,11 +42824,11 @@
         <v>2.5</v>
       </c>
       <c r="S6" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T6" s="125"/>
       <c r="V6" s="119" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="W6" s="125">
         <v>74</v>
@@ -42774,10 +42843,10 @@
         <v>9</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB6" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42798,7 +42867,7 @@
       </c>
       <c r="F7" s="112"/>
       <c r="G7" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H7" s="132"/>
       <c r="I7" s="112">
@@ -42814,10 +42883,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="O7" s="119" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="P7" s="125">
         <v>64.875</v>
@@ -42829,11 +42898,11 @@
         <v>2.5</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T7" s="125"/>
       <c r="V7" s="119" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="W7" s="125">
         <v>74</v>
@@ -42848,7 +42917,7 @@
         <v>10</v>
       </c>
       <c r="AA7" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB7" s="125"/>
     </row>
@@ -42870,7 +42939,7 @@
       </c>
       <c r="F8" s="112"/>
       <c r="G8" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H8" s="132"/>
       <c r="I8" s="112"/>
@@ -42879,7 +42948,7 @@
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
       <c r="O8" s="119" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P8" s="125">
         <v>46.75</v>
@@ -42891,11 +42960,11 @@
         <v>2</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T8" s="125"/>
       <c r="V8" s="119" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="W8" s="125">
         <v>49.5</v>
@@ -42910,7 +42979,7 @@
         <v>4</v>
       </c>
       <c r="AA8" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB8" s="125"/>
     </row>
@@ -42933,7 +43002,7 @@
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
       <c r="O9" s="119" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="P9" s="125">
         <v>40.625</v>
@@ -42945,11 +43014,11 @@
         <v>2</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T9" s="125"/>
       <c r="V9" s="119" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="W9" s="125">
         <v>62.125</v>
@@ -42964,7 +43033,7 @@
         <v>6</v>
       </c>
       <c r="AA9" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB9" s="125"/>
     </row>
@@ -42986,7 +43055,7 @@
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="112"/>
@@ -42995,7 +43064,7 @@
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
       <c r="O10" s="119" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="P10" s="125">
         <v>52.625</v>
@@ -43007,11 +43076,11 @@
         <v>2.5</v>
       </c>
       <c r="S10" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T10" s="125"/>
       <c r="V10" s="119" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="W10" s="125">
         <v>74</v>
@@ -43026,7 +43095,7 @@
         <v>7</v>
       </c>
       <c r="AA10" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB10" s="125"/>
     </row>
@@ -43049,7 +43118,7 @@
       <c r="L11" s="112"/>
       <c r="M11" s="112"/>
       <c r="O11" s="119" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="P11" s="125">
         <v>63.875</v>
@@ -43061,11 +43130,11 @@
         <v>2.5</v>
       </c>
       <c r="S11" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T11" s="125"/>
       <c r="V11" s="119" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="W11" s="125">
         <v>43.75</v>
@@ -43080,7 +43149,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB11" s="125"/>
     </row>
@@ -43102,10 +43171,10 @@
       </c>
       <c r="F12" s="112"/>
       <c r="G12" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H12" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
@@ -43113,10 +43182,10 @@
       <c r="L12" s="112"/>
       <c r="M12" s="112"/>
       <c r="N12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O12" s="119" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="P12" s="125">
         <v>64.88</v>
@@ -43128,13 +43197,13 @@
         <v>2.5</v>
       </c>
       <c r="S12" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T12" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="V12" s="119" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="W12" s="125">
         <v>50</v>
@@ -43149,7 +43218,7 @@
         <v>6</v>
       </c>
       <c r="AA12" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB12" s="125"/>
     </row>
@@ -43171,7 +43240,7 @@
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H13" s="132"/>
       <c r="I13" s="112"/>
@@ -43180,7 +43249,7 @@
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
       <c r="O13" s="119" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="P13" s="125">
         <v>52.75</v>
@@ -43192,11 +43261,11 @@
         <v>2.5</v>
       </c>
       <c r="S13" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T13" s="125"/>
       <c r="V13" s="119" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="W13" s="125">
         <v>0</v>
@@ -43211,7 +43280,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB13" s="125"/>
     </row>
@@ -43233,10 +43302,10 @@
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H14" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
@@ -43244,10 +43313,10 @@
       <c r="L14" s="112"/>
       <c r="M14" s="112"/>
       <c r="N14" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O14" s="119" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="P14" s="125">
         <v>52.75</v>
@@ -43259,11 +43328,11 @@
         <v>2</v>
       </c>
       <c r="S14" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T14" s="125"/>
       <c r="V14" s="119" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="W14" s="125">
         <v>62.375</v>
@@ -43278,7 +43347,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB14" s="125"/>
     </row>
@@ -43300,10 +43369,10 @@
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H15" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
@@ -43311,10 +43380,10 @@
       <c r="L15" s="112"/>
       <c r="M15" s="112"/>
       <c r="N15" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O15" s="119" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="P15" s="125">
         <v>50</v>
@@ -43326,13 +43395,13 @@
         <v>2.5</v>
       </c>
       <c r="S15" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T15" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="V15" s="119" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="W15" s="125">
         <v>38.125</v>
@@ -43347,7 +43416,7 @@
         <v>4</v>
       </c>
       <c r="AA15" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB15" s="125"/>
     </row>
@@ -43369,7 +43438,7 @@
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H16" s="132"/>
       <c r="I16" s="112">
@@ -43385,10 +43454,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="O16" s="119" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="P16" s="125">
         <v>50</v>
@@ -43400,13 +43469,13 @@
         <v>2.5</v>
       </c>
       <c r="S16" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T16" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="V16" s="119" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="W16" s="125">
         <v>62.375</v>
@@ -43421,7 +43490,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB16" s="125"/>
     </row>
@@ -43443,7 +43512,7 @@
       </c>
       <c r="F17" s="112"/>
       <c r="G17" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H17" s="132"/>
       <c r="I17" s="112"/>
@@ -43452,7 +43521,7 @@
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
       <c r="O17" s="119" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="P17" s="125">
         <v>52</v>
@@ -43464,11 +43533,11 @@
         <v>2</v>
       </c>
       <c r="S17" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T17" s="125"/>
       <c r="V17" s="119" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="W17" s="125">
         <v>38</v>
@@ -43483,7 +43552,7 @@
         <v>4</v>
       </c>
       <c r="AA17" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB17" s="125"/>
     </row>
@@ -43505,7 +43574,7 @@
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H18" s="132"/>
       <c r="I18" s="112"/>
@@ -43514,7 +43583,7 @@
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
       <c r="O18" s="119" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P18" s="125">
         <v>46.75</v>
@@ -43526,11 +43595,11 @@
         <v>2</v>
       </c>
       <c r="S18" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T18" s="125"/>
       <c r="V18" s="119" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="W18" s="125">
         <v>62.375</v>
@@ -43545,7 +43614,7 @@
         <v>8</v>
       </c>
       <c r="AA18" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB18" s="125"/>
     </row>
@@ -43567,10 +43636,10 @@
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H19" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I19" s="112"/>
       <c r="J19" s="112"/>
@@ -43578,10 +43647,10 @@
       <c r="L19" s="112"/>
       <c r="M19" s="112"/>
       <c r="N19" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O19" s="119" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P19" s="125">
         <v>52.625</v>
@@ -43593,11 +43662,11 @@
         <v>2</v>
       </c>
       <c r="S19" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T19" s="125"/>
       <c r="V19" s="119" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="W19" s="125">
         <v>62.375</v>
@@ -43612,7 +43681,7 @@
         <v>6</v>
       </c>
       <c r="AA19" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB19" s="125"/>
     </row>
@@ -43635,7 +43704,7 @@
       <c r="L20" s="112"/>
       <c r="M20" s="112"/>
       <c r="O20" s="119" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P20" s="125">
         <v>64.875</v>
@@ -43647,11 +43716,11 @@
         <v>2.5</v>
       </c>
       <c r="S20" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T20" s="125"/>
       <c r="V20" s="119" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="W20" s="125">
         <v>38.75</v>
@@ -43666,7 +43735,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB20" s="125"/>
     </row>
@@ -43689,7 +43758,7 @@
       <c r="L21" s="112"/>
       <c r="M21" s="112"/>
       <c r="O21" s="119" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="P21" s="125">
         <v>40.5</v>
@@ -43701,11 +43770,11 @@
         <v>2.25</v>
       </c>
       <c r="S21" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T21" s="125"/>
       <c r="V21" s="119" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="W21" s="125">
         <v>39.25</v>
@@ -43720,7 +43789,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB21" s="125"/>
     </row>
@@ -43750,10 +43819,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O22" s="119" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="P22" s="125">
         <v>32.5</v>
@@ -43765,11 +43834,11 @@
         <v>2.25</v>
       </c>
       <c r="S22" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T22" s="125"/>
       <c r="V22" s="119" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="W22" s="125">
         <v>42.25</v>
@@ -43784,7 +43853,7 @@
         <v>6</v>
       </c>
       <c r="AA22" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB22" s="125"/>
     </row>
@@ -43807,7 +43876,7 @@
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
       <c r="O23" s="119" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="P23" s="125">
         <v>44.75</v>
@@ -43819,11 +43888,11 @@
         <v>2.25</v>
       </c>
       <c r="S23" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T23" s="125"/>
       <c r="V23" s="119" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="W23" s="125">
         <v>30</v>
@@ -43838,7 +43907,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB23" s="125"/>
     </row>
@@ -43860,7 +43929,7 @@
       </c>
       <c r="F24" s="112"/>
       <c r="G24" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H24" s="132"/>
       <c r="I24" s="112"/>
@@ -43869,7 +43938,7 @@
       <c r="L24" s="112"/>
       <c r="M24" s="112"/>
       <c r="O24" s="119" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="P24" s="125">
         <v>50</v>
@@ -43881,13 +43950,13 @@
         <v>2.5</v>
       </c>
       <c r="S24" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T24" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="V24" s="119" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="W24" s="125">
         <v>38.125</v>
@@ -43923,7 +43992,7 @@
       <c r="L25" s="112"/>
       <c r="M25" s="112"/>
       <c r="O25" s="119" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="P25" s="125">
         <v>64.875</v>
@@ -43935,11 +44004,11 @@
         <v>2.5</v>
       </c>
       <c r="S25" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T25" s="125"/>
       <c r="V25" s="119" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="W25" s="125">
         <v>50.125</v>
@@ -43975,7 +44044,7 @@
       <c r="L26" s="112"/>
       <c r="M26" s="112"/>
       <c r="O26" s="119" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="P26" s="125">
         <v>34.75</v>
@@ -43987,11 +44056,11 @@
         <v>2.25</v>
       </c>
       <c r="S26" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T26" s="125"/>
       <c r="V26" s="119" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="W26" s="125">
         <v>45.375</v>
@@ -44026,7 +44095,7 @@
       </c>
       <c r="F27" s="112"/>
       <c r="G27" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H27" s="132"/>
       <c r="I27" s="112">
@@ -44042,10 +44111,10 @@
         <v>6</v>
       </c>
       <c r="M27" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="O27" s="119" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="P27" s="125">
         <v>64.88</v>
@@ -44057,11 +44126,11 @@
         <v>2.5</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="T27" s="125"/>
       <c r="V27" s="119" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="W27" s="125">
         <v>62.75</v>
@@ -44076,10 +44145,10 @@
         <v>10</v>
       </c>
       <c r="AA27" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB27" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44101,7 +44170,7 @@
       <c r="L28" s="112"/>
       <c r="M28" s="112"/>
       <c r="O28" s="119" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="P28" s="125">
         <v>41.25</v>
@@ -44113,11 +44182,11 @@
         <v>2.5</v>
       </c>
       <c r="S28" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T28" s="125"/>
       <c r="V28" s="119" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="W28" s="125">
         <v>74.5</v>
@@ -44132,7 +44201,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB28" s="125"/>
     </row>
@@ -44155,7 +44224,7 @@
       <c r="L29" s="112"/>
       <c r="M29" s="112"/>
       <c r="V29" s="119" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="W29" s="125">
         <v>60.125</v>
@@ -44170,10 +44239,10 @@
         <v>6</v>
       </c>
       <c r="AA29" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB29" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44194,7 +44263,7 @@
       </c>
       <c r="F30" s="112"/>
       <c r="G30" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H30" s="132"/>
       <c r="I30" s="112">
@@ -44210,10 +44279,10 @@
         <v>5</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="V30" s="119" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="W30" s="125">
         <v>32.25</v>
@@ -44228,7 +44297,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="125" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AB30" s="125"/>
     </row>
@@ -44250,7 +44319,7 @@
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H31" s="132"/>
       <c r="I31" s="112"/>
@@ -44259,7 +44328,7 @@
       <c r="L31" s="112"/>
       <c r="M31" s="112"/>
       <c r="V31" s="119" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="W31" s="125">
         <v>61.375</v>
@@ -44274,10 +44343,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB31" s="125" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44299,7 +44368,7 @@
       <c r="L32" s="112"/>
       <c r="M32" s="112"/>
       <c r="V32" s="119" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="W32" s="125">
         <v>56.375</v>
@@ -44335,7 +44404,7 @@
       <c r="L33" s="112"/>
       <c r="M33" s="112"/>
       <c r="V33" s="119" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="W33" s="125">
         <v>74</v>
@@ -44350,7 +44419,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB33" s="125"/>
     </row>
@@ -44373,7 +44442,7 @@
       <c r="L34" s="112"/>
       <c r="M34" s="112"/>
       <c r="V34" s="119" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="W34" s="125">
         <v>62.25</v>
@@ -44388,7 +44457,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB34" s="125"/>
     </row>
@@ -44410,7 +44479,7 @@
       </c>
       <c r="F35" s="112"/>
       <c r="G35" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H35" s="132"/>
       <c r="I35" s="112">
@@ -44426,10 +44495,10 @@
         <v>5</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="V35" s="119" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="W35" s="125">
         <v>33.125</v>
@@ -44444,7 +44513,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AB35" s="125"/>
     </row>
@@ -44465,7 +44534,7 @@
         <v>2.5</v>
       </c>
       <c r="G36" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H36" s="132"/>
       <c r="I36" s="112"/>
@@ -44492,7 +44561,7 @@
       </c>
       <c r="F37" s="112"/>
       <c r="G37" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H37" s="132"/>
       <c r="I37" s="112"/>
@@ -44538,7 +44607,7 @@
       </c>
       <c r="F39" s="112"/>
       <c r="G39" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H39" s="132"/>
       <c r="I39" s="112"/>
@@ -44603,7 +44672,7 @@
       </c>
       <c r="F42" s="112"/>
       <c r="G42" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H42" s="132"/>
       <c r="I42" s="112"/>
@@ -44663,7 +44732,7 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I45" s="112">
         <v>61.375</v>
@@ -44678,10 +44747,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N45" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -44710,7 +44779,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -44731,7 +44800,7 @@
       </c>
       <c r="F47" s="112"/>
       <c r="G47" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H47" s="132"/>
       <c r="I47" s="112">
@@ -44766,7 +44835,7 @@
       </c>
       <c r="F48" s="112"/>
       <c r="G48" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H48" s="132"/>
       <c r="I48" s="112">
@@ -44801,7 +44870,7 @@
       </c>
       <c r="F49" s="112"/>
       <c r="G49" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="112">
@@ -44855,7 +44924,7 @@
       </c>
       <c r="F51" s="112"/>
       <c r="G51" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H51" s="132"/>
       <c r="I51" s="112">
@@ -44871,7 +44940,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -44892,7 +44961,7 @@
       </c>
       <c r="F52" s="112"/>
       <c r="G52" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H52" s="132"/>
       <c r="I52" s="112"/>
@@ -44927,7 +44996,7 @@
         <v>10</v>
       </c>
       <c r="M53" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -44948,7 +45017,7 @@
       </c>
       <c r="F54" s="112"/>
       <c r="G54" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="112">
@@ -44964,7 +45033,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -44985,10 +45054,10 @@
       </c>
       <c r="F55" s="112"/>
       <c r="G55" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H55" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I55" s="112">
         <v>74</v>
@@ -45003,10 +45072,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N55" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -45027,7 +45096,7 @@
       </c>
       <c r="F56" s="112"/>
       <c r="G56" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H56" s="132"/>
       <c r="I56" s="112">
@@ -45043,7 +45112,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -45064,10 +45133,10 @@
       </c>
       <c r="F57" s="112"/>
       <c r="G57" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H57" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I57" s="112">
         <v>62.38</v>
@@ -45082,10 +45151,10 @@
         <v>7</v>
       </c>
       <c r="M57" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N57" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -45106,7 +45175,7 @@
       </c>
       <c r="F58" s="112"/>
       <c r="G58" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="112">
@@ -45122,7 +45191,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -45143,10 +45212,10 @@
       </c>
       <c r="F59" s="112"/>
       <c r="G59" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H59" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I59" s="112">
         <v>38</v>
@@ -45161,10 +45230,10 @@
         <v>4</v>
       </c>
       <c r="M59" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N59" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -45185,7 +45254,7 @@
       </c>
       <c r="F60" s="112"/>
       <c r="G60" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H60" s="132"/>
       <c r="I60" s="112">
@@ -45201,7 +45270,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -45222,7 +45291,7 @@
       </c>
       <c r="F61" s="112"/>
       <c r="G61" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H61" s="132"/>
       <c r="I61" s="112"/>
@@ -45249,7 +45318,7 @@
       </c>
       <c r="F62" s="112"/>
       <c r="G62" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H62" s="132"/>
       <c r="I62" s="112"/>
@@ -45276,10 +45345,10 @@
       </c>
       <c r="F63" s="112"/>
       <c r="G63" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H63" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I63" s="112">
         <v>74</v>
@@ -45294,10 +45363,10 @@
         <v>10</v>
       </c>
       <c r="M63" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N63" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -45318,7 +45387,7 @@
       </c>
       <c r="F64" s="112"/>
       <c r="G64" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H64" s="132"/>
       <c r="I64" s="112">
@@ -45334,7 +45403,7 @@
         <v>8</v>
       </c>
       <c r="M64" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -45374,7 +45443,7 @@
       </c>
       <c r="F66" s="112"/>
       <c r="G66" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H66" s="132"/>
       <c r="I66" s="112">
@@ -45390,7 +45459,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -45438,7 +45507,7 @@
         <v>7</v>
       </c>
       <c r="M68" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -45473,7 +45542,7 @@
       <c r="F70" s="112"/>
       <c r="G70" s="112"/>
       <c r="H70" s="132" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I70" s="112">
         <v>62.75</v>
@@ -45488,10 +45557,10 @@
         <v>10</v>
       </c>
       <c r="M70" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N70" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -45512,7 +45581,7 @@
       </c>
       <c r="F71" s="112"/>
       <c r="G71" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H71" s="132"/>
       <c r="I71" s="112"/>
@@ -45539,7 +45608,7 @@
       </c>
       <c r="F72" s="112"/>
       <c r="G72" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H72" s="132"/>
       <c r="I72" s="112"/>
@@ -45585,7 +45654,7 @@
       </c>
       <c r="F74" s="112"/>
       <c r="G74" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H74" s="132"/>
       <c r="I74" s="112">
@@ -45601,7 +45670,7 @@
         <v>6</v>
       </c>
       <c r="M74" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -45622,7 +45691,7 @@
       </c>
       <c r="F75" s="112"/>
       <c r="G75" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H75" s="132"/>
       <c r="I75" s="112"/>
@@ -45649,7 +45718,7 @@
       </c>
       <c r="F76" s="112"/>
       <c r="G76" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H76" s="132"/>
       <c r="I76" s="112"/>
@@ -45676,7 +45745,7 @@
       </c>
       <c r="F77" s="112"/>
       <c r="G77" s="112" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H77" s="132"/>
       <c r="I77" s="112"/>
@@ -45703,7 +45772,7 @@
       </c>
       <c r="F78" s="112"/>
       <c r="G78" s="112" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H78" s="132"/>
       <c r="I78" s="112"/>
@@ -45717,7 +45786,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="115" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
@@ -45737,19 +45806,19 @@
         <v>16161</v>
       </c>
       <c r="B81" s="117" t="s">
+        <v>706</v>
+      </c>
+      <c r="C81" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="D81" s="117" t="s">
+        <v>708</v>
+      </c>
+      <c r="E81" s="117" t="s">
+        <v>709</v>
+      </c>
+      <c r="F81" s="117" t="s">
         <v>710</v>
-      </c>
-      <c r="C81" s="117" t="s">
-        <v>711</v>
-      </c>
-      <c r="D81" s="117" t="s">
-        <v>712</v>
-      </c>
-      <c r="E81" s="117" t="s">
-        <v>713</v>
-      </c>
-      <c r="F81" s="117" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -45757,19 +45826,19 @@
         <v>16261</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C82" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D82" t="s">
+        <v>708</v>
+      </c>
+      <c r="E82" t="s">
         <v>712</v>
       </c>
-      <c r="E82" t="s">
-        <v>716</v>
-      </c>
       <c r="F82" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -45777,19 +45846,19 @@
         <v>16461</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C83" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D83" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E83" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F83" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -45797,16 +45866,16 @@
         <v>16721</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C84" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D84" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E84" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -45814,19 +45883,19 @@
         <v>16291</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C85" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D85" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E85" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F85" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -45834,19 +45903,19 @@
         <v>16301</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D86" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E86" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F86" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -73436,7 +73505,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Summaries" sheetId="16" r:id="rId1"/>
@@ -38,16 +38,16 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId19"/>
-    <pivotCache cacheId="5" r:id="rId20"/>
-    <pivotCache cacheId="6" r:id="rId21"/>
-    <pivotCache cacheId="7" r:id="rId22"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId21"/>
+    <pivotCache cacheId="3" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="771">
   <si>
     <t>Jan-16</t>
   </si>
@@ -14696,7 +14696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -14902,7 +14902,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:I62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15147,7 +15147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -15361,7 +15361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15519,7 +15519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B24" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15645,7 +15645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B19" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15757,7 +15757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B17" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15856,7 +15856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B14" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15948,7 +15948,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -39791,7 +39791,7 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -42424,8 +42424,8 @@
   </sheetPr>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AB35"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44964,11 +44964,19 @@
         <v>682</v>
       </c>
       <c r="H52" s="132"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
+      <c r="I52" s="117">
+        <v>50.125</v>
+      </c>
+      <c r="J52" s="117">
+        <v>26.125</v>
+      </c>
+      <c r="K52" s="117">
+        <v>2</v>
+      </c>
       <c r="L52" s="112"/>
-      <c r="M52" s="112"/>
+      <c r="M52" s="112" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="101" t="s">

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="771">
   <si>
     <t>Jan-16</t>
   </si>
@@ -42424,8 +42424,8 @@
   </sheetPr>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44623,11 +44623,19 @@
       <c r="B40" t="s">
         <v>597</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
+      <c r="C40" s="128">
+        <v>63.875</v>
+      </c>
+      <c r="D40" s="117">
+        <v>28.625</v>
+      </c>
+      <c r="E40" s="117">
+        <v>2.5</v>
+      </c>
       <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
+      <c r="G40" s="117" t="s">
+        <v>686</v>
+      </c>
       <c r="H40" s="132"/>
       <c r="I40" s="112"/>
       <c r="J40" s="112"/>

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Summaries" sheetId="16" r:id="rId1"/>
@@ -38,16 +38,16 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId19"/>
-    <pivotCache cacheId="1" r:id="rId20"/>
-    <pivotCache cacheId="2" r:id="rId21"/>
-    <pivotCache cacheId="3" r:id="rId22"/>
+    <pivotCache cacheId="8" r:id="rId19"/>
+    <pivotCache cacheId="9" r:id="rId20"/>
+    <pivotCache cacheId="10" r:id="rId21"/>
+    <pivotCache cacheId="11" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="766">
   <si>
     <t>Jan-16</t>
   </si>
@@ -1951,93 +1951,6 @@
     <t>Blank Code</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Kanban?</t>
-  </si>
-  <si>
-    <t>Order Color</t>
-  </si>
-  <si>
-    <t>BlankAvail</t>
-  </si>
-  <si>
-    <t>38-2220-60-BLK</t>
-  </si>
-  <si>
-    <t>MG2208-50-BBLK</t>
-  </si>
-  <si>
-    <t>MG2208-53-BRED</t>
-  </si>
-  <si>
-    <t>MG2214-49-ABLK</t>
-  </si>
-  <si>
-    <t>MG2216-49-BBLK</t>
-  </si>
-  <si>
-    <t>MG2224-55-BBLK</t>
-  </si>
-  <si>
-    <t>MG2224-60-ABLK</t>
-  </si>
-  <si>
-    <t>MG2224-60-BBLK</t>
-  </si>
-  <si>
-    <t>MG2226-50-BBLK</t>
-  </si>
-  <si>
-    <t>MG2226-55-BBLK</t>
-  </si>
-  <si>
-    <t>MG2226-60-BBLK</t>
-  </si>
-  <si>
-    <t>MG2227-60-BBLK</t>
-  </si>
-  <si>
-    <t>MG2230-53-BRED</t>
-  </si>
-  <si>
-    <t>MG2236-60-BBLK</t>
-  </si>
-  <si>
-    <t>MG2237-52-AGRN</t>
-  </si>
-  <si>
-    <t>MG2245-53-BRED</t>
-  </si>
-  <si>
-    <t>MG2245-55-BBLK</t>
-  </si>
-  <si>
-    <t>MG2246-49-BBLK</t>
-  </si>
-  <si>
-    <t>MG2246-55-BBLK</t>
-  </si>
-  <si>
-    <t>MG2247-52-BGRN</t>
-  </si>
-  <si>
-    <t>MG2247-55-BBLK</t>
-  </si>
-  <si>
-    <t>MG2248-51-ABLU</t>
-  </si>
-  <si>
-    <t>MG2270-49-BBLK</t>
-  </si>
-  <si>
-    <t>MG2270-50-BBLK</t>
-  </si>
-  <si>
-    <t>MG2270-51-BBLU</t>
-  </si>
-  <si>
     <t>CHOKF</t>
   </si>
   <si>
@@ -2353,13 +2266,85 @@
     <t>Sand Shoal</t>
   </si>
   <si>
-    <t>Montana Walnut</t>
-  </si>
-  <si>
     <t>Blue Surface</t>
   </si>
   <si>
     <t>CHOK5</t>
+  </si>
+  <si>
+    <t>London Grey / Grey EB</t>
+  </si>
+  <si>
+    <t>Marker Board / Black EB</t>
+  </si>
+  <si>
+    <t>Marker Board / Grey EB</t>
+  </si>
+  <si>
+    <t>Storm Grey / Grey EB</t>
+  </si>
+  <si>
+    <t>Mossy Oak / Black EB</t>
+  </si>
+  <si>
+    <t>Orissa Cherry</t>
+  </si>
+  <si>
+    <t>Portland Cherry</t>
+  </si>
+  <si>
+    <t>Java Glow</t>
+  </si>
+  <si>
+    <t>Exec cherry</t>
+  </si>
+  <si>
+    <t>Exec Cherry / Black EB</t>
+  </si>
+  <si>
+    <t>Dogbone Storm / Graphite EB</t>
+  </si>
+  <si>
+    <t>Tan Echo / Tan Echo EB</t>
+  </si>
+  <si>
+    <t>Exec Cherry / Cherry EB</t>
+  </si>
+  <si>
+    <t>Mahogany / Mahogany EB</t>
+  </si>
+  <si>
+    <t>Mahogany / Black EB</t>
+  </si>
+  <si>
+    <t>Solar Oak / Solar Oak EB</t>
+  </si>
+  <si>
+    <t>Wild Apple / Wild Apple EB</t>
+  </si>
+  <si>
+    <t>Wild Apple / Black EB</t>
+  </si>
+  <si>
+    <t>APPL</t>
+  </si>
+  <si>
+    <t>MAHOGANY</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>GREY</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>MARKER</t>
+  </si>
+  <si>
+    <t>WALNUT</t>
   </si>
 </sst>
 </file>
@@ -14696,213 +14681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="19">
-        <item m="1" x="4"/>
-        <item m="1" x="15"/>
-        <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="5"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="14">
-        <item x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="9">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:I62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15146,8 +14925,214 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="19">
+        <item m="1" x="4"/>
+        <item m="1" x="15"/>
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="5"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="14">
+        <item x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -15361,7 +15346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15519,7 +15504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B24" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15645,7 +15630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B19" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15757,7 +15742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B17" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15856,7 +15841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B14" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15948,7 +15933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -39791,8 +39776,8 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39812,7 +39797,7 @@
     <col min="23" max="23" width="32.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="63" t="s">
         <v>468</v>
       </c>
@@ -39836,7 +39821,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="112"/>
       <c r="B2" s="110" t="s">
         <v>136</v>
@@ -39848,10 +39833,10 @@
         <v>627</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K2" s="4">
         <v>18</v>
@@ -39860,25 +39845,10 @@
         <v>439</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>634</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="112"/>
       <c r="B3" s="110" t="s">
         <v>57</v>
@@ -39902,10 +39872,10 @@
         <v>440</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="112"/>
       <c r="B4" s="110" t="s">
         <v>58</v>
@@ -39917,43 +39887,16 @@
         <v>628</v>
       </c>
       <c r="K4" s="4">
-        <v>48</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>638</v>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f>IF(LEFT(Q4,2)="MG",LEFT(Q4,6),LEFT(Q4,7))</f>
-        <v>38-2220</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f>VLOOKUP(R4,$B$2:$D$77,3)</f>
-        <v>Yes</v>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f>IF(LEFT(Q4,2)="MG",MID(Q4,8,2),MID(Q4,9,2))</f>
-        <v>60</v>
-      </c>
-      <c r="U4" s="4" t="e">
-        <f>IF(S4="Yes",VLOOKUP(VALUE(T4),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V4" s="4" t="e">
-        <f>IF(U4="MAGR",VLOOKUP(R4,$B$2:$F$77,4),VLOOKUP(R4,$B$2:$F$77,5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W4" s="4" t="e">
-        <f>IF(U4=LEFT(V4,4),"Straight to CNC with Panel "&amp;V4,"Must Cut Panel")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="112"/>
       <c r="B5" s="110" t="s">
         <v>485</v>
@@ -39965,43 +39908,16 @@
         <v>628</v>
       </c>
       <c r="K5" s="4">
-        <v>49</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>639</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f t="shared" ref="R5:R43" si="0">IF(LEFT(Q5,2)="MG",LEFT(Q5,6),LEFT(Q5,7))</f>
-        <v>MG2208</v>
-      </c>
-      <c r="S5" s="4" t="str">
-        <f t="shared" ref="S5:S43" si="1">VLOOKUP(R5,$B$2:$D$77,3)</f>
-        <v>No</v>
-      </c>
-      <c r="T5" s="4" t="str">
-        <f t="shared" ref="T5:T43" si="2">IF(LEFT(Q5,2)="MG",MID(Q5,8,2),MID(Q5,9,2))</f>
-        <v>50</v>
-      </c>
-      <c r="U5" s="4" t="str">
-        <f>IF(S5="Yes",VLOOKUP(VALUE(T5),#REF!,3),"")</f>
-        <v/>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" ref="V5:V43" si="3">IF(U5="MAGR",VLOOKUP(R5,$B$2:$F$77,4),VLOOKUP(R5,$B$2:$F$77,5))</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="4" t="str">
-        <f t="shared" ref="W5:W43" si="4">IF(U5=LEFT(V5,4),"Straight to CNC with Panel "&amp;V5,"Must Cut Panel")</f>
-        <v>Must Cut Panel</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="112"/>
       <c r="B6" s="110" t="s">
         <v>478</v>
@@ -40016,43 +39932,16 @@
         <v>614</v>
       </c>
       <c r="K6" s="4">
-        <v>50</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>640</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2208</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f>IF(S6="Yes",VLOOKUP(VALUE(T6),#REF!,3),"")</f>
-        <v/>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Must Cut Panel</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="112"/>
       <c r="B7" s="110" t="s">
         <v>129</v>
@@ -40064,49 +39953,22 @@
         <v>627</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K7" s="4">
-        <v>51</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>641</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2214</v>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U7" s="4" t="e">
-        <f>IF(S7="Yes",VLOOKUP(VALUE(T7),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="112"/>
       <c r="B8" s="110" t="s">
         <v>482</v>
@@ -40124,43 +39986,16 @@
         <v>621</v>
       </c>
       <c r="K8" s="4">
-        <v>52</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>642</v>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U8" s="4" t="e">
-        <f>IF(S8="Yes",VLOOKUP(VALUE(T8),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V8" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W8" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="112"/>
       <c r="B9" s="110" t="s">
         <v>130</v>
@@ -40172,43 +40007,16 @@
         <v>628</v>
       </c>
       <c r="K9" s="4">
-        <v>53</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>642</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2216</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U9" s="4" t="e">
-        <f>IF(S9="Yes",VLOOKUP(VALUE(T9),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W9" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="112"/>
       <c r="B10" s="110" t="s">
         <v>492</v>
@@ -40220,43 +40028,16 @@
         <v>628</v>
       </c>
       <c r="K10" s="4">
-        <v>54</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>643</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U10" s="4" t="e">
-        <f>IF(S10="Yes",VLOOKUP(VALUE(T10),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V10" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W10" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="112"/>
       <c r="B11" s="110" t="s">
         <v>135</v>
@@ -40274,43 +40055,16 @@
         <v>621</v>
       </c>
       <c r="K11" s="4">
-        <v>55</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>643</v>
-      </c>
-      <c r="R11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U11" s="4" t="e">
-        <f>IF(S11="Yes",VLOOKUP(VALUE(T11),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V11" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W11" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="112"/>
       <c r="B12" s="110" t="s">
         <v>128</v>
@@ -40322,43 +40076,16 @@
         <v>628</v>
       </c>
       <c r="K12" s="4">
-        <v>56</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>643</v>
-      </c>
-      <c r="R12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U12" s="4" t="e">
-        <f>IF(S12="Yes",VLOOKUP(VALUE(T12),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V12" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W12" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="112"/>
       <c r="B13" s="110" t="s">
         <v>131</v>
@@ -40370,43 +40097,16 @@
         <v>628</v>
       </c>
       <c r="K13" s="4">
-        <v>57</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>643</v>
-      </c>
-      <c r="R13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U13" s="4" t="e">
-        <f>IF(S13="Yes",VLOOKUP(VALUE(T13),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V13" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W13" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="112"/>
       <c r="B14" s="110" t="s">
         <v>134</v>
@@ -40421,43 +40121,16 @@
         <v>616</v>
       </c>
       <c r="K14" s="4">
-        <v>60</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>643</v>
-      </c>
-      <c r="R14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U14" s="4" t="e">
-        <f>IF(S14="Yes",VLOOKUP(VALUE(T14),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V14" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W14" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="112"/>
       <c r="B15" s="110" t="s">
         <v>493</v>
@@ -40469,43 +40142,16 @@
         <v>628</v>
       </c>
       <c r="K15" s="4">
-        <v>61</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>644</v>
-      </c>
-      <c r="R15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U15" s="4" t="e">
-        <f>IF(S15="Yes",VLOOKUP(VALUE(T15),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V15" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W15" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="112"/>
       <c r="B16" s="110" t="s">
         <v>474</v>
@@ -40523,43 +40169,16 @@
         <v>620</v>
       </c>
       <c r="K16" s="4">
-        <v>62</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>645</v>
-      </c>
-      <c r="R16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2224</v>
-      </c>
-      <c r="S16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U16" s="4" t="e">
-        <f>IF(S16="Yes",VLOOKUP(VALUE(T16),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V16" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W16" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="112"/>
       <c r="B17" s="110" t="s">
         <v>139</v>
@@ -40574,46 +40193,19 @@
         <v>616</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="K17" s="4">
-        <v>63</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="M17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="Q17" t="s">
-        <v>646</v>
-      </c>
-      <c r="R17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U17" s="4" t="e">
-        <f>IF(S17="Yes",VLOOKUP(VALUE(T17),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W17" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="112"/>
       <c r="B18" s="110" t="s">
         <v>138</v>
@@ -40631,43 +40223,16 @@
         <v>620</v>
       </c>
       <c r="K18" s="4">
-        <v>64</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>647</v>
-      </c>
-      <c r="R18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U18" s="4" t="e">
-        <f>IF(S18="Yes",VLOOKUP(VALUE(T18),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V18" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W18" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="112"/>
       <c r="B19" s="110" t="s">
         <v>486</v>
@@ -40679,43 +40244,16 @@
         <v>628</v>
       </c>
       <c r="K19" s="4">
-        <v>65</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>648</v>
-      </c>
-      <c r="R19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U19" s="4" t="e">
-        <f>IF(S19="Yes",VLOOKUP(VALUE(T19),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V19" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="112"/>
       <c r="B20" s="110" t="s">
         <v>494</v>
@@ -40727,43 +40265,16 @@
         <v>628</v>
       </c>
       <c r="K20" s="4">
-        <v>69</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>457</v>
+        <v>42</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>648</v>
-      </c>
-      <c r="R20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U20" s="4" t="e">
-        <f>IF(S20="Yes",VLOOKUP(VALUE(T20),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V20" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W20" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="112"/>
       <c r="B21" s="110" t="s">
         <v>140</v>
@@ -40775,43 +40286,16 @@
         <v>628</v>
       </c>
       <c r="K21" s="4">
-        <v>70</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>648</v>
-      </c>
-      <c r="R21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U21" s="4" t="e">
-        <f>IF(S21="Yes",VLOOKUP(VALUE(T21),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V21" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W21" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="112"/>
       <c r="B22" s="110" t="s">
         <v>495</v>
@@ -40823,43 +40307,16 @@
         <v>628</v>
       </c>
       <c r="K22" s="4">
-        <v>77</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>648</v>
-      </c>
-      <c r="R22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U22" s="4" t="e">
-        <f>IF(S22="Yes",VLOOKUP(VALUE(T22),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V22" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W22" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="112"/>
       <c r="B23" s="110" t="s">
         <v>137</v>
@@ -40871,49 +40328,22 @@
         <v>627</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K23" s="4">
-        <v>78</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>648</v>
-      </c>
-      <c r="R23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2226</v>
-      </c>
-      <c r="S23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f>IF(S23="Yes",VLOOKUP(VALUE(T23),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V23" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W23" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="112"/>
       <c r="B24" s="110" t="s">
         <v>133</v>
@@ -40931,43 +40361,16 @@
         <v>621</v>
       </c>
       <c r="K24" s="4">
-        <v>79</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>649</v>
-      </c>
-      <c r="R24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f>IF(S24="Yes",VLOOKUP(VALUE(T24),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V24" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W24" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="112"/>
       <c r="B25" s="110" t="s">
         <v>141</v>
@@ -40982,43 +40385,16 @@
         <v>616</v>
       </c>
       <c r="K25" s="4">
-        <v>80</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>649</v>
-      </c>
-      <c r="R25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2227</v>
-      </c>
-      <c r="S25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f>IF(S25="Yes",VLOOKUP(VALUE(T25),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V25" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W25" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="112"/>
       <c r="B26" s="110" t="s">
         <v>59</v>
@@ -41030,49 +40406,22 @@
         <v>627</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K26" s="4">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>650</v>
-      </c>
-      <c r="R26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2230</v>
-      </c>
-      <c r="S26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U26" s="4" t="e">
-        <f>IF(S26="Yes",VLOOKUP(VALUE(T26),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V26" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W26" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="112"/>
       <c r="B27" s="110" t="s">
         <v>480</v>
@@ -41084,37 +40433,19 @@
         <v>627</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>651</v>
-      </c>
-      <c r="R27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2236</v>
-      </c>
-      <c r="S27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="U27" s="4" t="str">
-        <f>IF(S27="Yes",VLOOKUP(VALUE(T27),#REF!,3),"")</f>
-        <v/>
-      </c>
-      <c r="V27" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Must Cut Panel</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+      <c r="K27" s="4">
+        <v>49</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="112"/>
       <c r="B28" s="110" t="s">
         <v>487</v>
@@ -41125,35 +40456,17 @@
       <c r="D28" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q28" t="s">
-        <v>652</v>
-      </c>
-      <c r="R28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U28" s="4" t="str">
-        <f>IF(S28="Yes",VLOOKUP(VALUE(T28),#REF!,3),"")</f>
-        <v/>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Must Cut Panel</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K28" s="4">
+        <v>50</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="112"/>
       <c r="B29" s="110" t="s">
         <v>60</v>
@@ -41165,40 +40478,22 @@
         <v>627</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>652</v>
-      </c>
-      <c r="R29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2237</v>
-      </c>
-      <c r="S29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="T29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U29" s="4" t="str">
-        <f>IF(S29="Yes",VLOOKUP(VALUE(T29),#REF!,3),"")</f>
-        <v/>
-      </c>
-      <c r="V29" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Must Cut Panel</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K29" s="4">
+        <v>51</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="112"/>
       <c r="B30" s="110" t="s">
         <v>132</v>
@@ -41209,35 +40504,17 @@
       <c r="D30" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q30" t="s">
-        <v>653</v>
-      </c>
-      <c r="R30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f>IF(S30="Yes",VLOOKUP(VALUE(T30),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V30" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W30" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K30" s="4">
+        <v>52</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="112"/>
       <c r="B31" s="110" t="s">
         <v>61</v>
@@ -41248,35 +40525,17 @@
       <c r="D31" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q31" t="s">
-        <v>654</v>
-      </c>
-      <c r="R31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f>IF(S31="Yes",VLOOKUP(VALUE(T31),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V31" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W31" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K31" s="4">
+        <v>53</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="112"/>
       <c r="B32" s="110" t="s">
         <v>62</v>
@@ -41288,40 +40547,22 @@
         <v>627</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>654</v>
-      </c>
-      <c r="R32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2245</v>
-      </c>
-      <c r="S32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f>IF(S32="Yes",VLOOKUP(VALUE(T32),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V32" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W32" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K32" s="4">
+        <v>54</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="112"/>
       <c r="B33" s="110" t="s">
         <v>483</v>
@@ -41333,40 +40574,22 @@
         <v>627</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>655</v>
-      </c>
-      <c r="R33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U33" s="4" t="e">
-        <f>IF(S33="Yes",VLOOKUP(VALUE(T33),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V33" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W33" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K33" s="4">
+        <v>55</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="112"/>
       <c r="B34" s="110" t="s">
         <v>63</v>
@@ -41378,40 +40601,22 @@
         <v>627</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>656</v>
-      </c>
-      <c r="R34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2246</v>
-      </c>
-      <c r="S34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U34" s="4" t="e">
-        <f>IF(S34="Yes",VLOOKUP(VALUE(T34),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V34" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K34" s="4">
+        <v>56</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="112"/>
       <c r="B35" s="110" t="s">
         <v>491</v>
@@ -41425,35 +40630,17 @@
       <c r="E35" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="Q35" t="s">
-        <v>657</v>
-      </c>
-      <c r="R35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="U35" s="4" t="e">
-        <f>IF(S35="Yes",VLOOKUP(VALUE(T35),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V35" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W35" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K35" s="4">
+        <v>57</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="112"/>
       <c r="B36" s="110" t="s">
         <v>488</v>
@@ -41464,35 +40651,17 @@
       <c r="D36" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q36" t="s">
-        <v>658</v>
-      </c>
-      <c r="R36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2247</v>
-      </c>
-      <c r="S36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U36" s="4" t="e">
-        <f>IF(S36="Yes",VLOOKUP(VALUE(T36),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V36" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W36" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K36" s="4">
+        <v>58</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="112"/>
       <c r="B37" s="110" t="s">
         <v>489</v>
@@ -41503,35 +40672,17 @@
       <c r="D37" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q37" t="s">
-        <v>659</v>
-      </c>
-      <c r="R37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2248</v>
-      </c>
-      <c r="S37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="U37" s="4" t="e">
-        <f>IF(S37="Yes",VLOOKUP(VALUE(T37),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V37" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W37" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K37" s="4">
+        <v>59</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="112"/>
       <c r="B38" s="110" t="s">
         <v>479</v>
@@ -41545,35 +40696,17 @@
       <c r="E38" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="Q38" t="s">
-        <v>660</v>
-      </c>
-      <c r="R38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="U38" s="4" t="e">
-        <f>IF(S38="Yes",VLOOKUP(VALUE(T38),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V38" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W38" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K38" s="4">
+        <v>60</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="112"/>
       <c r="B39" s="110" t="s">
         <v>481</v>
@@ -41584,35 +40717,17 @@
       <c r="D39" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q39" t="s">
-        <v>661</v>
-      </c>
-      <c r="R39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U39" s="4" t="e">
-        <f>IF(S39="Yes",VLOOKUP(VALUE(T39),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V39" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W39" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K39" s="4">
+        <v>61</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="112"/>
       <c r="B40" s="110" t="s">
         <v>496</v>
@@ -41623,35 +40738,17 @@
       <c r="D40" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q40" t="s">
-        <v>661</v>
-      </c>
-      <c r="R40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U40" s="4" t="e">
-        <f>IF(S40="Yes",VLOOKUP(VALUE(T40),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V40" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W40" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K40" s="4">
+        <v>62</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="112"/>
       <c r="B41" s="110" t="s">
         <v>490</v>
@@ -41662,35 +40759,17 @@
       <c r="D41" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q41" t="s">
-        <v>661</v>
-      </c>
-      <c r="R41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U41" s="4" t="e">
-        <f>IF(S41="Yes",VLOOKUP(VALUE(T41),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V41" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W41" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K41" s="4">
+        <v>63</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="112"/>
       <c r="B42" s="110" t="s">
         <v>497</v>
@@ -41701,35 +40780,17 @@
       <c r="D42" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q42" t="s">
-        <v>661</v>
-      </c>
-      <c r="R42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U42" s="4" t="e">
-        <f>IF(S42="Yes",VLOOKUP(VALUE(T42),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V42" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W42" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K42" s="4">
+        <v>64</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="112"/>
       <c r="B43" s="110" t="s">
         <v>498</v>
@@ -41740,35 +40801,17 @@
       <c r="D43" s="110" t="s">
         <v>628</v>
       </c>
-      <c r="Q43" t="s">
-        <v>662</v>
-      </c>
-      <c r="R43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>MG2270</v>
-      </c>
-      <c r="S43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="T43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="U43" s="4" t="e">
-        <f>IF(S43="Yes",VLOOKUP(VALUE(T43),#REF!,3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V43" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W43" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K43" s="4">
+        <v>65</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="112"/>
       <c r="B44" s="110" t="s">
         <v>413</v>
@@ -41779,8 +40822,17 @@
       <c r="D44" s="110" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K44" s="4">
+        <v>69</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="112"/>
       <c r="B45" s="110" t="s">
         <v>407</v>
@@ -41791,8 +40843,17 @@
       <c r="D45" s="110" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K45" s="4">
+        <v>70</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="112"/>
       <c r="B46" s="110" t="s">
         <v>418</v>
@@ -41809,8 +40870,17 @@
       <c r="F46" s="5" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K46" s="4">
+        <v>77</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="112"/>
       <c r="B47" s="110" t="s">
         <v>412</v>
@@ -41822,13 +40892,22 @@
         <v>627</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K47" s="4">
+        <v>78</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="112"/>
       <c r="B48" s="110" t="s">
         <v>417</v>
@@ -41840,13 +40919,22 @@
         <v>627</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="K48" s="4">
+        <v>79</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="112"/>
       <c r="B49" s="110" t="s">
         <v>419</v>
@@ -41857,8 +40945,17 @@
       <c r="D49" s="110" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K49" s="4">
+        <v>80</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="112"/>
       <c r="B50" s="110" t="s">
         <v>401</v>
@@ -41872,8 +40969,17 @@
       <c r="E50" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K50" s="4">
+        <v>82</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="112"/>
       <c r="B51" s="110" t="s">
         <v>395</v>
@@ -41885,13 +40991,13 @@
         <v>627</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="112"/>
       <c r="B52" s="110" t="s">
         <v>410</v>
@@ -41909,7 +41015,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="112"/>
       <c r="B53" s="110" t="s">
         <v>403</v>
@@ -41921,7 +41027,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="112"/>
       <c r="B54" s="110" t="s">
         <v>414</v>
@@ -41939,7 +41045,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="112"/>
       <c r="B55" s="110" t="s">
         <v>399</v>
@@ -41951,7 +41057,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="112"/>
       <c r="B56" s="110" t="s">
         <v>398</v>
@@ -41963,7 +41069,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="112"/>
       <c r="B57" s="110" t="s">
         <v>396</v>
@@ -41978,7 +41084,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="112"/>
       <c r="B58" s="110" t="s">
         <v>411</v>
@@ -41996,7 +41102,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="112"/>
       <c r="B59" s="110" t="s">
         <v>408</v>
@@ -42008,13 +41114,13 @@
         <v>627</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="112"/>
       <c r="B60" s="110" t="s">
         <v>415</v>
@@ -42026,13 +41132,13 @@
         <v>627</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="112"/>
       <c r="B61" s="110" t="s">
         <v>404</v>
@@ -42047,10 +41153,10 @@
         <v>616</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="112"/>
       <c r="B62" s="110" t="s">
         <v>402</v>
@@ -42068,7 +41174,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="112"/>
       <c r="B63" s="110" t="s">
         <v>421</v>
@@ -42080,7 +41186,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="112"/>
       <c r="B64" s="110" t="s">
         <v>416</v>
@@ -42092,10 +41198,10 @@
         <v>627</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -42110,10 +41216,10 @@
         <v>627</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K65" s="95" t="s">
         <v>505</v>
@@ -42191,16 +41297,16 @@
         <v>627</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K68" s="118" t="s">
         <v>508</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>624</v>
@@ -42224,7 +41330,7 @@
         <v>508</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>624</v>
@@ -42242,7 +41348,7 @@
         <v>627</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="K70" s="95" t="s">
         <v>504</v>
@@ -42266,10 +41372,10 @@
         <v>627</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="K71" s="133" t="s">
         <v>513</v>
@@ -42424,7 +41530,7 @@
   </sheetPr>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -42461,7 +41567,7 @@
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
       <c r="C1" s="144" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="D1" s="142"/>
       <c r="E1" s="142"/>
@@ -42469,7 +41575,7 @@
       <c r="G1" s="142"/>
       <c r="H1" s="145"/>
       <c r="I1" s="142" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="J1" s="142"/>
       <c r="K1" s="142"/>
@@ -42477,7 +41583,7 @@
       <c r="M1" s="142"/>
       <c r="N1" s="143"/>
       <c r="O1" s="136" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="P1" s="137"/>
       <c r="Q1" s="137"/>
@@ -42486,7 +41592,7 @@
       <c r="T1" s="138"/>
       <c r="U1" s="70"/>
       <c r="V1" s="139" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="W1" s="140"/>
       <c r="X1" s="140"/>
@@ -42497,46 +41603,46 @@
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="E2" s="114" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="F2" s="114" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="G2" s="114" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="H2" s="131" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="I2" s="114" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="J2" s="114" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="K2" s="114" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="L2" s="114" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="M2" s="114" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="O2" s="121" t="s">
         <v>518</v>
@@ -42548,13 +41654,13 @@
         <v>605</v>
       </c>
       <c r="R2" s="123" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="S2" s="123" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="T2" s="123" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
       <c r="V2" s="122" t="s">
         <v>518</v>
@@ -42566,16 +41672,16 @@
         <v>605</v>
       </c>
       <c r="Y2" s="127" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="Z2" s="127" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
       <c r="AA2" s="127" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="AB2" s="127" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42596,7 +41702,7 @@
       </c>
       <c r="F3" s="112"/>
       <c r="G3" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H3" s="132"/>
       <c r="I3" s="112">
@@ -42613,7 +41719,7 @@
       </c>
       <c r="M3" s="112"/>
       <c r="O3" s="120" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="P3" s="124">
         <v>41.75</v>
@@ -42625,11 +41731,11 @@
         <v>2.5</v>
       </c>
       <c r="S3" s="124" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T3" s="124"/>
       <c r="V3" s="120" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="W3" s="124">
         <v>50.125</v>
@@ -42644,7 +41750,7 @@
         <v>5</v>
       </c>
       <c r="AA3" s="124" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="AB3" s="124"/>
     </row>
@@ -42665,7 +41771,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H4" s="132"/>
       <c r="I4" s="112">
@@ -42681,10 +41787,10 @@
         <v>5</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="P4" s="125">
         <v>40.625</v>
@@ -42696,11 +41802,11 @@
         <v>2.25</v>
       </c>
       <c r="S4" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T4" s="125"/>
       <c r="V4" s="119" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="W4" s="125">
         <v>50.25</v>
@@ -42715,7 +41821,7 @@
         <v>6</v>
       </c>
       <c r="AA4" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB4" s="125"/>
     </row>
@@ -42737,7 +41843,7 @@
       </c>
       <c r="F5" s="112"/>
       <c r="G5" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H5" s="132"/>
       <c r="I5" s="112">
@@ -42753,10 +41859,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="P5" s="125">
         <v>52.75</v>
@@ -42768,11 +41874,11 @@
         <v>2.5</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T5" s="125"/>
       <c r="V5" s="119" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="W5" s="125">
         <v>62.38</v>
@@ -42787,10 +41893,10 @@
         <v>7</v>
       </c>
       <c r="AA5" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB5" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42812,7 +41918,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="112"/>
       <c r="O6" s="119" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="P6" s="125">
         <v>52.75</v>
@@ -42824,11 +41930,11 @@
         <v>2.5</v>
       </c>
       <c r="S6" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T6" s="125"/>
       <c r="V6" s="119" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="W6" s="125">
         <v>74</v>
@@ -42843,10 +41949,10 @@
         <v>9</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB6" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -42867,7 +41973,7 @@
       </c>
       <c r="F7" s="112"/>
       <c r="G7" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H7" s="132"/>
       <c r="I7" s="112">
@@ -42883,10 +41989,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="O7" s="119" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="P7" s="125">
         <v>64.875</v>
@@ -42898,11 +42004,11 @@
         <v>2.5</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T7" s="125"/>
       <c r="V7" s="119" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="W7" s="125">
         <v>74</v>
@@ -42917,7 +42023,7 @@
         <v>10</v>
       </c>
       <c r="AA7" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB7" s="125"/>
     </row>
@@ -42939,7 +42045,7 @@
       </c>
       <c r="F8" s="112"/>
       <c r="G8" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H8" s="132"/>
       <c r="I8" s="112"/>
@@ -42948,7 +42054,7 @@
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
       <c r="O8" s="119" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="P8" s="125">
         <v>46.75</v>
@@ -42960,11 +42066,11 @@
         <v>2</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T8" s="125"/>
       <c r="V8" s="119" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="W8" s="125">
         <v>49.5</v>
@@ -42979,7 +42085,7 @@
         <v>4</v>
       </c>
       <c r="AA8" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB8" s="125"/>
     </row>
@@ -43002,7 +42108,7 @@
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
       <c r="O9" s="119" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="P9" s="125">
         <v>40.625</v>
@@ -43014,11 +42120,11 @@
         <v>2</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T9" s="125"/>
       <c r="V9" s="119" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
       <c r="W9" s="125">
         <v>62.125</v>
@@ -43033,7 +42139,7 @@
         <v>6</v>
       </c>
       <c r="AA9" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB9" s="125"/>
     </row>
@@ -43055,7 +42161,7 @@
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="112"/>
@@ -43064,7 +42170,7 @@
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
       <c r="O10" s="119" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="P10" s="125">
         <v>52.625</v>
@@ -43076,11 +42182,11 @@
         <v>2.5</v>
       </c>
       <c r="S10" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T10" s="125"/>
       <c r="V10" s="119" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="W10" s="125">
         <v>74</v>
@@ -43095,7 +42201,7 @@
         <v>7</v>
       </c>
       <c r="AA10" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB10" s="125"/>
     </row>
@@ -43118,7 +42224,7 @@
       <c r="L11" s="112"/>
       <c r="M11" s="112"/>
       <c r="O11" s="119" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="P11" s="125">
         <v>63.875</v>
@@ -43130,11 +42236,11 @@
         <v>2.5</v>
       </c>
       <c r="S11" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T11" s="125"/>
       <c r="V11" s="119" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="W11" s="125">
         <v>43.75</v>
@@ -43149,7 +42255,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB11" s="125"/>
     </row>
@@ -43171,10 +42277,10 @@
       </c>
       <c r="F12" s="112"/>
       <c r="G12" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H12" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
@@ -43182,10 +42288,10 @@
       <c r="L12" s="112"/>
       <c r="M12" s="112"/>
       <c r="N12" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="O12" s="119" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="P12" s="125">
         <v>64.88</v>
@@ -43197,13 +42303,13 @@
         <v>2.5</v>
       </c>
       <c r="S12" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T12" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="V12" s="119" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="W12" s="125">
         <v>50</v>
@@ -43218,7 +42324,7 @@
         <v>6</v>
       </c>
       <c r="AA12" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB12" s="125"/>
     </row>
@@ -43240,7 +42346,7 @@
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H13" s="132"/>
       <c r="I13" s="112"/>
@@ -43249,7 +42355,7 @@
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
       <c r="O13" s="119" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="P13" s="125">
         <v>52.75</v>
@@ -43261,11 +42367,11 @@
         <v>2.5</v>
       </c>
       <c r="S13" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T13" s="125"/>
       <c r="V13" s="119" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="W13" s="125">
         <v>0</v>
@@ -43280,7 +42386,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB13" s="125"/>
     </row>
@@ -43302,10 +42408,10 @@
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H14" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
@@ -43313,10 +42419,10 @@
       <c r="L14" s="112"/>
       <c r="M14" s="112"/>
       <c r="N14" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="O14" s="119" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="P14" s="125">
         <v>52.75</v>
@@ -43328,11 +42434,11 @@
         <v>2</v>
       </c>
       <c r="S14" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T14" s="125"/>
       <c r="V14" s="119" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="W14" s="125">
         <v>62.375</v>
@@ -43347,7 +42453,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB14" s="125"/>
     </row>
@@ -43369,10 +42475,10 @@
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H15" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
@@ -43380,10 +42486,10 @@
       <c r="L15" s="112"/>
       <c r="M15" s="112"/>
       <c r="N15" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="O15" s="119" t="s">
-        <v>765</v>
+        <v>736</v>
       </c>
       <c r="P15" s="125">
         <v>50</v>
@@ -43395,13 +42501,13 @@
         <v>2.5</v>
       </c>
       <c r="S15" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T15" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="V15" s="119" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
       <c r="W15" s="125">
         <v>38.125</v>
@@ -43416,7 +42522,7 @@
         <v>4</v>
       </c>
       <c r="AA15" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB15" s="125"/>
     </row>
@@ -43438,7 +42544,7 @@
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H16" s="132"/>
       <c r="I16" s="112">
@@ -43454,10 +42560,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="O16" s="119" t="s">
-        <v>764</v>
+        <v>735</v>
       </c>
       <c r="P16" s="125">
         <v>50</v>
@@ -43469,13 +42575,13 @@
         <v>2.5</v>
       </c>
       <c r="S16" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T16" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="V16" s="119" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="W16" s="125">
         <v>62.375</v>
@@ -43490,7 +42596,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB16" s="125"/>
     </row>
@@ -43512,7 +42618,7 @@
       </c>
       <c r="F17" s="112"/>
       <c r="G17" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H17" s="132"/>
       <c r="I17" s="112"/>
@@ -43521,7 +42627,7 @@
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
       <c r="O17" s="119" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="P17" s="125">
         <v>52</v>
@@ -43533,11 +42639,11 @@
         <v>2</v>
       </c>
       <c r="S17" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T17" s="125"/>
       <c r="V17" s="119" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="W17" s="125">
         <v>38</v>
@@ -43552,7 +42658,7 @@
         <v>4</v>
       </c>
       <c r="AA17" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB17" s="125"/>
     </row>
@@ -43574,7 +42680,7 @@
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H18" s="132"/>
       <c r="I18" s="112"/>
@@ -43583,7 +42689,7 @@
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
       <c r="O18" s="119" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="P18" s="125">
         <v>46.75</v>
@@ -43595,11 +42701,11 @@
         <v>2</v>
       </c>
       <c r="S18" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T18" s="125"/>
       <c r="V18" s="119" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="W18" s="125">
         <v>62.375</v>
@@ -43614,7 +42720,7 @@
         <v>8</v>
       </c>
       <c r="AA18" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB18" s="125"/>
     </row>
@@ -43636,10 +42742,10 @@
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H19" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I19" s="112"/>
       <c r="J19" s="112"/>
@@ -43647,10 +42753,10 @@
       <c r="L19" s="112"/>
       <c r="M19" s="112"/>
       <c r="N19" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="O19" s="119" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="P19" s="125">
         <v>52.625</v>
@@ -43662,11 +42768,11 @@
         <v>2</v>
       </c>
       <c r="S19" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T19" s="125"/>
       <c r="V19" s="119" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
       <c r="W19" s="125">
         <v>62.375</v>
@@ -43681,7 +42787,7 @@
         <v>6</v>
       </c>
       <c r="AA19" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB19" s="125"/>
     </row>
@@ -43704,7 +42810,7 @@
       <c r="L20" s="112"/>
       <c r="M20" s="112"/>
       <c r="O20" s="119" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="P20" s="125">
         <v>64.875</v>
@@ -43716,11 +42822,11 @@
         <v>2.5</v>
       </c>
       <c r="S20" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T20" s="125"/>
       <c r="V20" s="119" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
       <c r="W20" s="125">
         <v>38.75</v>
@@ -43735,7 +42841,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB20" s="125"/>
     </row>
@@ -43758,7 +42864,7 @@
       <c r="L21" s="112"/>
       <c r="M21" s="112"/>
       <c r="O21" s="119" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="P21" s="125">
         <v>40.5</v>
@@ -43770,11 +42876,11 @@
         <v>2.25</v>
       </c>
       <c r="S21" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T21" s="125"/>
       <c r="V21" s="119" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="W21" s="125">
         <v>39.25</v>
@@ -43789,7 +42895,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB21" s="125"/>
     </row>
@@ -43819,10 +42925,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="O22" s="119" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="P22" s="125">
         <v>32.5</v>
@@ -43834,11 +42940,11 @@
         <v>2.25</v>
       </c>
       <c r="S22" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T22" s="125"/>
       <c r="V22" s="119" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="W22" s="125">
         <v>42.25</v>
@@ -43853,7 +42959,7 @@
         <v>6</v>
       </c>
       <c r="AA22" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB22" s="125"/>
     </row>
@@ -43876,7 +42982,7 @@
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
       <c r="O23" s="119" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="P23" s="125">
         <v>44.75</v>
@@ -43888,11 +42994,11 @@
         <v>2.25</v>
       </c>
       <c r="S23" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T23" s="125"/>
       <c r="V23" s="119" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="W23" s="125">
         <v>30</v>
@@ -43907,7 +43013,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB23" s="125"/>
     </row>
@@ -43929,7 +43035,7 @@
       </c>
       <c r="F24" s="112"/>
       <c r="G24" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H24" s="132"/>
       <c r="I24" s="112"/>
@@ -43938,7 +43044,7 @@
       <c r="L24" s="112"/>
       <c r="M24" s="112"/>
       <c r="O24" s="119" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="P24" s="125">
         <v>50</v>
@@ -43950,13 +43056,13 @@
         <v>2.5</v>
       </c>
       <c r="S24" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T24" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="V24" s="119" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="W24" s="125">
         <v>38.125</v>
@@ -43992,7 +43098,7 @@
       <c r="L25" s="112"/>
       <c r="M25" s="112"/>
       <c r="O25" s="119" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="P25" s="125">
         <v>64.875</v>
@@ -44004,11 +43110,11 @@
         <v>2.5</v>
       </c>
       <c r="S25" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T25" s="125"/>
       <c r="V25" s="119" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="W25" s="125">
         <v>50.125</v>
@@ -44044,7 +43150,7 @@
       <c r="L26" s="112"/>
       <c r="M26" s="112"/>
       <c r="O26" s="119" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="P26" s="125">
         <v>34.75</v>
@@ -44056,11 +43162,11 @@
         <v>2.25</v>
       </c>
       <c r="S26" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T26" s="125"/>
       <c r="V26" s="119" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="W26" s="125">
         <v>45.375</v>
@@ -44095,7 +43201,7 @@
       </c>
       <c r="F27" s="112"/>
       <c r="G27" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H27" s="132"/>
       <c r="I27" s="112">
@@ -44111,10 +43217,10 @@
         <v>6</v>
       </c>
       <c r="M27" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="O27" s="119" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="P27" s="125">
         <v>64.88</v>
@@ -44126,11 +43232,11 @@
         <v>2.5</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="T27" s="125"/>
       <c r="V27" s="119" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
       <c r="W27" s="125">
         <v>62.75</v>
@@ -44145,10 +43251,10 @@
         <v>10</v>
       </c>
       <c r="AA27" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB27" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44170,7 +43276,7 @@
       <c r="L28" s="112"/>
       <c r="M28" s="112"/>
       <c r="O28" s="119" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="P28" s="125">
         <v>41.25</v>
@@ -44182,11 +43288,11 @@
         <v>2.5</v>
       </c>
       <c r="S28" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T28" s="125"/>
       <c r="V28" s="119" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="W28" s="125">
         <v>74.5</v>
@@ -44201,7 +43307,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB28" s="125"/>
     </row>
@@ -44224,7 +43330,7 @@
       <c r="L29" s="112"/>
       <c r="M29" s="112"/>
       <c r="V29" s="119" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
       <c r="W29" s="125">
         <v>60.125</v>
@@ -44239,10 +43345,10 @@
         <v>6</v>
       </c>
       <c r="AA29" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB29" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44263,7 +43369,7 @@
       </c>
       <c r="F30" s="112"/>
       <c r="G30" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H30" s="132"/>
       <c r="I30" s="112">
@@ -44279,10 +43385,10 @@
         <v>5</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="V30" s="119" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="W30" s="125">
         <v>32.25</v>
@@ -44297,7 +43403,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="125" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="AB30" s="125"/>
     </row>
@@ -44319,7 +43425,7 @@
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H31" s="132"/>
       <c r="I31" s="112"/>
@@ -44328,7 +43434,7 @@
       <c r="L31" s="112"/>
       <c r="M31" s="112"/>
       <c r="V31" s="119" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="W31" s="125">
         <v>61.375</v>
@@ -44343,10 +43449,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB31" s="125" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -44368,7 +43474,7 @@
       <c r="L32" s="112"/>
       <c r="M32" s="112"/>
       <c r="V32" s="119" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
       <c r="W32" s="125">
         <v>56.375</v>
@@ -44404,7 +43510,7 @@
       <c r="L33" s="112"/>
       <c r="M33" s="112"/>
       <c r="V33" s="119" t="s">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="W33" s="125">
         <v>74</v>
@@ -44419,7 +43525,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB33" s="125"/>
     </row>
@@ -44442,7 +43548,7 @@
       <c r="L34" s="112"/>
       <c r="M34" s="112"/>
       <c r="V34" s="119" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="W34" s="125">
         <v>62.25</v>
@@ -44457,7 +43563,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB34" s="125"/>
     </row>
@@ -44479,7 +43585,7 @@
       </c>
       <c r="F35" s="112"/>
       <c r="G35" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H35" s="132"/>
       <c r="I35" s="112">
@@ -44495,10 +43601,10 @@
         <v>5</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="V35" s="119" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="W35" s="125">
         <v>33.125</v>
@@ -44513,7 +43619,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="125" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="AB35" s="125"/>
     </row>
@@ -44534,7 +43640,7 @@
         <v>2.5</v>
       </c>
       <c r="G36" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H36" s="132"/>
       <c r="I36" s="112"/>
@@ -44561,7 +43667,7 @@
       </c>
       <c r="F37" s="112"/>
       <c r="G37" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H37" s="132"/>
       <c r="I37" s="112"/>
@@ -44607,7 +43713,7 @@
       </c>
       <c r="F39" s="112"/>
       <c r="G39" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H39" s="132"/>
       <c r="I39" s="112"/>
@@ -44634,7 +43740,7 @@
       </c>
       <c r="F40" s="112"/>
       <c r="G40" s="117" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H40" s="132"/>
       <c r="I40" s="112"/>
@@ -44680,7 +43786,7 @@
       </c>
       <c r="F42" s="112"/>
       <c r="G42" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H42" s="132"/>
       <c r="I42" s="112"/>
@@ -44740,7 +43846,7 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I45" s="112">
         <v>61.375</v>
@@ -44755,10 +43861,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N45" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -44787,7 +43893,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -44808,7 +43914,7 @@
       </c>
       <c r="F47" s="112"/>
       <c r="G47" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H47" s="132"/>
       <c r="I47" s="112">
@@ -44843,7 +43949,7 @@
       </c>
       <c r="F48" s="112"/>
       <c r="G48" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H48" s="132"/>
       <c r="I48" s="112">
@@ -44878,7 +43984,7 @@
       </c>
       <c r="F49" s="112"/>
       <c r="G49" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="112">
@@ -44932,7 +44038,7 @@
       </c>
       <c r="F51" s="112"/>
       <c r="G51" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H51" s="132"/>
       <c r="I51" s="112">
@@ -44948,7 +44054,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -44969,7 +44075,7 @@
       </c>
       <c r="F52" s="112"/>
       <c r="G52" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H52" s="132"/>
       <c r="I52" s="117">
@@ -44983,7 +44089,7 @@
       </c>
       <c r="L52" s="112"/>
       <c r="M52" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -45012,7 +44118,7 @@
         <v>10</v>
       </c>
       <c r="M53" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -45033,7 +44139,7 @@
       </c>
       <c r="F54" s="112"/>
       <c r="G54" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="112">
@@ -45049,7 +44155,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -45070,10 +44176,10 @@
       </c>
       <c r="F55" s="112"/>
       <c r="G55" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H55" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I55" s="112">
         <v>74</v>
@@ -45088,10 +44194,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N55" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -45112,7 +44218,7 @@
       </c>
       <c r="F56" s="112"/>
       <c r="G56" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H56" s="132"/>
       <c r="I56" s="112">
@@ -45128,7 +44234,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -45149,10 +44255,10 @@
       </c>
       <c r="F57" s="112"/>
       <c r="G57" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H57" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I57" s="112">
         <v>62.38</v>
@@ -45167,10 +44273,10 @@
         <v>7</v>
       </c>
       <c r="M57" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N57" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -45191,7 +44297,7 @@
       </c>
       <c r="F58" s="112"/>
       <c r="G58" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="112">
@@ -45207,7 +44313,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -45228,10 +44334,10 @@
       </c>
       <c r="F59" s="112"/>
       <c r="G59" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H59" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I59" s="112">
         <v>38</v>
@@ -45246,10 +44352,10 @@
         <v>4</v>
       </c>
       <c r="M59" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N59" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -45270,7 +44376,7 @@
       </c>
       <c r="F60" s="112"/>
       <c r="G60" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H60" s="132"/>
       <c r="I60" s="112">
@@ -45286,7 +44392,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -45307,7 +44413,7 @@
       </c>
       <c r="F61" s="112"/>
       <c r="G61" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H61" s="132"/>
       <c r="I61" s="112"/>
@@ -45334,7 +44440,7 @@
       </c>
       <c r="F62" s="112"/>
       <c r="G62" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H62" s="132"/>
       <c r="I62" s="112"/>
@@ -45361,10 +44467,10 @@
       </c>
       <c r="F63" s="112"/>
       <c r="G63" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H63" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I63" s="112">
         <v>74</v>
@@ -45379,10 +44485,10 @@
         <v>10</v>
       </c>
       <c r="M63" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N63" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -45403,7 +44509,7 @@
       </c>
       <c r="F64" s="112"/>
       <c r="G64" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H64" s="132"/>
       <c r="I64" s="112">
@@ -45419,7 +44525,7 @@
         <v>8</v>
       </c>
       <c r="M64" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -45459,7 +44565,7 @@
       </c>
       <c r="F66" s="112"/>
       <c r="G66" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H66" s="132"/>
       <c r="I66" s="112">
@@ -45475,7 +44581,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -45523,7 +44629,7 @@
         <v>7</v>
       </c>
       <c r="M68" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -45558,7 +44664,7 @@
       <c r="F70" s="112"/>
       <c r="G70" s="112"/>
       <c r="H70" s="132" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="I70" s="112">
         <v>62.75</v>
@@ -45573,10 +44679,10 @@
         <v>10</v>
       </c>
       <c r="M70" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="N70" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -45597,7 +44703,7 @@
       </c>
       <c r="F71" s="112"/>
       <c r="G71" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H71" s="132"/>
       <c r="I71" s="112"/>
@@ -45624,7 +44730,7 @@
       </c>
       <c r="F72" s="112"/>
       <c r="G72" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H72" s="132"/>
       <c r="I72" s="112"/>
@@ -45670,7 +44776,7 @@
       </c>
       <c r="F74" s="112"/>
       <c r="G74" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H74" s="132"/>
       <c r="I74" s="112">
@@ -45686,7 +44792,7 @@
         <v>6</v>
       </c>
       <c r="M74" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -45707,7 +44813,7 @@
       </c>
       <c r="F75" s="112"/>
       <c r="G75" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H75" s="132"/>
       <c r="I75" s="112"/>
@@ -45734,7 +44840,7 @@
       </c>
       <c r="F76" s="112"/>
       <c r="G76" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H76" s="132"/>
       <c r="I76" s="112"/>
@@ -45761,7 +44867,7 @@
       </c>
       <c r="F77" s="112"/>
       <c r="G77" s="112" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H77" s="132"/>
       <c r="I77" s="112"/>
@@ -45788,7 +44894,7 @@
       </c>
       <c r="F78" s="112"/>
       <c r="G78" s="112" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="H78" s="132"/>
       <c r="I78" s="112"/>
@@ -45802,7 +44908,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="115" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
@@ -45822,19 +44928,19 @@
         <v>16161</v>
       </c>
       <c r="B81" s="117" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E81" s="117" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="F81" s="117" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -45842,19 +44948,19 @@
         <v>16261</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="C82" t="s">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="D82" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E82" t="s">
-        <v>712</v>
+        <v>683</v>
       </c>
       <c r="F82" t="s">
-        <v>713</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -45862,19 +44968,19 @@
         <v>16461</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="C83" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="D83" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E83" t="s">
-        <v>715</v>
+        <v>686</v>
       </c>
       <c r="F83" t="s">
-        <v>716</v>
+        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -45882,16 +44988,16 @@
         <v>16721</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
       <c r="C84" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="D84" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E84" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -45899,19 +45005,19 @@
         <v>16291</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="C85" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D85" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E85" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="F85" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -45919,19 +45025,19 @@
         <v>16301</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="C86" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="D86" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="E86" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="F86" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -45951,8 +45057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46213,25 +45319,6 @@
       <c r="B10" t="s">
         <v>562</v>
       </c>
-      <c r="C10">
-        <v>-99999</v>
-      </c>
-      <c r="D10">
-        <v>-99999</v>
-      </c>
-      <c r="E10">
-        <v>-99999</v>
-      </c>
-      <c r="F10">
-        <v>-99999</v>
-      </c>
-      <c r="G10">
-        <v>-99999</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
@@ -46348,24 +45435,8 @@
       <c r="B15" t="s">
         <v>572</v>
       </c>
-      <c r="C15">
-        <v>-99999</v>
-      </c>
-      <c r="D15">
-        <v>-99999</v>
-      </c>
       <c r="E15" t="s">
         <v>471</v>
-      </c>
-      <c r="F15">
-        <v>-99999</v>
-      </c>
-      <c r="G15">
-        <v>-99999</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>-99999x-99999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -46483,25 +45554,6 @@
       <c r="B20" t="s">
         <v>586</v>
       </c>
-      <c r="C20">
-        <v>-99999</v>
-      </c>
-      <c r="D20">
-        <v>-99999</v>
-      </c>
-      <c r="E20">
-        <v>-99999</v>
-      </c>
-      <c r="F20">
-        <v>-99999</v>
-      </c>
-      <c r="G20">
-        <v>-99999</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
@@ -46537,25 +45589,6 @@
       <c r="B22" t="s">
         <v>584</v>
       </c>
-      <c r="C22">
-        <v>-99999</v>
-      </c>
-      <c r="D22">
-        <v>-99999</v>
-      </c>
-      <c r="E22">
-        <v>-99999</v>
-      </c>
-      <c r="F22">
-        <v>-99999</v>
-      </c>
-      <c r="G22">
-        <v>-99999</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="101" t="s">
@@ -47023,25 +46056,6 @@
       <c r="B40" t="s">
         <v>595</v>
       </c>
-      <c r="C40">
-        <v>-99999</v>
-      </c>
-      <c r="D40">
-        <v>-99999</v>
-      </c>
-      <c r="E40">
-        <v>-99999</v>
-      </c>
-      <c r="F40">
-        <v>-99999</v>
-      </c>
-      <c r="G40">
-        <v>-99999</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="101" t="s">
@@ -47077,25 +46091,6 @@
       <c r="B42" t="s">
         <v>558</v>
       </c>
-      <c r="C42">
-        <v>-99999</v>
-      </c>
-      <c r="D42">
-        <v>-99999</v>
-      </c>
-      <c r="E42">
-        <v>-99999</v>
-      </c>
-      <c r="F42">
-        <v>-99999</v>
-      </c>
-      <c r="G42">
-        <v>-99999</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="101" t="s">
@@ -47104,25 +46099,6 @@
       <c r="B43" t="s">
         <v>558</v>
       </c>
-      <c r="C43">
-        <v>-99999</v>
-      </c>
-      <c r="D43">
-        <v>-99999</v>
-      </c>
-      <c r="E43">
-        <v>-99999</v>
-      </c>
-      <c r="F43">
-        <v>-99999</v>
-      </c>
-      <c r="G43">
-        <v>-99999</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="101" t="s">
@@ -47648,7 +46624,7 @@
         <v>1532</v>
       </c>
       <c r="D63">
-        <v>2160</v>
+        <v>1080</v>
       </c>
       <c r="E63" t="s">
         <v>471</v>
@@ -47660,8 +46636,8 @@
         <v>1</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
-        <v>2160x1532</v>
+        <f>CONCATENATE(D63,"x",C63)</f>
+        <v>1080x1532</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -47887,25 +46863,6 @@
       <c r="B72" t="s">
         <v>531</v>
       </c>
-      <c r="C72">
-        <v>-99999</v>
-      </c>
-      <c r="D72">
-        <v>-99999</v>
-      </c>
-      <c r="E72">
-        <v>-99999</v>
-      </c>
-      <c r="F72">
-        <v>-99999</v>
-      </c>
-      <c r="G72">
-        <v>-99999</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="2"/>
-        <v>-99999x-99999</v>
-      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="101" t="s">
@@ -47941,24 +46898,8 @@
       <c r="B74" t="s">
         <v>601</v>
       </c>
-      <c r="C74">
-        <v>-99999</v>
-      </c>
-      <c r="D74">
-        <v>-99999</v>
-      </c>
       <c r="E74" t="s">
         <v>471</v>
-      </c>
-      <c r="F74">
-        <v>-99999</v>
-      </c>
-      <c r="G74">
-        <v>-99999</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="2"/>
-        <v>-99999x-99999</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -47995,24 +46936,8 @@
       <c r="B76" t="s">
         <v>599</v>
       </c>
-      <c r="C76">
-        <v>-99999</v>
-      </c>
-      <c r="D76">
-        <v>-99999</v>
-      </c>
       <c r="E76" t="s">
         <v>471</v>
-      </c>
-      <c r="F76">
-        <v>-99999</v>
-      </c>
-      <c r="G76">
-        <v>-99999</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="2"/>
-        <v>-99999x-99999</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -73520,7 +72445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Programming\Quick Ship Router\Quick Ship Router\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Summaries" sheetId="16" r:id="rId1"/>
@@ -38,10 +38,10 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId19"/>
-    <pivotCache cacheId="9" r:id="rId20"/>
-    <pivotCache cacheId="10" r:id="rId21"/>
-    <pivotCache cacheId="11" r:id="rId22"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId21"/>
+    <pivotCache cacheId="3" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -14681,7 +14681,213 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="19">
+        <item m="1" x="4"/>
+        <item m="1" x="15"/>
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="5"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="14">
+        <item x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:I62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -14925,214 +15131,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="19">
-        <item m="1" x="4"/>
-        <item m="1" x="15"/>
-        <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="5"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="14">
-        <item x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="9">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -15346,7 +15346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15504,7 +15504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B24" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15630,7 +15630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B19" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15742,7 +15742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B17" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15841,7 +15841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B14" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -15933,7 +15933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -39776,7 +39776,7 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -41530,8 +41530,8 @@
   </sheetPr>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41722,10 +41722,10 @@
         <v>702</v>
       </c>
       <c r="P3" s="124">
-        <v>41.75</v>
+        <v>40.25</v>
       </c>
       <c r="Q3" s="124">
-        <v>31.25</v>
+        <v>27.75</v>
       </c>
       <c r="R3" s="124">
         <v>2.5</v>
@@ -41832,11 +41832,11 @@
       <c r="B5" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="128">
-        <v>64.875</v>
-      </c>
-      <c r="D5" s="112">
-        <v>24.5</v>
+      <c r="C5" s="125">
+        <v>64.375</v>
+      </c>
+      <c r="D5" s="125">
+        <v>24</v>
       </c>
       <c r="E5" s="112">
         <v>2.5</v>
@@ -42813,10 +42813,10 @@
         <v>647</v>
       </c>
       <c r="P20" s="125">
-        <v>64.875</v>
+        <v>64.375</v>
       </c>
       <c r="Q20" s="125">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="R20" s="125">
         <v>2.5</v>
@@ -43223,10 +43223,10 @@
         <v>652</v>
       </c>
       <c r="P27" s="125">
-        <v>64.88</v>
+        <v>63.25</v>
       </c>
       <c r="Q27" s="125">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="R27" s="125">
         <v>2.5</v>
@@ -43359,10 +43359,10 @@
         <v>577</v>
       </c>
       <c r="C30" s="128">
-        <v>41.75</v>
+        <v>40.25</v>
       </c>
       <c r="D30" s="112">
-        <v>31.25</v>
+        <v>27.75</v>
       </c>
       <c r="E30" s="112">
         <v>2.5</v>
@@ -43649,18 +43649,18 @@
       <c r="L36" s="112"/>
       <c r="M36" s="112"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="101" t="s">
         <v>488</v>
       </c>
       <c r="B37" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="128">
-        <v>64.875</v>
-      </c>
-      <c r="D37" s="112">
-        <v>24.5</v>
+      <c r="C37" s="125">
+        <v>64.375</v>
+      </c>
+      <c r="D37" s="125">
+        <v>24</v>
       </c>
       <c r="E37" s="112">
         <v>2.5</v>
@@ -44766,10 +44766,10 @@
         <v>557</v>
       </c>
       <c r="C74" s="128">
-        <v>64.88</v>
+        <v>63.25</v>
       </c>
       <c r="D74" s="112">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="E74" s="112">
         <v>2.5</v>

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gage Omega\Programming\Quick Ship Router\Quick Ship Router\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="658" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Summaries" sheetId="16" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="768">
   <si>
     <t>Jan-16</t>
   </si>
@@ -1897,9 +1897,6 @@
     <t>MAGR2</t>
   </si>
   <si>
-    <t>MAGR5</t>
-  </si>
-  <si>
     <t>MAGR3</t>
   </si>
   <si>
@@ -2345,6 +2342,15 @@
   </si>
   <si>
     <t>WALNUT</t>
+  </si>
+  <si>
+    <t>MAGR8</t>
+  </si>
+  <si>
+    <t>CHOK8</t>
+  </si>
+  <si>
+    <t>WAS MAGR5</t>
   </si>
 </sst>
 </file>
@@ -39774,10 +39780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39786,6 +39792,7 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="4" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="4" customWidth="1"/>
@@ -39803,22 +39810,22 @@
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>632</v>
-      </c>
       <c r="K1" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>56</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -39830,13 +39837,13 @@
         <v>508</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K2" s="4">
         <v>18</v>
@@ -39845,7 +39852,7 @@
         <v>439</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -39857,13 +39864,13 @@
         <v>514</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K3" s="4">
         <v>20</v>
@@ -39872,7 +39879,7 @@
         <v>440</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -39884,16 +39891,22 @@
         <v>512</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K4" s="4">
         <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -39905,16 +39918,22 @@
         <v>512</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K5" s="4">
         <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -39926,7 +39945,7 @@
         <v>504</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>614</v>
@@ -39935,10 +39954,10 @@
         <v>23</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -39950,22 +39969,22 @@
         <v>508</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K7" s="4">
         <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -39977,22 +39996,22 @@
         <v>507</v>
       </c>
       <c r="D8" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K8" s="4">
         <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -40004,16 +40023,16 @@
         <v>506</v>
       </c>
       <c r="D9" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K9" s="4">
         <v>31</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -40025,16 +40044,16 @@
         <v>434</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K10" s="4">
         <v>32</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -40046,22 +40065,22 @@
         <v>507</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K11" s="4">
         <v>33</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -40073,16 +40092,16 @@
         <v>510</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K12" s="4">
         <v>34</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -40094,16 +40113,22 @@
         <v>512</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K13" s="4">
         <v>35</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -40115,10 +40140,10 @@
         <v>514</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K14" s="4">
         <v>36</v>
@@ -40127,7 +40152,7 @@
         <v>457</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -40139,16 +40164,16 @@
         <v>434</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K15" s="4">
         <v>37</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -40160,22 +40185,22 @@
         <v>503</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K16" s="4">
         <v>38</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -40187,13 +40212,13 @@
         <v>516</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K17" s="4">
         <v>39</v>
@@ -40202,7 +40227,7 @@
         <v>443</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -40214,22 +40239,22 @@
         <v>503</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K18" s="4">
         <v>40</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -40241,16 +40266,22 @@
         <v>512</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K19" s="4">
         <v>41</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -40262,16 +40293,16 @@
         <v>434</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K20" s="4">
         <v>42</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -40283,16 +40314,22 @@
         <v>512</v>
       </c>
       <c r="D21" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K21" s="4">
         <v>43</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -40304,16 +40341,16 @@
         <v>434</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K22" s="4">
         <v>44</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -40325,13 +40362,13 @@
         <v>508</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K23" s="4">
         <v>45</v>
@@ -40340,7 +40377,7 @@
         <v>442</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -40352,22 +40389,22 @@
         <v>507</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K24" s="4">
         <v>46</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -40379,19 +40416,19 @@
         <v>514</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K25" s="4">
         <v>47</v>
       </c>
       <c r="L25" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -40403,13 +40440,13 @@
         <v>508</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K26" s="4">
         <v>48</v>
@@ -40418,7 +40455,7 @@
         <v>441</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -40430,10 +40467,10 @@
         <v>505</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K27" s="4">
         <v>49</v>
@@ -40442,7 +40479,7 @@
         <v>442</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -40454,7 +40491,13 @@
         <v>512</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K28" s="4">
         <v>50</v>
@@ -40463,7 +40506,7 @@
         <v>443</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -40475,13 +40518,13 @@
         <v>508</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K29" s="4">
         <v>51</v>
@@ -40490,7 +40533,7 @@
         <v>444</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -40502,7 +40545,13 @@
         <v>512</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K30" s="4">
         <v>52</v>
@@ -40511,7 +40560,7 @@
         <v>445</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -40523,7 +40572,7 @@
         <v>515</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K31" s="4">
         <v>53</v>
@@ -40532,7 +40581,7 @@
         <v>446</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -40544,13 +40593,13 @@
         <v>508</v>
       </c>
       <c r="D32" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K32" s="4">
         <v>54</v>
@@ -40559,7 +40608,7 @@
         <v>447</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -40571,13 +40620,13 @@
         <v>508</v>
       </c>
       <c r="D33" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K33" s="4">
         <v>55</v>
@@ -40586,7 +40635,7 @@
         <v>448</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -40598,13 +40647,13 @@
         <v>508</v>
       </c>
       <c r="D34" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K34" s="4">
         <v>56</v>
@@ -40613,7 +40662,7 @@
         <v>449</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -40625,10 +40674,10 @@
         <v>514</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K35" s="4">
         <v>57</v>
@@ -40637,7 +40686,7 @@
         <v>450</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -40649,16 +40698,22 @@
         <v>512</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K36" s="4">
         <v>58</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -40670,7 +40725,13 @@
         <v>512</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K37" s="4">
         <v>59</v>
@@ -40679,7 +40740,7 @@
         <v>457</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -40691,7 +40752,7 @@
         <v>504</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>614</v>
@@ -40703,7 +40764,7 @@
         <v>451</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -40715,7 +40776,7 @@
         <v>506</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K39" s="4">
         <v>61</v>
@@ -40724,7 +40785,7 @@
         <v>452</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -40736,7 +40797,7 @@
         <v>434</v>
       </c>
       <c r="D40" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K40" s="4">
         <v>62</v>
@@ -40745,7 +40806,7 @@
         <v>453</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -40757,7 +40818,13 @@
         <v>512</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K41" s="4">
         <v>63</v>
@@ -40766,7 +40833,7 @@
         <v>454</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -40778,7 +40845,7 @@
         <v>434</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K42" s="4">
         <v>64</v>
@@ -40787,7 +40854,7 @@
         <v>455</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -40799,7 +40866,7 @@
         <v>434</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K43" s="4">
         <v>65</v>
@@ -40808,7 +40875,7 @@
         <v>456</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -40820,7 +40887,13 @@
         <v>512</v>
       </c>
       <c r="D44" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K44" s="4">
         <v>69</v>
@@ -40829,7 +40902,7 @@
         <v>457</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -40841,7 +40914,7 @@
         <v>509</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K45" s="4">
         <v>70</v>
@@ -40850,7 +40923,7 @@
         <v>458</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -40862,13 +40935,13 @@
         <v>503</v>
       </c>
       <c r="D46" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K46" s="4">
         <v>77</v>
@@ -40877,7 +40950,7 @@
         <v>459</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -40889,13 +40962,13 @@
         <v>508</v>
       </c>
       <c r="D47" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K47" s="4">
         <v>78</v>
@@ -40904,7 +40977,7 @@
         <v>460</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -40916,13 +40989,13 @@
         <v>508</v>
       </c>
       <c r="D48" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K48" s="4">
         <v>79</v>
@@ -40931,7 +41004,7 @@
         <v>461</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -40943,7 +41016,7 @@
         <v>511</v>
       </c>
       <c r="D49" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K49" s="4">
         <v>80</v>
@@ -40952,7 +41025,7 @@
         <v>462</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -40964,7 +41037,7 @@
         <v>504</v>
       </c>
       <c r="D50" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>614</v>
@@ -40976,7 +41049,7 @@
         <v>449</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -40988,13 +41061,13 @@
         <v>508</v>
       </c>
       <c r="D51" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -41006,13 +41079,13 @@
         <v>507</v>
       </c>
       <c r="D52" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -41024,7 +41097,7 @@
         <v>506</v>
       </c>
       <c r="D53" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -41036,13 +41109,13 @@
         <v>507</v>
       </c>
       <c r="D54" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -41054,7 +41127,7 @@
         <v>510</v>
       </c>
       <c r="D55" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -41066,7 +41139,13 @@
         <v>512</v>
       </c>
       <c r="D56" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -41078,10 +41157,10 @@
         <v>514</v>
       </c>
       <c r="D57" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -41093,13 +41172,13 @@
         <v>503</v>
       </c>
       <c r="D58" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -41111,13 +41190,13 @@
         <v>508</v>
       </c>
       <c r="D59" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -41129,13 +41208,13 @@
         <v>508</v>
       </c>
       <c r="D60" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -41147,13 +41226,13 @@
         <v>516</v>
       </c>
       <c r="D61" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -41165,13 +41244,13 @@
         <v>503</v>
       </c>
       <c r="D62" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -41183,7 +41262,7 @@
         <v>517</v>
       </c>
       <c r="D63" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -41195,13 +41274,13 @@
         <v>508</v>
       </c>
       <c r="D64" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -41213,13 +41292,13 @@
         <v>508</v>
       </c>
       <c r="D65" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K65" s="95" t="s">
         <v>505</v>
@@ -41240,22 +41319,22 @@
         <v>503</v>
       </c>
       <c r="D66" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K66" s="95" t="s">
         <v>507</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -41267,22 +41346,22 @@
         <v>507</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K67" s="95" t="s">
         <v>507</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -41294,22 +41373,22 @@
         <v>508</v>
       </c>
       <c r="D68" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K68" s="118" t="s">
         <v>508</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -41321,19 +41400,19 @@
         <v>514</v>
       </c>
       <c r="D69" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K69" s="95" t="s">
         <v>508</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -41345,10 +41424,10 @@
         <v>505</v>
       </c>
       <c r="D70" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K70" s="95" t="s">
         <v>504</v>
@@ -41369,22 +41448,22 @@
         <v>508</v>
       </c>
       <c r="D71" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K71" s="133" t="s">
         <v>513</v>
       </c>
       <c r="L71" s="134" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M71" s="134" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -41396,16 +41475,19 @@
         <v>434</v>
       </c>
       <c r="D72" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="J72" t="s">
+        <v>767</v>
       </c>
       <c r="K72" s="95" t="s">
         <v>514</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -41417,16 +41499,22 @@
         <v>512</v>
       </c>
       <c r="D73" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="K73" s="95" t="s">
         <v>516</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -41438,16 +41526,16 @@
         <v>434</v>
       </c>
       <c r="D74" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K74" s="95" t="s">
         <v>516</v>
       </c>
       <c r="L74" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="M74" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -41459,19 +41547,19 @@
         <v>503</v>
       </c>
       <c r="D75" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K75" s="95" t="s">
         <v>503</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>527</v>
@@ -41485,13 +41573,13 @@
         <v>434</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K76" s="95" t="s">
         <v>503</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M76" s="5" t="s">
         <v>527</v>
@@ -41505,13 +41593,27 @@
         <v>503</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
+      </c>
+      <c r="K77" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K78" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -41530,7 +41632,7 @@
   </sheetPr>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -41567,7 +41669,7 @@
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
       <c r="C1" s="144" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D1" s="142"/>
       <c r="E1" s="142"/>
@@ -41575,7 +41677,7 @@
       <c r="G1" s="142"/>
       <c r="H1" s="145"/>
       <c r="I1" s="142" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J1" s="142"/>
       <c r="K1" s="142"/>
@@ -41583,7 +41685,7 @@
       <c r="M1" s="142"/>
       <c r="N1" s="143"/>
       <c r="O1" s="136" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P1" s="137"/>
       <c r="Q1" s="137"/>
@@ -41592,7 +41694,7 @@
       <c r="T1" s="138"/>
       <c r="U1" s="70"/>
       <c r="V1" s="139" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W1" s="140"/>
       <c r="X1" s="140"/>
@@ -41603,46 +41705,46 @@
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>664</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="C2" s="130" t="s">
         <v>665</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="D2" s="114" t="s">
         <v>666</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="E2" s="114" t="s">
         <v>667</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="F2" s="114" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="114" t="s">
         <v>668</v>
       </c>
-      <c r="F2" s="114" t="s">
-        <v>670</v>
-      </c>
-      <c r="G2" s="114" t="s">
+      <c r="H2" s="131" t="s">
+        <v>700</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>665</v>
+      </c>
+      <c r="J2" s="114" t="s">
+        <v>666</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>667</v>
+      </c>
+      <c r="L2" s="114" t="s">
         <v>669</v>
       </c>
-      <c r="H2" s="131" t="s">
-        <v>701</v>
-      </c>
-      <c r="I2" s="114" t="s">
-        <v>666</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>667</v>
-      </c>
-      <c r="K2" s="114" t="s">
+      <c r="M2" s="114" t="s">
         <v>668</v>
       </c>
-      <c r="L2" s="114" t="s">
-        <v>670</v>
-      </c>
-      <c r="M2" s="114" t="s">
-        <v>669</v>
-      </c>
       <c r="N2" s="129" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O2" s="121" t="s">
         <v>518</v>
@@ -41654,13 +41756,13 @@
         <v>605</v>
       </c>
       <c r="R2" s="123" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S2" s="123" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T2" s="123" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V2" s="122" t="s">
         <v>518</v>
@@ -41672,16 +41774,16 @@
         <v>605</v>
       </c>
       <c r="Y2" s="127" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z2" s="127" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA2" s="127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AB2" s="127" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -41702,7 +41804,7 @@
       </c>
       <c r="F3" s="112"/>
       <c r="G3" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H3" s="132"/>
       <c r="I3" s="112">
@@ -41719,7 +41821,7 @@
       </c>
       <c r="M3" s="112"/>
       <c r="O3" s="120" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P3" s="124">
         <v>40.25</v>
@@ -41731,11 +41833,11 @@
         <v>2.5</v>
       </c>
       <c r="S3" s="124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T3" s="124"/>
       <c r="V3" s="120" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W3" s="124">
         <v>50.125</v>
@@ -41750,7 +41852,7 @@
         <v>5</v>
       </c>
       <c r="AA3" s="124" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AB3" s="124"/>
     </row>
@@ -41771,7 +41873,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H4" s="132"/>
       <c r="I4" s="112">
@@ -41787,10 +41889,10 @@
         <v>5</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P4" s="125">
         <v>40.625</v>
@@ -41802,11 +41904,11 @@
         <v>2.25</v>
       </c>
       <c r="S4" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T4" s="125"/>
       <c r="V4" s="119" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W4" s="125">
         <v>50.25</v>
@@ -41821,7 +41923,7 @@
         <v>6</v>
       </c>
       <c r="AA4" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB4" s="125"/>
     </row>
@@ -41843,7 +41945,7 @@
       </c>
       <c r="F5" s="112"/>
       <c r="G5" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H5" s="132"/>
       <c r="I5" s="112">
@@ -41859,10 +41961,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P5" s="125">
         <v>52.75</v>
@@ -41874,11 +41976,11 @@
         <v>2.5</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T5" s="125"/>
       <c r="V5" s="119" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W5" s="125">
         <v>62.38</v>
@@ -41893,10 +41995,10 @@
         <v>7</v>
       </c>
       <c r="AA5" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB5" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -41918,7 +42020,7 @@
       <c r="L6" s="112"/>
       <c r="M6" s="112"/>
       <c r="O6" s="119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P6" s="125">
         <v>52.75</v>
@@ -41930,11 +42032,11 @@
         <v>2.5</v>
       </c>
       <c r="S6" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T6" s="125"/>
       <c r="V6" s="119" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W6" s="125">
         <v>74</v>
@@ -41949,10 +42051,10 @@
         <v>9</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB6" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -41973,7 +42075,7 @@
       </c>
       <c r="F7" s="112"/>
       <c r="G7" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H7" s="132"/>
       <c r="I7" s="112">
@@ -41989,10 +42091,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O7" s="119" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P7" s="125">
         <v>64.875</v>
@@ -42004,11 +42106,11 @@
         <v>2.5</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T7" s="125"/>
       <c r="V7" s="119" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W7" s="125">
         <v>74</v>
@@ -42023,7 +42125,7 @@
         <v>10</v>
       </c>
       <c r="AA7" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB7" s="125"/>
     </row>
@@ -42045,7 +42147,7 @@
       </c>
       <c r="F8" s="112"/>
       <c r="G8" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H8" s="132"/>
       <c r="I8" s="112"/>
@@ -42054,7 +42156,7 @@
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
       <c r="O8" s="119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P8" s="125">
         <v>46.75</v>
@@ -42066,11 +42168,11 @@
         <v>2</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T8" s="125"/>
       <c r="V8" s="119" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W8" s="125">
         <v>49.5</v>
@@ -42085,7 +42187,7 @@
         <v>4</v>
       </c>
       <c r="AA8" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB8" s="125"/>
     </row>
@@ -42108,7 +42210,7 @@
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
       <c r="O9" s="119" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P9" s="125">
         <v>40.625</v>
@@ -42120,11 +42222,11 @@
         <v>2</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T9" s="125"/>
       <c r="V9" s="119" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W9" s="125">
         <v>62.125</v>
@@ -42139,7 +42241,7 @@
         <v>6</v>
       </c>
       <c r="AA9" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB9" s="125"/>
     </row>
@@ -42161,7 +42263,7 @@
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H10" s="132"/>
       <c r="I10" s="112"/>
@@ -42170,7 +42272,7 @@
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
       <c r="O10" s="119" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="P10" s="125">
         <v>52.625</v>
@@ -42182,11 +42284,11 @@
         <v>2.5</v>
       </c>
       <c r="S10" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T10" s="125"/>
       <c r="V10" s="119" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W10" s="125">
         <v>74</v>
@@ -42201,7 +42303,7 @@
         <v>7</v>
       </c>
       <c r="AA10" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB10" s="125"/>
     </row>
@@ -42224,7 +42326,7 @@
       <c r="L11" s="112"/>
       <c r="M11" s="112"/>
       <c r="O11" s="119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P11" s="125">
         <v>63.875</v>
@@ -42236,11 +42338,11 @@
         <v>2.5</v>
       </c>
       <c r="S11" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T11" s="125"/>
       <c r="V11" s="119" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W11" s="125">
         <v>43.75</v>
@@ -42255,7 +42357,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB11" s="125"/>
     </row>
@@ -42277,10 +42379,10 @@
       </c>
       <c r="F12" s="112"/>
       <c r="G12" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H12" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
@@ -42288,10 +42390,10 @@
       <c r="L12" s="112"/>
       <c r="M12" s="112"/>
       <c r="N12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O12" s="119" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P12" s="125">
         <v>64.88</v>
@@ -42303,13 +42405,13 @@
         <v>2.5</v>
       </c>
       <c r="S12" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T12" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V12" s="119" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W12" s="125">
         <v>50</v>
@@ -42324,7 +42426,7 @@
         <v>6</v>
       </c>
       <c r="AA12" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB12" s="125"/>
     </row>
@@ -42346,7 +42448,7 @@
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H13" s="132"/>
       <c r="I13" s="112"/>
@@ -42355,7 +42457,7 @@
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
       <c r="O13" s="119" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P13" s="125">
         <v>52.75</v>
@@ -42367,11 +42469,11 @@
         <v>2.5</v>
       </c>
       <c r="S13" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T13" s="125"/>
       <c r="V13" s="119" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W13" s="125">
         <v>0</v>
@@ -42386,7 +42488,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB13" s="125"/>
     </row>
@@ -42408,10 +42510,10 @@
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H14" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
@@ -42419,10 +42521,10 @@
       <c r="L14" s="112"/>
       <c r="M14" s="112"/>
       <c r="N14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O14" s="119" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P14" s="125">
         <v>52.75</v>
@@ -42434,11 +42536,11 @@
         <v>2</v>
       </c>
       <c r="S14" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T14" s="125"/>
       <c r="V14" s="119" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W14" s="125">
         <v>62.375</v>
@@ -42453,7 +42555,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB14" s="125"/>
     </row>
@@ -42475,10 +42577,10 @@
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H15" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
@@ -42486,10 +42588,10 @@
       <c r="L15" s="112"/>
       <c r="M15" s="112"/>
       <c r="N15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O15" s="119" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P15" s="125">
         <v>50</v>
@@ -42501,13 +42603,13 @@
         <v>2.5</v>
       </c>
       <c r="S15" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T15" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V15" s="119" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W15" s="125">
         <v>38.125</v>
@@ -42522,7 +42624,7 @@
         <v>4</v>
       </c>
       <c r="AA15" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB15" s="125"/>
     </row>
@@ -42544,7 +42646,7 @@
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H16" s="132"/>
       <c r="I16" s="112">
@@ -42560,10 +42662,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O16" s="119" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P16" s="125">
         <v>50</v>
@@ -42575,13 +42677,13 @@
         <v>2.5</v>
       </c>
       <c r="S16" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T16" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V16" s="119" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="W16" s="125">
         <v>62.375</v>
@@ -42596,7 +42698,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB16" s="125"/>
     </row>
@@ -42618,7 +42720,7 @@
       </c>
       <c r="F17" s="112"/>
       <c r="G17" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H17" s="132"/>
       <c r="I17" s="112"/>
@@ -42627,7 +42729,7 @@
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
       <c r="O17" s="119" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P17" s="125">
         <v>52</v>
@@ -42639,11 +42741,11 @@
         <v>2</v>
       </c>
       <c r="S17" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T17" s="125"/>
       <c r="V17" s="119" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W17" s="125">
         <v>38</v>
@@ -42658,7 +42760,7 @@
         <v>4</v>
       </c>
       <c r="AA17" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB17" s="125"/>
     </row>
@@ -42680,7 +42782,7 @@
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H18" s="132"/>
       <c r="I18" s="112"/>
@@ -42689,7 +42791,7 @@
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
       <c r="O18" s="119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P18" s="125">
         <v>46.75</v>
@@ -42701,11 +42803,11 @@
         <v>2</v>
       </c>
       <c r="S18" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T18" s="125"/>
       <c r="V18" s="119" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W18" s="125">
         <v>62.375</v>
@@ -42720,7 +42822,7 @@
         <v>8</v>
       </c>
       <c r="AA18" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB18" s="125"/>
     </row>
@@ -42742,10 +42844,10 @@
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H19" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I19" s="112"/>
       <c r="J19" s="112"/>
@@ -42753,10 +42855,10 @@
       <c r="L19" s="112"/>
       <c r="M19" s="112"/>
       <c r="N19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O19" s="119" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P19" s="125">
         <v>52.625</v>
@@ -42768,11 +42870,11 @@
         <v>2</v>
       </c>
       <c r="S19" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T19" s="125"/>
       <c r="V19" s="119" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W19" s="125">
         <v>62.375</v>
@@ -42787,7 +42889,7 @@
         <v>6</v>
       </c>
       <c r="AA19" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB19" s="125"/>
     </row>
@@ -42810,7 +42912,7 @@
       <c r="L20" s="112"/>
       <c r="M20" s="112"/>
       <c r="O20" s="119" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P20" s="125">
         <v>64.375</v>
@@ -42822,11 +42924,11 @@
         <v>2.5</v>
       </c>
       <c r="S20" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T20" s="125"/>
       <c r="V20" s="119" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W20" s="125">
         <v>38.75</v>
@@ -42841,7 +42943,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB20" s="125"/>
     </row>
@@ -42864,7 +42966,7 @@
       <c r="L21" s="112"/>
       <c r="M21" s="112"/>
       <c r="O21" s="119" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P21" s="125">
         <v>40.5</v>
@@ -42876,11 +42978,11 @@
         <v>2.25</v>
       </c>
       <c r="S21" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T21" s="125"/>
       <c r="V21" s="119" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W21" s="125">
         <v>39.25</v>
@@ -42895,7 +42997,7 @@
         <v>5</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB21" s="125"/>
     </row>
@@ -42925,10 +43027,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O22" s="119" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P22" s="125">
         <v>32.5</v>
@@ -42940,11 +43042,11 @@
         <v>2.25</v>
       </c>
       <c r="S22" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T22" s="125"/>
       <c r="V22" s="119" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W22" s="125">
         <v>42.25</v>
@@ -42959,7 +43061,7 @@
         <v>6</v>
       </c>
       <c r="AA22" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB22" s="125"/>
     </row>
@@ -42982,7 +43084,7 @@
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
       <c r="O23" s="119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P23" s="125">
         <v>44.75</v>
@@ -42994,11 +43096,11 @@
         <v>2.25</v>
       </c>
       <c r="S23" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T23" s="125"/>
       <c r="V23" s="119" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W23" s="125">
         <v>30</v>
@@ -43013,7 +43115,7 @@
         <v>5</v>
       </c>
       <c r="AA23" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB23" s="125"/>
     </row>
@@ -43035,7 +43137,7 @@
       </c>
       <c r="F24" s="112"/>
       <c r="G24" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H24" s="132"/>
       <c r="I24" s="112"/>
@@ -43044,7 +43146,7 @@
       <c r="L24" s="112"/>
       <c r="M24" s="112"/>
       <c r="O24" s="119" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P24" s="125">
         <v>50</v>
@@ -43056,13 +43158,13 @@
         <v>2.5</v>
       </c>
       <c r="S24" s="125" t="s">
+        <v>656</v>
+      </c>
+      <c r="T24" s="125" t="s">
+        <v>699</v>
+      </c>
+      <c r="V24" s="119" t="s">
         <v>657</v>
-      </c>
-      <c r="T24" s="125" t="s">
-        <v>700</v>
-      </c>
-      <c r="V24" s="119" t="s">
-        <v>658</v>
       </c>
       <c r="W24" s="125">
         <v>38.125</v>
@@ -43098,7 +43200,7 @@
       <c r="L25" s="112"/>
       <c r="M25" s="112"/>
       <c r="O25" s="119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P25" s="125">
         <v>64.875</v>
@@ -43110,11 +43212,11 @@
         <v>2.5</v>
       </c>
       <c r="S25" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T25" s="125"/>
       <c r="V25" s="119" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W25" s="125">
         <v>50.125</v>
@@ -43150,7 +43252,7 @@
       <c r="L26" s="112"/>
       <c r="M26" s="112"/>
       <c r="O26" s="119" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P26" s="125">
         <v>34.75</v>
@@ -43162,11 +43264,11 @@
         <v>2.25</v>
       </c>
       <c r="S26" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T26" s="125"/>
       <c r="V26" s="119" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W26" s="125">
         <v>45.375</v>
@@ -43201,7 +43303,7 @@
       </c>
       <c r="F27" s="112"/>
       <c r="G27" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H27" s="132"/>
       <c r="I27" s="112">
@@ -43217,10 +43319,10 @@
         <v>6</v>
       </c>
       <c r="M27" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O27" s="119" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P27" s="125">
         <v>63.25</v>
@@ -43232,11 +43334,11 @@
         <v>2.5</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T27" s="125"/>
       <c r="V27" s="119" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W27" s="125">
         <v>62.75</v>
@@ -43251,10 +43353,10 @@
         <v>10</v>
       </c>
       <c r="AA27" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB27" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -43276,7 +43378,7 @@
       <c r="L28" s="112"/>
       <c r="M28" s="112"/>
       <c r="O28" s="119" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P28" s="125">
         <v>41.25</v>
@@ -43288,11 +43390,11 @@
         <v>2.5</v>
       </c>
       <c r="S28" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T28" s="125"/>
       <c r="V28" s="119" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W28" s="125">
         <v>74.5</v>
@@ -43307,7 +43409,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB28" s="125"/>
     </row>
@@ -43330,7 +43432,7 @@
       <c r="L29" s="112"/>
       <c r="M29" s="112"/>
       <c r="V29" s="119" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="W29" s="125">
         <v>60.125</v>
@@ -43345,10 +43447,10 @@
         <v>6</v>
       </c>
       <c r="AA29" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB29" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -43369,7 +43471,7 @@
       </c>
       <c r="F30" s="112"/>
       <c r="G30" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H30" s="132"/>
       <c r="I30" s="112">
@@ -43385,10 +43487,10 @@
         <v>5</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="V30" s="119" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W30" s="125">
         <v>32.25</v>
@@ -43403,7 +43505,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB30" s="125"/>
     </row>
@@ -43425,7 +43527,7 @@
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H31" s="132"/>
       <c r="I31" s="112"/>
@@ -43434,7 +43536,7 @@
       <c r="L31" s="112"/>
       <c r="M31" s="112"/>
       <c r="V31" s="119" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W31" s="125">
         <v>61.375</v>
@@ -43449,10 +43551,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB31" s="125" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -43474,7 +43576,7 @@
       <c r="L32" s="112"/>
       <c r="M32" s="112"/>
       <c r="V32" s="119" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W32" s="125">
         <v>56.375</v>
@@ -43510,7 +43612,7 @@
       <c r="L33" s="112"/>
       <c r="M33" s="112"/>
       <c r="V33" s="119" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="W33" s="125">
         <v>74</v>
@@ -43525,7 +43627,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB33" s="125"/>
     </row>
@@ -43548,7 +43650,7 @@
       <c r="L34" s="112"/>
       <c r="M34" s="112"/>
       <c r="V34" s="119" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W34" s="125">
         <v>62.25</v>
@@ -43563,7 +43665,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB34" s="125"/>
     </row>
@@ -43585,7 +43687,7 @@
       </c>
       <c r="F35" s="112"/>
       <c r="G35" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H35" s="132"/>
       <c r="I35" s="112">
@@ -43601,10 +43703,10 @@
         <v>5</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="V35" s="119" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W35" s="125">
         <v>33.125</v>
@@ -43619,7 +43721,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="125" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB35" s="125"/>
     </row>
@@ -43640,7 +43742,7 @@
         <v>2.5</v>
       </c>
       <c r="G36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H36" s="132"/>
       <c r="I36" s="112"/>
@@ -43667,7 +43769,7 @@
       </c>
       <c r="F37" s="112"/>
       <c r="G37" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H37" s="132"/>
       <c r="I37" s="112"/>
@@ -43713,7 +43815,7 @@
       </c>
       <c r="F39" s="112"/>
       <c r="G39" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H39" s="132"/>
       <c r="I39" s="112"/>
@@ -43740,7 +43842,7 @@
       </c>
       <c r="F40" s="112"/>
       <c r="G40" s="117" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H40" s="132"/>
       <c r="I40" s="112"/>
@@ -43786,7 +43888,7 @@
       </c>
       <c r="F42" s="112"/>
       <c r="G42" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H42" s="132"/>
       <c r="I42" s="112"/>
@@ -43846,7 +43948,7 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I45" s="112">
         <v>61.375</v>
@@ -43861,10 +43963,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -43893,7 +43995,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -43914,7 +44016,7 @@
       </c>
       <c r="F47" s="112"/>
       <c r="G47" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H47" s="132"/>
       <c r="I47" s="112">
@@ -43949,7 +44051,7 @@
       </c>
       <c r="F48" s="112"/>
       <c r="G48" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H48" s="132"/>
       <c r="I48" s="112">
@@ -43984,7 +44086,7 @@
       </c>
       <c r="F49" s="112"/>
       <c r="G49" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="112">
@@ -44038,7 +44140,7 @@
       </c>
       <c r="F51" s="112"/>
       <c r="G51" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H51" s="132"/>
       <c r="I51" s="112">
@@ -44054,7 +44156,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -44075,7 +44177,7 @@
       </c>
       <c r="F52" s="112"/>
       <c r="G52" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H52" s="132"/>
       <c r="I52" s="117">
@@ -44089,7 +44191,7 @@
       </c>
       <c r="L52" s="112"/>
       <c r="M52" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -44118,7 +44220,7 @@
         <v>10</v>
       </c>
       <c r="M53" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -44139,7 +44241,7 @@
       </c>
       <c r="F54" s="112"/>
       <c r="G54" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="112">
@@ -44155,7 +44257,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -44176,10 +44278,10 @@
       </c>
       <c r="F55" s="112"/>
       <c r="G55" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H55" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I55" s="112">
         <v>74</v>
@@ -44194,10 +44296,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N55" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -44218,7 +44320,7 @@
       </c>
       <c r="F56" s="112"/>
       <c r="G56" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H56" s="132"/>
       <c r="I56" s="112">
@@ -44234,7 +44336,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -44255,10 +44357,10 @@
       </c>
       <c r="F57" s="112"/>
       <c r="G57" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H57" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I57" s="112">
         <v>62.38</v>
@@ -44273,10 +44375,10 @@
         <v>7</v>
       </c>
       <c r="M57" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -44297,7 +44399,7 @@
       </c>
       <c r="F58" s="112"/>
       <c r="G58" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="112">
@@ -44313,7 +44415,7 @@
         <v>9</v>
       </c>
       <c r="M58" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -44334,10 +44436,10 @@
       </c>
       <c r="F59" s="112"/>
       <c r="G59" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H59" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I59" s="112">
         <v>38</v>
@@ -44352,10 +44454,10 @@
         <v>4</v>
       </c>
       <c r="M59" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -44376,7 +44478,7 @@
       </c>
       <c r="F60" s="112"/>
       <c r="G60" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H60" s="132"/>
       <c r="I60" s="112">
@@ -44392,7 +44494,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -44413,7 +44515,7 @@
       </c>
       <c r="F61" s="112"/>
       <c r="G61" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H61" s="132"/>
       <c r="I61" s="112"/>
@@ -44440,7 +44542,7 @@
       </c>
       <c r="F62" s="112"/>
       <c r="G62" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H62" s="132"/>
       <c r="I62" s="112"/>
@@ -44467,10 +44569,10 @@
       </c>
       <c r="F63" s="112"/>
       <c r="G63" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H63" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I63" s="112">
         <v>74</v>
@@ -44485,10 +44587,10 @@
         <v>10</v>
       </c>
       <c r="M63" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -44509,7 +44611,7 @@
       </c>
       <c r="F64" s="112"/>
       <c r="G64" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H64" s="132"/>
       <c r="I64" s="112">
@@ -44525,7 +44627,7 @@
         <v>8</v>
       </c>
       <c r="M64" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -44565,7 +44667,7 @@
       </c>
       <c r="F66" s="112"/>
       <c r="G66" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H66" s="132"/>
       <c r="I66" s="112">
@@ -44581,7 +44683,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -44629,7 +44731,7 @@
         <v>7</v>
       </c>
       <c r="M68" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -44664,7 +44766,7 @@
       <c r="F70" s="112"/>
       <c r="G70" s="112"/>
       <c r="H70" s="132" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I70" s="112">
         <v>62.75</v>
@@ -44679,10 +44781,10 @@
         <v>10</v>
       </c>
       <c r="M70" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N70" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -44703,7 +44805,7 @@
       </c>
       <c r="F71" s="112"/>
       <c r="G71" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H71" s="132"/>
       <c r="I71" s="112"/>
@@ -44730,7 +44832,7 @@
       </c>
       <c r="F72" s="112"/>
       <c r="G72" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H72" s="132"/>
       <c r="I72" s="112"/>
@@ -44776,7 +44878,7 @@
       </c>
       <c r="F74" s="112"/>
       <c r="G74" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H74" s="132"/>
       <c r="I74" s="112">
@@ -44792,7 +44894,7 @@
         <v>6</v>
       </c>
       <c r="M74" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -44813,7 +44915,7 @@
       </c>
       <c r="F75" s="112"/>
       <c r="G75" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H75" s="132"/>
       <c r="I75" s="112"/>
@@ -44840,7 +44942,7 @@
       </c>
       <c r="F76" s="112"/>
       <c r="G76" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H76" s="132"/>
       <c r="I76" s="112"/>
@@ -44867,7 +44969,7 @@
       </c>
       <c r="F77" s="112"/>
       <c r="G77" s="112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H77" s="132"/>
       <c r="I77" s="112"/>
@@ -44894,7 +44996,7 @@
       </c>
       <c r="F78" s="112"/>
       <c r="G78" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H78" s="132"/>
       <c r="I78" s="112"/>
@@ -44908,7 +45010,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="115" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
@@ -44928,19 +45030,19 @@
         <v>16161</v>
       </c>
       <c r="B81" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="C81" s="117" t="s">
         <v>677</v>
       </c>
-      <c r="C81" s="117" t="s">
+      <c r="D81" s="117" t="s">
         <v>678</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="E81" s="117" t="s">
         <v>679</v>
       </c>
-      <c r="E81" s="117" t="s">
+      <c r="F81" s="117" t="s">
         <v>680</v>
-      </c>
-      <c r="F81" s="117" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -44948,19 +45050,19 @@
         <v>16261</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C82" t="s">
+        <v>681</v>
+      </c>
+      <c r="D82" t="s">
+        <v>678</v>
+      </c>
+      <c r="E82" t="s">
         <v>682</v>
       </c>
-      <c r="D82" t="s">
-        <v>679</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>683</v>
-      </c>
-      <c r="F82" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -44968,19 +45070,19 @@
         <v>16461</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C83" t="s">
+        <v>684</v>
+      </c>
+      <c r="D83" t="s">
+        <v>678</v>
+      </c>
+      <c r="E83" t="s">
         <v>685</v>
       </c>
-      <c r="D83" t="s">
-        <v>679</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>686</v>
-      </c>
-      <c r="F83" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -44988,16 +45090,16 @@
         <v>16721</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C84" t="s">
+        <v>687</v>
+      </c>
+      <c r="D84" t="s">
+        <v>678</v>
+      </c>
+      <c r="E84" t="s">
         <v>688</v>
-      </c>
-      <c r="D84" t="s">
-        <v>679</v>
-      </c>
-      <c r="E84" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -45005,19 +45107,19 @@
         <v>16291</v>
       </c>
       <c r="B85" s="117" t="s">
+        <v>689</v>
+      </c>
+      <c r="C85" t="s">
         <v>690</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>678</v>
+      </c>
+      <c r="E85" t="s">
         <v>691</v>
       </c>
-      <c r="D85" t="s">
-        <v>679</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>692</v>
-      </c>
-      <c r="F85" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -45025,19 +45127,19 @@
         <v>16301</v>
       </c>
       <c r="B86" s="117" t="s">
+        <v>693</v>
+      </c>
+      <c r="C86" t="s">
         <v>694</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>678</v>
+      </c>
+      <c r="E86" t="s">
         <v>695</v>
       </c>
-      <c r="D86" t="s">
-        <v>679</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>696</v>
-      </c>
-      <c r="F86" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -45057,8 +45159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
+++ b/Quick Ship Router/bin/Debug/Kanban Blank Color Cross Reference.xlsx
@@ -2490,7 +2490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2542,6 +2542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,7 +2924,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3251,9 +3257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -3296,12 +3299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3334,6 +3331,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -17425,13 +17425,13 @@
     </row>
     <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="132" t="s">
         <v>520</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="H26" s="92" t="s">
         <v>465</v>
       </c>
@@ -39780,10 +39780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41300,13 +41300,13 @@
       <c r="F65" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="K65" s="95" t="s">
+      <c r="K65" s="143" t="s">
         <v>505</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="L65" t="s">
         <v>615</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" t="s">
         <v>527</v>
       </c>
     </row>
@@ -41327,13 +41327,13 @@
       <c r="F66" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="K66" s="95" t="s">
+      <c r="K66" s="143" t="s">
         <v>507</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="L66" t="s">
         <v>616</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41354,13 +41354,13 @@
       <c r="F67" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="K67" s="95" t="s">
+      <c r="K67" s="143" t="s">
         <v>507</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" t="s">
         <v>620</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41381,13 +41381,13 @@
       <c r="F68" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="K68" s="118" t="s">
+      <c r="K68" s="143" t="s">
         <v>508</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" t="s">
         <v>633</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41405,13 +41405,13 @@
       <c r="E69" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="K69" s="95" t="s">
+      <c r="K69" s="143" t="s">
         <v>508</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="L69" t="s">
         <v>634</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41429,13 +41429,13 @@
       <c r="E70" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="K70" s="95" t="s">
+      <c r="K70" s="143" t="s">
         <v>504</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" t="s">
         <v>614</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" t="s">
         <v>527</v>
       </c>
     </row>
@@ -41456,13 +41456,13 @@
       <c r="F71" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="K71" s="133" t="s">
+      <c r="K71" s="143" t="s">
         <v>513</v>
       </c>
-      <c r="L71" s="134" t="s">
+      <c r="L71" t="s">
         <v>621</v>
       </c>
-      <c r="M71" s="134" t="s">
+      <c r="M71" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41480,13 +41480,13 @@
       <c r="J72" t="s">
         <v>767</v>
       </c>
-      <c r="K72" s="95" t="s">
+      <c r="K72" s="143" t="s">
         <v>514</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L72" t="s">
         <v>622</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41507,13 +41507,13 @@
       <c r="F73" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="K73" s="95" t="s">
+      <c r="K73" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" t="s">
         <v>618</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41528,13 +41528,13 @@
       <c r="D74" s="110" t="s">
         <v>627</v>
       </c>
-      <c r="K74" s="95" t="s">
+      <c r="K74" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="L74" t="s">
         <v>622</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" t="s">
         <v>623</v>
       </c>
     </row>
@@ -41555,13 +41555,13 @@
       <c r="F75" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="K75" s="95" t="s">
+      <c r="K75" s="143" t="s">
         <v>503</v>
       </c>
-      <c r="L75" s="5" t="s">
+      <c r="L75" t="s">
         <v>617</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" t="s">
         <v>527</v>
       </c>
     </row>
@@ -41575,13 +41575,13 @@
       <c r="D76" s="70" t="s">
         <v>627</v>
       </c>
-      <c r="K76" s="95" t="s">
+      <c r="K76" s="143" t="s">
         <v>503</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="L76" t="s">
         <v>619</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" t="s">
         <v>527</v>
       </c>
     </row>
@@ -41601,20 +41601,27 @@
       <c r="F77" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="K77" s="110" t="s">
+      <c r="K77" s="143" t="s">
         <v>512</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L77" t="s">
         <v>765</v>
       </c>
+      <c r="M77"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K78" s="110" t="s">
+      <c r="K78" s="143" t="s">
         <v>512</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" t="s">
         <v>766</v>
       </c>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
     </row>
   </sheetData>
   <sortState ref="B2:G77">
@@ -41651,12 +41658,12 @@
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="33.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="126" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="126" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="126" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="126" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="126" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="126" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="125" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="125" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="125" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="125" customWidth="1"/>
     <col min="22" max="22" width="31.28515625" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
@@ -41668,40 +41675,40 @@
     <row r="1" spans="1:28" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="141" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="142" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="139" t="s">
         <v>670</v>
       </c>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="136" t="s">
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="133" t="s">
         <v>672</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="138"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="135"/>
       <c r="U1" s="70"/>
-      <c r="V1" s="139" t="s">
+      <c r="V1" s="136" t="s">
         <v>673</v>
       </c>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="141"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="138"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
@@ -41710,7 +41717,7 @@
       <c r="B2" s="114" t="s">
         <v>664</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="129" t="s">
         <v>665</v>
       </c>
       <c r="D2" s="114" t="s">
@@ -41725,7 +41732,7 @@
       <c r="G2" s="114" t="s">
         <v>668</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="130" t="s">
         <v>700</v>
       </c>
       <c r="I2" s="114" t="s">
@@ -41743,46 +41750,46 @@
       <c r="M2" s="114" t="s">
         <v>668</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="128" t="s">
         <v>700</v>
       </c>
-      <c r="O2" s="121" t="s">
+      <c r="O2" s="120" t="s">
         <v>518</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="122" t="s">
         <v>604</v>
       </c>
-      <c r="Q2" s="123" t="s">
+      <c r="Q2" s="122" t="s">
         <v>605</v>
       </c>
-      <c r="R2" s="123" t="s">
+      <c r="R2" s="122" t="s">
         <v>635</v>
       </c>
-      <c r="S2" s="123" t="s">
+      <c r="S2" s="122" t="s">
         <v>662</v>
       </c>
-      <c r="T2" s="123" t="s">
+      <c r="T2" s="122" t="s">
         <v>727</v>
       </c>
-      <c r="V2" s="122" t="s">
+      <c r="V2" s="121" t="s">
         <v>518</v>
       </c>
-      <c r="W2" s="127" t="s">
+      <c r="W2" s="126" t="s">
         <v>604</v>
       </c>
-      <c r="X2" s="127" t="s">
+      <c r="X2" s="126" t="s">
         <v>605</v>
       </c>
-      <c r="Y2" s="127" t="s">
+      <c r="Y2" s="126" t="s">
         <v>635</v>
       </c>
-      <c r="Z2" s="127" t="s">
+      <c r="Z2" s="126" t="s">
         <v>728</v>
       </c>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="126" t="s">
         <v>662</v>
       </c>
-      <c r="AB2" s="127" t="s">
+      <c r="AB2" s="126" t="s">
         <v>727</v>
       </c>
     </row>
@@ -41793,7 +41800,7 @@
       <c r="B3" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="127">
         <v>52.625</v>
       </c>
       <c r="D3" s="112">
@@ -41806,7 +41813,7 @@
       <c r="G3" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="112">
         <v>50.125</v>
       </c>
@@ -41820,41 +41827,41 @@
         <v>0</v>
       </c>
       <c r="M3" s="112"/>
-      <c r="O3" s="120" t="s">
+      <c r="O3" s="119" t="s">
         <v>701</v>
       </c>
-      <c r="P3" s="124">
+      <c r="P3" s="123">
         <v>40.25</v>
       </c>
-      <c r="Q3" s="124">
+      <c r="Q3" s="123">
         <v>27.75</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="123">
         <v>2.5</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="123" t="s">
         <v>652</v>
       </c>
-      <c r="T3" s="124"/>
-      <c r="V3" s="120" t="s">
+      <c r="T3" s="123"/>
+      <c r="V3" s="119" t="s">
         <v>705</v>
       </c>
-      <c r="W3" s="124">
+      <c r="W3" s="123">
         <v>50.125</v>
       </c>
-      <c r="X3" s="124">
+      <c r="X3" s="123">
         <v>26.125</v>
       </c>
-      <c r="Y3" s="124">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="124">
+      <c r="Y3" s="123">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="123">
         <v>5</v>
       </c>
-      <c r="AA3" s="124" t="s">
+      <c r="AA3" s="123" t="s">
         <v>655</v>
       </c>
-      <c r="AB3" s="124"/>
+      <c r="AB3" s="123"/>
     </row>
     <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
@@ -41863,7 +41870,7 @@
       <c r="B4" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <v>41.25</v>
       </c>
       <c r="D4">
@@ -41875,7 +41882,7 @@
       <c r="G4" t="s">
         <v>652</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="112">
         <v>38.75</v>
       </c>
@@ -41891,41 +41898,41 @@
       <c r="M4" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="118" t="s">
         <v>636</v>
       </c>
-      <c r="P4" s="125">
+      <c r="P4" s="124">
         <v>40.625</v>
       </c>
-      <c r="Q4" s="125">
+      <c r="Q4" s="124">
         <v>28.75</v>
       </c>
-      <c r="R4" s="125">
+      <c r="R4" s="124">
         <v>2.25</v>
       </c>
-      <c r="S4" s="125" t="s">
+      <c r="S4" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="V4" s="119" t="s">
+      <c r="T4" s="124"/>
+      <c r="V4" s="118" t="s">
         <v>706</v>
       </c>
-      <c r="W4" s="125">
+      <c r="W4" s="124">
         <v>50.25</v>
       </c>
-      <c r="X4" s="125">
+      <c r="X4" s="124">
         <v>32.375</v>
       </c>
-      <c r="Y4" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="125">
+      <c r="Y4" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="124">
         <v>6</v>
       </c>
-      <c r="AA4" s="125" t="s">
+      <c r="AA4" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB4" s="125"/>
+      <c r="AB4" s="124"/>
     </row>
     <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
@@ -41934,10 +41941,10 @@
       <c r="B5" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="124">
         <v>64.375</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="124">
         <v>24</v>
       </c>
       <c r="E5" s="112">
@@ -41947,7 +41954,7 @@
       <c r="G5" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="112">
         <v>62.375</v>
       </c>
@@ -41963,41 +41970,41 @@
       <c r="M5" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>637</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="124">
         <v>52.75</v>
       </c>
-      <c r="Q5" s="125">
+      <c r="Q5" s="124">
         <v>34.625</v>
       </c>
-      <c r="R5" s="125">
+      <c r="R5" s="124">
         <v>2.5</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="V5" s="119" t="s">
+      <c r="T5" s="124"/>
+      <c r="V5" s="118" t="s">
         <v>707</v>
       </c>
-      <c r="W5" s="125">
+      <c r="W5" s="124">
         <v>62.38</v>
       </c>
-      <c r="X5" s="125">
+      <c r="X5" s="124">
         <v>32.25</v>
       </c>
-      <c r="Y5" s="125">
+      <c r="Y5" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z5" s="125">
+      <c r="Z5" s="124">
         <v>7</v>
       </c>
-      <c r="AA5" s="125" t="s">
+      <c r="AA5" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB5" s="125" t="s">
+      <c r="AB5" s="124" t="s">
         <v>699</v>
       </c>
     </row>
@@ -42008,52 +42015,52 @@
       <c r="B6" t="s">
         <v>559</v>
       </c>
-      <c r="C6" s="128"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
       <c r="F6" s="112"/>
       <c r="G6" s="112"/>
-      <c r="H6" s="132"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
       <c r="M6" s="112"/>
-      <c r="O6" s="119" t="s">
+      <c r="O6" s="118" t="s">
         <v>638</v>
       </c>
-      <c r="P6" s="125">
+      <c r="P6" s="124">
         <v>52.75</v>
       </c>
-      <c r="Q6" s="125">
+      <c r="Q6" s="124">
         <v>28.75</v>
       </c>
-      <c r="R6" s="125">
+      <c r="R6" s="124">
         <v>2.5</v>
       </c>
-      <c r="S6" s="125" t="s">
+      <c r="S6" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T6" s="125"/>
-      <c r="V6" s="119" t="s">
+      <c r="T6" s="124"/>
+      <c r="V6" s="118" t="s">
         <v>708</v>
       </c>
-      <c r="W6" s="125">
+      <c r="W6" s="124">
         <v>74</v>
       </c>
-      <c r="X6" s="125">
+      <c r="X6" s="124">
         <v>32.25</v>
       </c>
-      <c r="Y6" s="125">
+      <c r="Y6" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z6" s="125">
+      <c r="Z6" s="124">
         <v>9</v>
       </c>
-      <c r="AA6" s="125" t="s">
+      <c r="AA6" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB6" s="125" t="s">
+      <c r="AB6" s="124" t="s">
         <v>699</v>
       </c>
     </row>
@@ -42064,7 +42071,7 @@
       <c r="B7" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="127">
         <v>40.625</v>
       </c>
       <c r="D7" s="112">
@@ -42077,7 +42084,7 @@
       <c r="G7" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H7" s="132"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="112">
         <v>50.125</v>
       </c>
@@ -42093,41 +42100,41 @@
       <c r="M7" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="O7" s="119" t="s">
+      <c r="O7" s="118" t="s">
         <v>639</v>
       </c>
-      <c r="P7" s="125">
+      <c r="P7" s="124">
         <v>64.875</v>
       </c>
-      <c r="Q7" s="125">
+      <c r="Q7" s="124">
         <v>40.625</v>
       </c>
-      <c r="R7" s="125">
+      <c r="R7" s="124">
         <v>2.5</v>
       </c>
-      <c r="S7" s="125" t="s">
+      <c r="S7" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="V7" s="119" t="s">
+      <c r="T7" s="124"/>
+      <c r="V7" s="118" t="s">
         <v>709</v>
       </c>
-      <c r="W7" s="125">
+      <c r="W7" s="124">
         <v>74</v>
       </c>
-      <c r="X7" s="125">
+      <c r="X7" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y7" s="125">
+      <c r="Y7" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z7" s="125">
+      <c r="Z7" s="124">
         <v>10</v>
       </c>
-      <c r="AA7" s="125" t="s">
+      <c r="AA7" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB7" s="125"/>
+      <c r="AB7" s="124"/>
     </row>
     <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
@@ -42136,7 +42143,7 @@
       <c r="B8" t="s">
         <v>564</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="127">
         <v>52.75</v>
       </c>
       <c r="D8" s="112">
@@ -42149,47 +42156,47 @@
       <c r="G8" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
-      <c r="O8" s="119" t="s">
+      <c r="O8" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="P8" s="125">
+      <c r="P8" s="124">
         <v>46.75</v>
       </c>
-      <c r="Q8" s="125">
+      <c r="Q8" s="124">
         <v>46.75</v>
       </c>
-      <c r="R8" s="125">
-        <v>2</v>
-      </c>
-      <c r="S8" s="125" t="s">
+      <c r="R8" s="124">
+        <v>2</v>
+      </c>
+      <c r="S8" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T8" s="125"/>
-      <c r="V8" s="119" t="s">
+      <c r="T8" s="124"/>
+      <c r="V8" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="W8" s="125">
+      <c r="W8" s="124">
         <v>49.5</v>
       </c>
-      <c r="X8" s="125">
+      <c r="X8" s="124">
         <v>49.5</v>
       </c>
-      <c r="Y8" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="125">
+      <c r="Y8" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="124">
         <v>4</v>
       </c>
-      <c r="AA8" s="125" t="s">
+      <c r="AA8" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB8" s="125"/>
+      <c r="AB8" s="124"/>
     </row>
     <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
@@ -42198,52 +42205,52 @@
       <c r="B9" t="s">
         <v>587</v>
       </c>
-      <c r="C9" s="128"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="112"/>
       <c r="E9" s="112"/>
       <c r="F9" s="112"/>
       <c r="G9" s="112"/>
-      <c r="H9" s="132"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="124">
         <v>40.625</v>
       </c>
-      <c r="Q9" s="125">
+      <c r="Q9" s="124">
         <v>40.625</v>
       </c>
-      <c r="R9" s="125">
-        <v>2</v>
-      </c>
-      <c r="S9" s="125" t="s">
+      <c r="R9" s="124">
+        <v>2</v>
+      </c>
+      <c r="S9" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T9" s="125"/>
-      <c r="V9" s="119" t="s">
+      <c r="T9" s="124"/>
+      <c r="V9" s="118" t="s">
         <v>710</v>
       </c>
-      <c r="W9" s="125">
+      <c r="W9" s="124">
         <v>62.125</v>
       </c>
-      <c r="X9" s="125">
+      <c r="X9" s="124">
         <v>29.75</v>
       </c>
-      <c r="Y9" s="125">
+      <c r="Y9" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z9" s="125">
+      <c r="Z9" s="124">
         <v>6</v>
       </c>
-      <c r="AA9" s="125" t="s">
+      <c r="AA9" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB9" s="125"/>
+      <c r="AB9" s="124"/>
     </row>
     <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
@@ -42252,7 +42259,7 @@
       <c r="B10" t="s">
         <v>565</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="127">
         <v>63.875</v>
       </c>
       <c r="D10" s="112">
@@ -42265,47 +42272,47 @@
       <c r="G10" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H10" s="132"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="112"/>
       <c r="J10" s="112"/>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
       <c r="M10" s="112"/>
-      <c r="O10" s="119" t="s">
+      <c r="O10" s="118" t="s">
         <v>702</v>
       </c>
-      <c r="P10" s="125">
+      <c r="P10" s="124">
         <v>52.625</v>
       </c>
-      <c r="Q10" s="125">
+      <c r="Q10" s="124">
         <v>26.875</v>
       </c>
-      <c r="R10" s="125">
+      <c r="R10" s="124">
         <v>2.5</v>
       </c>
-      <c r="S10" s="125" t="s">
+      <c r="S10" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T10" s="125"/>
-      <c r="V10" s="119" t="s">
+      <c r="T10" s="124"/>
+      <c r="V10" s="118" t="s">
         <v>711</v>
       </c>
-      <c r="W10" s="125">
+      <c r="W10" s="124">
         <v>74</v>
       </c>
-      <c r="X10" s="125">
+      <c r="X10" s="124">
         <v>50.125</v>
       </c>
-      <c r="Y10" s="125">
+      <c r="Y10" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z10" s="125">
+      <c r="Z10" s="124">
         <v>7</v>
       </c>
-      <c r="AA10" s="125" t="s">
+      <c r="AA10" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB10" s="125"/>
+      <c r="AB10" s="124"/>
     </row>
     <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
@@ -42314,52 +42321,52 @@
       <c r="B11" t="s">
         <v>562</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="112"/>
       <c r="E11" s="112"/>
       <c r="F11" s="112"/>
       <c r="G11" s="112"/>
-      <c r="H11" s="132"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="112"/>
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
       <c r="M11" s="112"/>
-      <c r="O11" s="119" t="s">
+      <c r="O11" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="P11" s="125">
+      <c r="P11" s="124">
         <v>63.875</v>
       </c>
-      <c r="Q11" s="125">
+      <c r="Q11" s="124">
         <v>28.625</v>
       </c>
-      <c r="R11" s="125">
+      <c r="R11" s="124">
         <v>2.5</v>
       </c>
-      <c r="S11" s="125" t="s">
+      <c r="S11" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T11" s="125"/>
-      <c r="V11" s="119" t="s">
+      <c r="T11" s="124"/>
+      <c r="V11" s="118" t="s">
         <v>713</v>
       </c>
-      <c r="W11" s="125">
+      <c r="W11" s="124">
         <v>43.75</v>
       </c>
-      <c r="X11" s="125">
+      <c r="X11" s="124">
         <v>43.75</v>
       </c>
-      <c r="Y11" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="125" t="s">
+      <c r="Y11" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB11" s="125"/>
+      <c r="AB11" s="124"/>
     </row>
     <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
@@ -42368,7 +42375,7 @@
       <c r="B12" t="s">
         <v>566</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="127">
         <v>50</v>
       </c>
       <c r="D12" s="112">
@@ -42381,7 +42388,7 @@
       <c r="G12" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I12" s="112"/>
@@ -42392,43 +42399,43 @@
       <c r="N12" t="s">
         <v>699</v>
       </c>
-      <c r="O12" s="119" t="s">
+      <c r="O12" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="P12" s="125">
+      <c r="P12" s="124">
         <v>64.88</v>
       </c>
-      <c r="Q12" s="125">
+      <c r="Q12" s="124">
         <v>34.75</v>
       </c>
-      <c r="R12" s="125">
+      <c r="R12" s="124">
         <v>2.5</v>
       </c>
-      <c r="S12" s="125" t="s">
+      <c r="S12" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="124" t="s">
         <v>699</v>
       </c>
-      <c r="V12" s="119" t="s">
+      <c r="V12" s="118" t="s">
         <v>714</v>
       </c>
-      <c r="W12" s="125">
+      <c r="W12" s="124">
         <v>50</v>
       </c>
-      <c r="X12" s="125">
+      <c r="X12" s="124">
         <v>24.75</v>
       </c>
-      <c r="Y12" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="125">
+      <c r="Y12" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="124">
         <v>6</v>
       </c>
-      <c r="AA12" s="125" t="s">
+      <c r="AA12" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB12" s="125"/>
+      <c r="AB12" s="124"/>
     </row>
     <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
@@ -42437,7 +42444,7 @@
       <c r="B13" t="s">
         <v>567</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="127">
         <v>52.75</v>
       </c>
       <c r="D13" s="112">
@@ -42450,47 +42457,47 @@
       <c r="G13" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H13" s="132"/>
+      <c r="H13" s="131"/>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
       <c r="K13" s="112"/>
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
-      <c r="O13" s="119" t="s">
+      <c r="O13" s="118" t="s">
         <v>671</v>
       </c>
-      <c r="P13" s="125">
+      <c r="P13" s="124">
         <v>52.75</v>
       </c>
-      <c r="Q13" s="125">
+      <c r="Q13" s="124">
         <v>28.625</v>
       </c>
-      <c r="R13" s="125">
+      <c r="R13" s="124">
         <v>2.5</v>
       </c>
-      <c r="S13" s="125" t="s">
+      <c r="S13" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T13" s="125"/>
-      <c r="V13" s="119" t="s">
+      <c r="T13" s="124"/>
+      <c r="V13" s="118" t="s">
         <v>715</v>
       </c>
-      <c r="W13" s="125">
-        <v>0</v>
-      </c>
-      <c r="X13" s="125">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="125">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="125" t="s">
+      <c r="W13" s="124">
+        <v>0</v>
+      </c>
+      <c r="X13" s="124">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="124">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB13" s="125"/>
+      <c r="AB13" s="124"/>
     </row>
     <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
@@ -42499,7 +42506,7 @@
       <c r="B14" t="s">
         <v>568</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="127">
         <v>64.88</v>
       </c>
       <c r="D14" s="112">
@@ -42512,7 +42519,7 @@
       <c r="G14" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H14" s="132" t="s">
+      <c r="H14" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I14" s="112"/>
@@ -42523,41 +42530,41 @@
       <c r="N14" t="s">
         <v>699</v>
       </c>
-      <c r="O14" s="119" t="s">
+      <c r="O14" s="118" t="s">
         <v>644</v>
       </c>
-      <c r="P14" s="125">
+      <c r="P14" s="124">
         <v>52.75</v>
       </c>
-      <c r="Q14" s="125">
+      <c r="Q14" s="124">
         <v>40.625</v>
       </c>
-      <c r="R14" s="125">
-        <v>2</v>
-      </c>
-      <c r="S14" s="125" t="s">
+      <c r="R14" s="124">
+        <v>2</v>
+      </c>
+      <c r="S14" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T14" s="125"/>
-      <c r="V14" s="119" t="s">
+      <c r="T14" s="124"/>
+      <c r="V14" s="118" t="s">
         <v>716</v>
       </c>
-      <c r="W14" s="125">
+      <c r="W14" s="124">
         <v>62.375</v>
       </c>
-      <c r="X14" s="125">
+      <c r="X14" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y14" s="125">
+      <c r="Y14" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z14" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="125" t="s">
+      <c r="Z14" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB14" s="125"/>
+      <c r="AB14" s="124"/>
     </row>
     <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
@@ -42566,7 +42573,7 @@
       <c r="B15" t="s">
         <v>569</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="127">
         <v>50</v>
       </c>
       <c r="D15" s="112">
@@ -42579,7 +42586,7 @@
       <c r="G15" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I15" s="112"/>
@@ -42590,43 +42597,43 @@
       <c r="N15" t="s">
         <v>699</v>
       </c>
-      <c r="O15" s="119" t="s">
+      <c r="O15" s="118" t="s">
         <v>735</v>
       </c>
-      <c r="P15" s="125">
+      <c r="P15" s="124">
         <v>50</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="124">
         <v>28.625</v>
       </c>
-      <c r="R15" s="125">
+      <c r="R15" s="124">
         <v>2.5</v>
       </c>
-      <c r="S15" s="125" t="s">
+      <c r="S15" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T15" s="125" t="s">
+      <c r="T15" s="124" t="s">
         <v>699</v>
       </c>
-      <c r="V15" s="119" t="s">
+      <c r="V15" s="118" t="s">
         <v>717</v>
       </c>
-      <c r="W15" s="125">
+      <c r="W15" s="124">
         <v>38.125</v>
       </c>
-      <c r="X15" s="125">
+      <c r="X15" s="124">
         <v>26.25</v>
       </c>
-      <c r="Y15" s="125">
+      <c r="Y15" s="124">
         <v>2.25</v>
       </c>
-      <c r="Z15" s="125">
+      <c r="Z15" s="124">
         <v>4</v>
       </c>
-      <c r="AA15" s="125" t="s">
+      <c r="AA15" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB15" s="125"/>
+      <c r="AB15" s="124"/>
     </row>
     <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
@@ -42635,7 +42642,7 @@
       <c r="B16" t="s">
         <v>572</v>
       </c>
-      <c r="C16" s="128">
+      <c r="C16" s="127">
         <v>34.75</v>
       </c>
       <c r="D16" s="112">
@@ -42648,7 +42655,7 @@
       <c r="G16" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H16" s="132"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="112">
         <v>32.25</v>
       </c>
@@ -42664,43 +42671,43 @@
       <c r="M16" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="118" t="s">
         <v>734</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="124">
         <v>50</v>
       </c>
-      <c r="Q16" s="125">
+      <c r="Q16" s="124">
         <v>34.75</v>
       </c>
-      <c r="R16" s="125">
+      <c r="R16" s="124">
         <v>2.5</v>
       </c>
-      <c r="S16" s="125" t="s">
+      <c r="S16" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T16" s="125" t="s">
+      <c r="T16" s="124" t="s">
         <v>699</v>
       </c>
-      <c r="V16" s="119" t="s">
+      <c r="V16" s="118" t="s">
         <v>718</v>
       </c>
-      <c r="W16" s="125">
+      <c r="W16" s="124">
         <v>62.375</v>
       </c>
-      <c r="X16" s="125">
+      <c r="X16" s="124">
         <v>26.125</v>
       </c>
-      <c r="Y16" s="125">
+      <c r="Y16" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z16" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="125" t="s">
+      <c r="Z16" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB16" s="125"/>
+      <c r="AB16" s="124"/>
     </row>
     <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="101" t="s">
@@ -42709,7 +42716,7 @@
       <c r="B17" t="s">
         <v>573</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="127">
         <v>40.625</v>
       </c>
       <c r="D17" s="112">
@@ -42722,47 +42729,47 @@
       <c r="G17" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H17" s="132"/>
+      <c r="H17" s="131"/>
       <c r="I17" s="112"/>
       <c r="J17" s="112"/>
       <c r="K17" s="112"/>
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
-      <c r="O17" s="119" t="s">
+      <c r="O17" s="118" t="s">
         <v>703</v>
       </c>
-      <c r="P17" s="125">
+      <c r="P17" s="124">
         <v>52</v>
       </c>
-      <c r="Q17" s="125">
+      <c r="Q17" s="124">
         <v>52</v>
       </c>
-      <c r="R17" s="125">
-        <v>2</v>
-      </c>
-      <c r="S17" s="125" t="s">
+      <c r="R17" s="124">
+        <v>2</v>
+      </c>
+      <c r="S17" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T17" s="125"/>
-      <c r="V17" s="119" t="s">
+      <c r="T17" s="124"/>
+      <c r="V17" s="118" t="s">
         <v>719</v>
       </c>
-      <c r="W17" s="125">
+      <c r="W17" s="124">
         <v>38</v>
       </c>
-      <c r="X17" s="125">
+      <c r="X17" s="124">
         <v>38</v>
       </c>
-      <c r="Y17" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="125">
+      <c r="Y17" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="124">
         <v>4</v>
       </c>
-      <c r="AA17" s="125" t="s">
+      <c r="AA17" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB17" s="125"/>
+      <c r="AB17" s="124"/>
     </row>
     <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="101" t="s">
@@ -42771,7 +42778,7 @@
       <c r="B18" t="s">
         <v>570</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="127">
         <v>64.875</v>
       </c>
       <c r="D18" s="112">
@@ -42784,47 +42791,47 @@
       <c r="G18" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H18" s="132"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="112"/>
       <c r="J18" s="112"/>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
-      <c r="O18" s="119" t="s">
+      <c r="O18" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="P18" s="125">
+      <c r="P18" s="124">
         <v>46.75</v>
       </c>
-      <c r="Q18" s="125">
+      <c r="Q18" s="124">
         <v>46.75</v>
       </c>
-      <c r="R18" s="125">
-        <v>2</v>
-      </c>
-      <c r="S18" s="125" t="s">
+      <c r="R18" s="124">
+        <v>2</v>
+      </c>
+      <c r="S18" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T18" s="125"/>
-      <c r="V18" s="119" t="s">
+      <c r="T18" s="124"/>
+      <c r="V18" s="118" t="s">
         <v>720</v>
       </c>
-      <c r="W18" s="125">
+      <c r="W18" s="124">
         <v>62.375</v>
       </c>
-      <c r="X18" s="125">
+      <c r="X18" s="124">
         <v>45.375</v>
       </c>
-      <c r="Y18" s="125">
+      <c r="Y18" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z18" s="125">
+      <c r="Z18" s="124">
         <v>8</v>
       </c>
-      <c r="AA18" s="125" t="s">
+      <c r="AA18" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB18" s="125"/>
+      <c r="AB18" s="124"/>
     </row>
     <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="s">
@@ -42833,7 +42840,7 @@
       <c r="B19" t="s">
         <v>571</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="127">
         <v>50</v>
       </c>
       <c r="D19" s="112">
@@ -42846,7 +42853,7 @@
       <c r="G19" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H19" s="132" t="s">
+      <c r="H19" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I19" s="112"/>
@@ -42857,41 +42864,41 @@
       <c r="N19" t="s">
         <v>699</v>
       </c>
-      <c r="O19" s="119" t="s">
+      <c r="O19" s="118" t="s">
         <v>645</v>
       </c>
-      <c r="P19" s="125">
+      <c r="P19" s="124">
         <v>52.625</v>
       </c>
-      <c r="Q19" s="125">
+      <c r="Q19" s="124">
         <v>52.625</v>
       </c>
-      <c r="R19" s="125">
-        <v>2</v>
-      </c>
-      <c r="S19" s="125" t="s">
+      <c r="R19" s="124">
+        <v>2</v>
+      </c>
+      <c r="S19" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T19" s="125"/>
-      <c r="V19" s="119" t="s">
+      <c r="T19" s="124"/>
+      <c r="V19" s="118" t="s">
         <v>721</v>
       </c>
-      <c r="W19" s="125">
+      <c r="W19" s="124">
         <v>62.375</v>
       </c>
-      <c r="X19" s="125">
+      <c r="X19" s="124">
         <v>22</v>
       </c>
-      <c r="Y19" s="125">
+      <c r="Y19" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z19" s="125">
+      <c r="Z19" s="124">
         <v>6</v>
       </c>
-      <c r="AA19" s="125" t="s">
+      <c r="AA19" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB19" s="125"/>
+      <c r="AB19" s="124"/>
     </row>
     <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
@@ -42900,52 +42907,52 @@
       <c r="B20" t="s">
         <v>591</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="112"/>
       <c r="E20" s="112"/>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
-      <c r="H20" s="132"/>
+      <c r="H20" s="131"/>
       <c r="I20" s="112"/>
       <c r="J20" s="112"/>
       <c r="K20" s="112"/>
       <c r="L20" s="112"/>
       <c r="M20" s="112"/>
-      <c r="O20" s="119" t="s">
+      <c r="O20" s="118" t="s">
         <v>646</v>
       </c>
-      <c r="P20" s="125">
+      <c r="P20" s="124">
         <v>64.375</v>
       </c>
-      <c r="Q20" s="125">
+      <c r="Q20" s="124">
         <v>24</v>
       </c>
-      <c r="R20" s="125">
+      <c r="R20" s="124">
         <v>2.5</v>
       </c>
-      <c r="S20" s="125" t="s">
+      <c r="S20" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T20" s="125"/>
-      <c r="V20" s="119" t="s">
+      <c r="T20" s="124"/>
+      <c r="V20" s="118" t="s">
         <v>722</v>
       </c>
-      <c r="W20" s="125">
+      <c r="W20" s="124">
         <v>38.75</v>
       </c>
-      <c r="X20" s="125">
+      <c r="X20" s="124">
         <v>22</v>
       </c>
-      <c r="Y20" s="125">
+      <c r="Y20" s="124">
         <v>2.25</v>
       </c>
-      <c r="Z20" s="125">
+      <c r="Z20" s="124">
         <v>5</v>
       </c>
-      <c r="AA20" s="125" t="s">
+      <c r="AA20" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB20" s="125"/>
+      <c r="AB20" s="124"/>
     </row>
     <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
@@ -42954,52 +42961,52 @@
       <c r="B21" t="s">
         <v>586</v>
       </c>
-      <c r="C21" s="128"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="112"/>
       <c r="E21" s="112"/>
       <c r="F21" s="112"/>
       <c r="G21" s="112"/>
-      <c r="H21" s="132"/>
+      <c r="H21" s="131"/>
       <c r="I21" s="112"/>
       <c r="J21" s="112"/>
       <c r="K21" s="112"/>
       <c r="L21" s="112"/>
       <c r="M21" s="112"/>
-      <c r="O21" s="119" t="s">
+      <c r="O21" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="P21" s="125">
+      <c r="P21" s="124">
         <v>40.5</v>
       </c>
-      <c r="Q21" s="125">
+      <c r="Q21" s="124">
         <v>40.5</v>
       </c>
-      <c r="R21" s="125">
+      <c r="R21" s="124">
         <v>2.25</v>
       </c>
-      <c r="S21" s="125" t="s">
+      <c r="S21" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T21" s="125"/>
-      <c r="V21" s="119" t="s">
+      <c r="T21" s="124"/>
+      <c r="V21" s="118" t="s">
         <v>723</v>
       </c>
-      <c r="W21" s="125">
+      <c r="W21" s="124">
         <v>39.25</v>
       </c>
-      <c r="X21" s="125">
+      <c r="X21" s="124">
         <v>25.75</v>
       </c>
-      <c r="Y21" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="125">
+      <c r="Y21" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="124">
         <v>5</v>
       </c>
-      <c r="AA21" s="125" t="s">
+      <c r="AA21" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB21" s="125"/>
+      <c r="AB21" s="124"/>
     </row>
     <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="101" t="s">
@@ -43008,12 +43015,12 @@
       <c r="B22" t="s">
         <v>583</v>
       </c>
-      <c r="C22" s="128"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="112"/>
       <c r="E22" s="112"/>
       <c r="F22" s="112"/>
       <c r="G22" s="112"/>
-      <c r="H22" s="132"/>
+      <c r="H22" s="131"/>
       <c r="I22" s="112">
         <v>62.25</v>
       </c>
@@ -43029,41 +43036,41 @@
       <c r="M22" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="O22" s="119" t="s">
+      <c r="O22" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="P22" s="125">
+      <c r="P22" s="124">
         <v>32.5</v>
       </c>
-      <c r="Q22" s="125">
+      <c r="Q22" s="124">
         <v>28.375</v>
       </c>
-      <c r="R22" s="125">
+      <c r="R22" s="124">
         <v>2.25</v>
       </c>
-      <c r="S22" s="125" t="s">
+      <c r="S22" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T22" s="125"/>
-      <c r="V22" s="119" t="s">
+      <c r="T22" s="124"/>
+      <c r="V22" s="118" t="s">
         <v>724</v>
       </c>
-      <c r="W22" s="125">
+      <c r="W22" s="124">
         <v>42.25</v>
       </c>
-      <c r="X22" s="125">
+      <c r="X22" s="124">
         <v>26.25</v>
       </c>
-      <c r="Y22" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="125">
+      <c r="Y22" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="124">
         <v>6</v>
       </c>
-      <c r="AA22" s="125" t="s">
+      <c r="AA22" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB22" s="125"/>
+      <c r="AB22" s="124"/>
     </row>
     <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="101" t="s">
@@ -43072,52 +43079,52 @@
       <c r="B23" t="s">
         <v>584</v>
       </c>
-      <c r="C23" s="128"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="112"/>
       <c r="E23" s="112"/>
       <c r="F23" s="112"/>
       <c r="G23" s="112"/>
-      <c r="H23" s="132"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="112"/>
       <c r="J23" s="112"/>
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
-      <c r="O23" s="119" t="s">
+      <c r="O23" s="118" t="s">
         <v>648</v>
       </c>
-      <c r="P23" s="125">
+      <c r="P23" s="124">
         <v>44.75</v>
       </c>
-      <c r="Q23" s="125">
+      <c r="Q23" s="124">
         <v>29.75</v>
       </c>
-      <c r="R23" s="125">
+      <c r="R23" s="124">
         <v>2.25</v>
       </c>
-      <c r="S23" s="125" t="s">
+      <c r="S23" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T23" s="125"/>
-      <c r="V23" s="119" t="s">
+      <c r="T23" s="124"/>
+      <c r="V23" s="118" t="s">
         <v>725</v>
       </c>
-      <c r="W23" s="125">
+      <c r="W23" s="124">
         <v>30</v>
       </c>
-      <c r="X23" s="125">
+      <c r="X23" s="124">
         <v>25.875</v>
       </c>
-      <c r="Y23" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="125">
+      <c r="Y23" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="124">
         <v>5</v>
       </c>
-      <c r="AA23" s="125" t="s">
+      <c r="AA23" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB23" s="125"/>
+      <c r="AB23" s="124"/>
     </row>
     <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="101" t="s">
@@ -43126,7 +43133,7 @@
       <c r="B24" t="s">
         <v>574</v>
       </c>
-      <c r="C24" s="128">
+      <c r="C24" s="127">
         <v>52</v>
       </c>
       <c r="D24" s="112">
@@ -43139,47 +43146,47 @@
       <c r="G24" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H24" s="132"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="112"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
       <c r="M24" s="112"/>
-      <c r="O24" s="119" t="s">
+      <c r="O24" s="118" t="s">
         <v>733</v>
       </c>
-      <c r="P24" s="125">
+      <c r="P24" s="124">
         <v>50</v>
       </c>
-      <c r="Q24" s="125">
+      <c r="Q24" s="124">
         <v>40.625</v>
       </c>
-      <c r="R24" s="125">
+      <c r="R24" s="124">
         <v>2.5</v>
       </c>
-      <c r="S24" s="125" t="s">
+      <c r="S24" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T24" s="125" t="s">
+      <c r="T24" s="124" t="s">
         <v>699</v>
       </c>
-      <c r="V24" s="119" t="s">
+      <c r="V24" s="118" t="s">
         <v>657</v>
       </c>
-      <c r="W24" s="125">
+      <c r="W24" s="124">
         <v>38.125</v>
       </c>
-      <c r="X24" s="125">
+      <c r="X24" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y24" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
+      <c r="Y24" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
     </row>
     <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
@@ -43188,50 +43195,50 @@
       <c r="B25" t="s">
         <v>580</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
       <c r="F25" s="112"/>
       <c r="G25" s="112"/>
-      <c r="H25" s="132"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="112"/>
       <c r="J25" s="112"/>
       <c r="K25" s="112"/>
       <c r="L25" s="112"/>
       <c r="M25" s="112"/>
-      <c r="O25" s="119" t="s">
+      <c r="O25" s="118" t="s">
         <v>649</v>
       </c>
-      <c r="P25" s="125">
+      <c r="P25" s="124">
         <v>64.875</v>
       </c>
-      <c r="Q25" s="125">
+      <c r="Q25" s="124">
         <v>46.75</v>
       </c>
-      <c r="R25" s="125">
+      <c r="R25" s="124">
         <v>2.5</v>
       </c>
-      <c r="S25" s="125" t="s">
+      <c r="S25" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T25" s="125"/>
-      <c r="V25" s="119" t="s">
+      <c r="T25" s="124"/>
+      <c r="V25" s="118" t="s">
         <v>658</v>
       </c>
-      <c r="W25" s="125">
+      <c r="W25" s="124">
         <v>50.125</v>
       </c>
-      <c r="X25" s="125">
+      <c r="X25" s="124">
         <v>50.125</v>
       </c>
-      <c r="Y25" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
+      <c r="Y25" s="124">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
     </row>
     <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="101" t="s">
@@ -43240,50 +43247,50 @@
       <c r="B26" t="s">
         <v>588</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="112"/>
       <c r="E26" s="112"/>
       <c r="F26" s="112"/>
       <c r="G26" s="112"/>
-      <c r="H26" s="132"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="112"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
       <c r="M26" s="112"/>
-      <c r="O26" s="119" t="s">
+      <c r="O26" s="118" t="s">
         <v>650</v>
       </c>
-      <c r="P26" s="125">
+      <c r="P26" s="124">
         <v>34.75</v>
       </c>
-      <c r="Q26" s="125">
+      <c r="Q26" s="124">
         <v>34.75</v>
       </c>
-      <c r="R26" s="125">
+      <c r="R26" s="124">
         <v>2.25</v>
       </c>
-      <c r="S26" s="125" t="s">
+      <c r="S26" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T26" s="125"/>
-      <c r="V26" s="119" t="s">
+      <c r="T26" s="124"/>
+      <c r="V26" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="W26" s="125">
+      <c r="W26" s="124">
         <v>45.375</v>
       </c>
-      <c r="X26" s="125">
+      <c r="X26" s="124">
         <v>45.375</v>
       </c>
-      <c r="Y26" s="125">
+      <c r="Y26" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z26" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="125"/>
+      <c r="Z26" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
     </row>
     <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
@@ -43292,7 +43299,7 @@
       <c r="B27" t="s">
         <v>579</v>
       </c>
-      <c r="C27" s="128">
+      <c r="C27" s="127">
         <v>44.75</v>
       </c>
       <c r="D27" s="112">
@@ -43305,7 +43312,7 @@
       <c r="G27" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H27" s="132"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="112">
         <v>42.25</v>
       </c>
@@ -43321,41 +43328,41 @@
       <c r="M27" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="O27" s="119" t="s">
+      <c r="O27" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="P27" s="125">
+      <c r="P27" s="124">
         <v>63.25</v>
       </c>
-      <c r="Q27" s="125">
+      <c r="Q27" s="124">
         <v>31.75</v>
       </c>
-      <c r="R27" s="125">
+      <c r="R27" s="124">
         <v>2.5</v>
       </c>
-      <c r="S27" s="125" t="s">
+      <c r="S27" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="T27" s="125"/>
-      <c r="V27" s="119" t="s">
+      <c r="T27" s="124"/>
+      <c r="V27" s="118" t="s">
         <v>726</v>
       </c>
-      <c r="W27" s="125">
+      <c r="W27" s="124">
         <v>62.75</v>
       </c>
-      <c r="X27" s="125">
+      <c r="X27" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y27" s="125">
+      <c r="Y27" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z27" s="125">
+      <c r="Z27" s="124">
         <v>10</v>
       </c>
-      <c r="AA27" s="125" t="s">
+      <c r="AA27" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB27" s="125" t="s">
+      <c r="AB27" s="124" t="s">
         <v>699</v>
       </c>
     </row>
@@ -43366,52 +43373,52 @@
       <c r="B28" t="s">
         <v>576</v>
       </c>
-      <c r="C28" s="128"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="112"/>
       <c r="E28" s="112"/>
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
-      <c r="H28" s="132"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="112"/>
       <c r="J28" s="112"/>
       <c r="K28" s="112"/>
       <c r="L28" s="112"/>
       <c r="M28" s="112"/>
-      <c r="O28" s="119" t="s">
+      <c r="O28" s="118" t="s">
         <v>704</v>
       </c>
-      <c r="P28" s="125">
+      <c r="P28" s="124">
         <v>41.25</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="124">
         <v>24.5</v>
       </c>
-      <c r="R28" s="125">
+      <c r="R28" s="124">
         <v>2.5</v>
       </c>
-      <c r="S28" s="125" t="s">
+      <c r="S28" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="T28" s="125"/>
-      <c r="V28" s="119" t="s">
+      <c r="T28" s="124"/>
+      <c r="V28" s="118" t="s">
         <v>729</v>
       </c>
-      <c r="W28" s="125">
+      <c r="W28" s="124">
         <v>74.5</v>
       </c>
-      <c r="X28" s="125">
+      <c r="X28" s="124">
         <v>50.125</v>
       </c>
-      <c r="Y28" s="125">
+      <c r="Y28" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z28" s="125">
+      <c r="Z28" s="124">
         <v>10</v>
       </c>
-      <c r="AA28" s="125" t="s">
+      <c r="AA28" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB28" s="125"/>
+      <c r="AB28" s="124"/>
     </row>
     <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
@@ -43420,36 +43427,36 @@
       <c r="B29" t="s">
         <v>585</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="112"/>
       <c r="E29" s="112"/>
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
-      <c r="H29" s="132"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="112"/>
       <c r="J29" s="112"/>
       <c r="K29" s="112"/>
       <c r="L29" s="112"/>
       <c r="M29" s="112"/>
-      <c r="V29" s="119" t="s">
+      <c r="V29" s="118" t="s">
         <v>730</v>
       </c>
-      <c r="W29" s="125">
+      <c r="W29" s="124">
         <v>60.125</v>
       </c>
-      <c r="X29" s="125">
+      <c r="X29" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y29" s="125">
+      <c r="Y29" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z29" s="125">
+      <c r="Z29" s="124">
         <v>6</v>
       </c>
-      <c r="AA29" s="125" t="s">
+      <c r="AA29" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB29" s="125" t="s">
+      <c r="AB29" s="124" t="s">
         <v>699</v>
       </c>
     </row>
@@ -43460,7 +43467,7 @@
       <c r="B30" t="s">
         <v>577</v>
       </c>
-      <c r="C30" s="128">
+      <c r="C30" s="127">
         <v>40.25</v>
       </c>
       <c r="D30" s="112">
@@ -43473,7 +43480,7 @@
       <c r="G30" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H30" s="132"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="112">
         <v>39.25</v>
       </c>
@@ -43489,25 +43496,25 @@
       <c r="M30" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="V30" s="119" t="s">
+      <c r="V30" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="W30" s="125">
+      <c r="W30" s="124">
         <v>32.25</v>
       </c>
-      <c r="X30" s="125">
+      <c r="X30" s="124">
         <v>32.25</v>
       </c>
-      <c r="Y30" s="125">
+      <c r="Y30" s="124">
         <v>2.25</v>
       </c>
-      <c r="Z30" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="125" t="s">
+      <c r="Z30" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="124" t="s">
         <v>652</v>
       </c>
-      <c r="AB30" s="125"/>
+      <c r="AB30" s="124"/>
     </row>
     <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="101" t="s">
@@ -43516,7 +43523,7 @@
       <c r="B31" t="s">
         <v>578</v>
       </c>
-      <c r="C31" s="128">
+      <c r="C31" s="127">
         <v>64.88</v>
       </c>
       <c r="D31" s="112">
@@ -43529,31 +43536,31 @@
       <c r="G31" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H31" s="132"/>
+      <c r="H31" s="131"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
       <c r="L31" s="112"/>
       <c r="M31" s="112"/>
-      <c r="V31" s="119" t="s">
+      <c r="V31" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="W31" s="125">
+      <c r="W31" s="124">
         <v>61.375</v>
       </c>
-      <c r="X31" s="125">
+      <c r="X31" s="124">
         <v>38.125</v>
       </c>
-      <c r="Y31" s="125">
+      <c r="Y31" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z31" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="125" t="s">
+      <c r="Z31" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB31" s="125" t="s">
+      <c r="AB31" s="124" t="s">
         <v>699</v>
       </c>
     </row>
@@ -43564,34 +43571,34 @@
       <c r="B32" t="s">
         <v>589</v>
       </c>
-      <c r="C32" s="128"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="112"/>
       <c r="E32" s="112"/>
       <c r="F32" s="112"/>
       <c r="G32" s="112"/>
-      <c r="H32" s="132"/>
+      <c r="H32" s="131"/>
       <c r="I32" s="112"/>
       <c r="J32" s="112"/>
       <c r="K32" s="112"/>
       <c r="L32" s="112"/>
       <c r="M32" s="112"/>
-      <c r="V32" s="119" t="s">
+      <c r="V32" s="118" t="s">
         <v>731</v>
       </c>
-      <c r="W32" s="125">
+      <c r="W32" s="124">
         <v>56.375</v>
       </c>
-      <c r="X32" s="125">
+      <c r="X32" s="124">
         <v>22</v>
       </c>
-      <c r="Y32" s="125">
+      <c r="Y32" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z32" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="125"/>
+      <c r="Z32" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
     </row>
     <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="101" t="s">
@@ -43600,36 +43607,36 @@
       <c r="B33" t="s">
         <v>582</v>
       </c>
-      <c r="C33" s="128"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="112"/>
       <c r="E33" s="112"/>
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
-      <c r="H33" s="132"/>
+      <c r="H33" s="131"/>
       <c r="I33" s="112"/>
       <c r="J33" s="112"/>
       <c r="K33" s="112"/>
       <c r="L33" s="112"/>
       <c r="M33" s="112"/>
-      <c r="V33" s="119" t="s">
+      <c r="V33" s="118" t="s">
         <v>732</v>
       </c>
-      <c r="W33" s="125">
+      <c r="W33" s="124">
         <v>74</v>
       </c>
-      <c r="X33" s="125">
+      <c r="X33" s="124">
         <v>26.125</v>
       </c>
-      <c r="Y33" s="125">
+      <c r="Y33" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z33" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="125" t="s">
+      <c r="Z33" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB33" s="125"/>
+      <c r="AB33" s="124"/>
     </row>
     <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="101" t="s">
@@ -43638,36 +43645,36 @@
       <c r="B34" t="s">
         <v>590</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="112"/>
       <c r="E34" s="112"/>
       <c r="F34" s="112"/>
       <c r="G34" s="112"/>
-      <c r="H34" s="132"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
       <c r="L34" s="112"/>
       <c r="M34" s="112"/>
-      <c r="V34" s="119" t="s">
+      <c r="V34" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="W34" s="125">
+      <c r="W34" s="124">
         <v>62.25</v>
       </c>
-      <c r="X34" s="125">
+      <c r="X34" s="124">
         <v>30</v>
       </c>
-      <c r="Y34" s="125">
+      <c r="Y34" s="124">
         <v>2.5</v>
       </c>
-      <c r="Z34" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="125" t="s">
+      <c r="Z34" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB34" s="125"/>
+      <c r="AB34" s="124"/>
     </row>
     <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="101" t="s">
@@ -43676,7 +43683,7 @@
       <c r="B35" t="s">
         <v>581</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="127">
         <v>32.5</v>
       </c>
       <c r="D35" s="112">
@@ -43689,7 +43696,7 @@
       <c r="G35" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H35" s="132"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="112">
         <v>30</v>
       </c>
@@ -43705,25 +43712,25 @@
       <c r="M35" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="V35" s="119" t="s">
+      <c r="V35" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="W35" s="125">
+      <c r="W35" s="124">
         <v>33.125</v>
       </c>
-      <c r="X35" s="125">
+      <c r="X35" s="124">
         <v>40.125</v>
       </c>
-      <c r="Y35" s="125">
+      <c r="Y35" s="124">
         <v>2.25</v>
       </c>
-      <c r="Z35" s="125">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="125" t="s">
+      <c r="Z35" s="124">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="124" t="s">
         <v>656</v>
       </c>
-      <c r="AB35" s="125"/>
+      <c r="AB35" s="124"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
@@ -43732,7 +43739,7 @@
       <c r="B36" t="s">
         <v>593</v>
       </c>
-      <c r="C36" s="128">
+      <c r="C36" s="127">
         <v>41.25</v>
       </c>
       <c r="D36">
@@ -43744,7 +43751,7 @@
       <c r="G36" t="s">
         <v>652</v>
       </c>
-      <c r="H36" s="132"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -43758,10 +43765,10 @@
       <c r="B37" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="124">
         <v>64.375</v>
       </c>
-      <c r="D37" s="125">
+      <c r="D37" s="124">
         <v>24</v>
       </c>
       <c r="E37" s="112">
@@ -43771,7 +43778,7 @@
       <c r="G37" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H37" s="132"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="112"/>
       <c r="J37" s="112"/>
       <c r="K37" s="112"/>
@@ -43785,12 +43792,12 @@
       <c r="B38" t="s">
         <v>592</v>
       </c>
-      <c r="C38" s="128"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
       <c r="F38" s="112"/>
       <c r="G38" s="112"/>
-      <c r="H38" s="132"/>
+      <c r="H38" s="131"/>
       <c r="I38" s="112"/>
       <c r="J38" s="112"/>
       <c r="K38" s="112"/>
@@ -43804,7 +43811,7 @@
       <c r="B39" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="128">
+      <c r="C39" s="127">
         <v>40.625</v>
       </c>
       <c r="D39" s="112">
@@ -43817,7 +43824,7 @@
       <c r="G39" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H39" s="132"/>
+      <c r="H39" s="131"/>
       <c r="I39" s="112"/>
       <c r="J39" s="112"/>
       <c r="K39" s="112"/>
@@ -43831,7 +43838,7 @@
       <c r="B40" t="s">
         <v>597</v>
       </c>
-      <c r="C40" s="128">
+      <c r="C40" s="127">
         <v>63.875</v>
       </c>
       <c r="D40" s="117">
@@ -43844,7 +43851,7 @@
       <c r="G40" s="117" t="s">
         <v>656</v>
       </c>
-      <c r="H40" s="132"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="112"/>
       <c r="J40" s="112"/>
       <c r="K40" s="112"/>
@@ -43858,12 +43865,12 @@
       <c r="B41" t="s">
         <v>595</v>
       </c>
-      <c r="C41" s="128"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="112"/>
       <c r="E41" s="112"/>
       <c r="F41" s="112"/>
       <c r="G41" s="112"/>
-      <c r="H41" s="132"/>
+      <c r="H41" s="131"/>
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
       <c r="K41" s="112"/>
@@ -43877,7 +43884,7 @@
       <c r="B42" t="s">
         <v>598</v>
       </c>
-      <c r="C42" s="128">
+      <c r="C42" s="127">
         <v>64.88</v>
       </c>
       <c r="D42" s="112">
@@ -43890,7 +43897,7 @@
       <c r="G42" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H42" s="132"/>
+      <c r="H42" s="131"/>
       <c r="I42" s="112"/>
       <c r="J42" s="112"/>
       <c r="K42" s="112"/>
@@ -43904,12 +43911,12 @@
       <c r="B43" t="s">
         <v>558</v>
       </c>
-      <c r="C43" s="128"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="112"/>
       <c r="E43" s="112"/>
       <c r="F43" s="112"/>
       <c r="G43" s="112"/>
-      <c r="H43" s="132"/>
+      <c r="H43" s="131"/>
       <c r="I43" s="112"/>
       <c r="J43" s="112"/>
       <c r="K43" s="112"/>
@@ -43923,12 +43930,12 @@
       <c r="B44" t="s">
         <v>558</v>
       </c>
-      <c r="C44" s="128"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="112"/>
       <c r="E44" s="112"/>
       <c r="F44" s="112"/>
       <c r="G44" s="112"/>
-      <c r="H44" s="132"/>
+      <c r="H44" s="131"/>
       <c r="I44" s="112"/>
       <c r="J44" s="112"/>
       <c r="K44" s="112"/>
@@ -43942,12 +43949,12 @@
       <c r="B45" t="s">
         <v>552</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="112"/>
       <c r="E45" s="112"/>
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
-      <c r="H45" s="132" t="s">
+      <c r="H45" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I45" s="112">
@@ -43976,12 +43983,12 @@
       <c r="B46" t="s">
         <v>529</v>
       </c>
-      <c r="C46" s="128"/>
+      <c r="C46" s="127"/>
       <c r="D46" s="112"/>
       <c r="E46" s="112"/>
       <c r="F46" s="112"/>
       <c r="G46" s="112"/>
-      <c r="H46" s="132"/>
+      <c r="H46" s="131"/>
       <c r="I46" s="112">
         <v>60.125</v>
       </c>
@@ -44005,7 +44012,7 @@
       <c r="B47" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C47" s="127">
         <v>40.625</v>
       </c>
       <c r="D47" s="112">
@@ -44018,7 +44025,7 @@
       <c r="G47" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H47" s="132"/>
+      <c r="H47" s="131"/>
       <c r="I47" s="112">
         <v>38.125</v>
       </c>
@@ -44040,7 +44047,7 @@
       <c r="B48" t="s">
         <v>554</v>
       </c>
-      <c r="C48" s="128">
+      <c r="C48" s="127">
         <v>46.75</v>
       </c>
       <c r="D48" s="112">
@@ -44053,7 +44060,7 @@
       <c r="G48" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H48" s="132"/>
+      <c r="H48" s="131"/>
       <c r="I48" s="112">
         <v>45.375</v>
       </c>
@@ -44075,7 +44082,7 @@
       <c r="B49" t="s">
         <v>555</v>
       </c>
-      <c r="C49" s="128">
+      <c r="C49" s="127">
         <v>52.625</v>
       </c>
       <c r="D49" s="112">
@@ -44088,7 +44095,7 @@
       <c r="G49" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H49" s="132"/>
+      <c r="H49" s="131"/>
       <c r="I49" s="112">
         <v>50.125</v>
       </c>
@@ -44110,12 +44117,12 @@
       <c r="B50" t="s">
         <v>537</v>
       </c>
-      <c r="C50" s="128"/>
+      <c r="C50" s="127"/>
       <c r="D50" s="112"/>
       <c r="E50" s="112"/>
       <c r="F50" s="112"/>
       <c r="G50" s="112"/>
-      <c r="H50" s="132"/>
+      <c r="H50" s="131"/>
       <c r="I50" s="112"/>
       <c r="J50" s="112"/>
       <c r="K50" s="112"/>
@@ -44129,7 +44136,7 @@
       <c r="B51" t="s">
         <v>538</v>
       </c>
-      <c r="C51" s="128">
+      <c r="C51" s="127">
         <v>40.625</v>
       </c>
       <c r="D51" s="112">
@@ -44142,7 +44149,7 @@
       <c r="G51" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H51" s="132"/>
+      <c r="H51" s="131"/>
       <c r="I51" s="112">
         <v>38.125</v>
       </c>
@@ -44166,7 +44173,7 @@
       <c r="B52" t="s">
         <v>539</v>
       </c>
-      <c r="C52" s="128">
+      <c r="C52" s="127">
         <v>52.75</v>
       </c>
       <c r="D52" s="112">
@@ -44179,7 +44186,7 @@
       <c r="G52" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H52" s="132"/>
+      <c r="H52" s="131"/>
       <c r="I52" s="117">
         <v>50.125</v>
       </c>
@@ -44201,12 +44208,12 @@
       <c r="B53" t="s">
         <v>532</v>
       </c>
-      <c r="C53" s="128"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="112"/>
       <c r="E53" s="112"/>
       <c r="F53" s="112"/>
       <c r="G53" s="112"/>
-      <c r="H53" s="132"/>
+      <c r="H53" s="131"/>
       <c r="I53" s="112">
         <v>74.5</v>
       </c>
@@ -44230,7 +44237,7 @@
       <c r="B54" t="s">
         <v>540</v>
       </c>
-      <c r="C54" s="128">
+      <c r="C54" s="127">
         <v>63.875</v>
       </c>
       <c r="D54" s="112">
@@ -44243,7 +44250,7 @@
       <c r="G54" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H54" s="132"/>
+      <c r="H54" s="131"/>
       <c r="I54" s="112">
         <v>62.375</v>
       </c>
@@ -44267,7 +44274,7 @@
       <c r="B55" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="128">
+      <c r="C55" s="127">
         <v>50</v>
       </c>
       <c r="D55" s="112">
@@ -44280,7 +44287,7 @@
       <c r="G55" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H55" s="132" t="s">
+      <c r="H55" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I55" s="112">
@@ -44309,7 +44316,7 @@
       <c r="B56" t="s">
         <v>542</v>
       </c>
-      <c r="C56" s="128">
+      <c r="C56" s="127">
         <v>52.75</v>
       </c>
       <c r="D56" s="112">
@@ -44322,7 +44329,7 @@
       <c r="G56" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H56" s="132"/>
+      <c r="H56" s="131"/>
       <c r="I56" s="112">
         <v>50.25</v>
       </c>
@@ -44346,7 +44353,7 @@
       <c r="B57" t="s">
         <v>543</v>
       </c>
-      <c r="C57" s="128">
+      <c r="C57" s="127">
         <v>64.88</v>
       </c>
       <c r="D57" s="112">
@@ -44359,7 +44366,7 @@
       <c r="G57" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H57" s="132" t="s">
+      <c r="H57" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I57" s="112">
@@ -44388,7 +44395,7 @@
       <c r="B58" t="s">
         <v>544</v>
       </c>
-      <c r="C58" s="128">
+      <c r="C58" s="127">
         <v>50</v>
       </c>
       <c r="D58" s="112">
@@ -44401,7 +44408,7 @@
       <c r="G58" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H58" s="132"/>
+      <c r="H58" s="131"/>
       <c r="I58" s="112">
         <v>74</v>
       </c>
@@ -44425,7 +44432,7 @@
       <c r="B59" t="s">
         <v>549</v>
       </c>
-      <c r="C59" s="128">
+      <c r="C59" s="127">
         <v>40.625</v>
       </c>
       <c r="D59" s="112">
@@ -44438,7 +44445,7 @@
       <c r="G59" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H59" s="132" t="s">
+      <c r="H59" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I59" s="112">
@@ -44467,7 +44474,7 @@
       <c r="B60" t="s">
         <v>550</v>
       </c>
-      <c r="C60" s="128">
+      <c r="C60" s="127">
         <v>46.75</v>
       </c>
       <c r="D60" s="112">
@@ -44480,7 +44487,7 @@
       <c r="G60" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H60" s="132"/>
+      <c r="H60" s="131"/>
       <c r="I60" s="112">
         <v>43.75</v>
       </c>
@@ -44504,7 +44511,7 @@
       <c r="B61" t="s">
         <v>545</v>
       </c>
-      <c r="C61" s="128">
+      <c r="C61" s="127">
         <v>52.75</v>
       </c>
       <c r="D61" s="112">
@@ -44517,7 +44524,7 @@
       <c r="G61" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H61" s="132"/>
+      <c r="H61" s="131"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -44531,7 +44538,7 @@
       <c r="B62" t="s">
         <v>546</v>
       </c>
-      <c r="C62" s="128">
+      <c r="C62" s="127">
         <v>64.875</v>
       </c>
       <c r="D62" s="112">
@@ -44544,7 +44551,7 @@
       <c r="G62" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H62" s="132"/>
+      <c r="H62" s="131"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -44558,7 +44565,7 @@
       <c r="B63" t="s">
         <v>547</v>
       </c>
-      <c r="C63" s="128">
+      <c r="C63" s="127">
         <v>50</v>
       </c>
       <c r="D63" s="112">
@@ -44571,7 +44578,7 @@
       <c r="G63" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H63" s="132" t="s">
+      <c r="H63" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I63" s="112">
@@ -44600,7 +44607,7 @@
       <c r="B64" t="s">
         <v>548</v>
       </c>
-      <c r="C64" s="128">
+      <c r="C64" s="127">
         <v>64.875</v>
       </c>
       <c r="D64" s="112">
@@ -44613,7 +44620,7 @@
       <c r="G64" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H64" s="132"/>
+      <c r="H64" s="131"/>
       <c r="I64" s="112">
         <v>62.375</v>
       </c>
@@ -44637,12 +44644,12 @@
       <c r="B65" t="s">
         <v>528</v>
       </c>
-      <c r="C65" s="128"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="112"/>
       <c r="E65" s="112"/>
       <c r="F65" s="112"/>
       <c r="G65" s="112"/>
-      <c r="H65" s="132"/>
+      <c r="H65" s="131"/>
       <c r="I65" s="112"/>
       <c r="J65" s="112"/>
       <c r="K65" s="112"/>
@@ -44656,7 +44663,7 @@
       <c r="B66" t="s">
         <v>551</v>
       </c>
-      <c r="C66" s="128">
+      <c r="C66" s="127">
         <v>52</v>
       </c>
       <c r="D66" s="112">
@@ -44669,7 +44676,7 @@
       <c r="G66" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H66" s="132"/>
+      <c r="H66" s="131"/>
       <c r="I66" s="112">
         <v>49.5</v>
       </c>
@@ -44693,12 +44700,12 @@
       <c r="B67" t="s">
         <v>534</v>
       </c>
-      <c r="C67" s="128"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="112"/>
       <c r="E67" s="112"/>
       <c r="F67" s="112"/>
       <c r="G67" s="112"/>
-      <c r="H67" s="132"/>
+      <c r="H67" s="131"/>
       <c r="I67" s="112"/>
       <c r="J67" s="112"/>
       <c r="K67" s="112"/>
@@ -44712,12 +44719,12 @@
       <c r="B68" t="s">
         <v>535</v>
       </c>
-      <c r="C68" s="128"/>
+      <c r="C68" s="127"/>
       <c r="D68" s="112"/>
       <c r="E68" s="112"/>
       <c r="F68" s="112"/>
       <c r="G68" s="112"/>
-      <c r="H68" s="132"/>
+      <c r="H68" s="131"/>
       <c r="I68" s="112">
         <v>74</v>
       </c>
@@ -44741,12 +44748,12 @@
       <c r="B69" t="s">
         <v>536</v>
       </c>
-      <c r="C69" s="128"/>
+      <c r="C69" s="127"/>
       <c r="D69" s="112"/>
       <c r="E69" s="112"/>
       <c r="F69" s="112"/>
       <c r="G69" s="112"/>
-      <c r="H69" s="132"/>
+      <c r="H69" s="131"/>
       <c r="I69" s="112"/>
       <c r="J69" s="112"/>
       <c r="K69" s="112"/>
@@ -44760,12 +44767,12 @@
       <c r="B70" t="s">
         <v>533</v>
       </c>
-      <c r="C70" s="128"/>
+      <c r="C70" s="127"/>
       <c r="D70" s="112"/>
       <c r="E70" s="112"/>
       <c r="F70" s="112"/>
       <c r="G70" s="112"/>
-      <c r="H70" s="132" t="s">
+      <c r="H70" s="131" t="s">
         <v>699</v>
       </c>
       <c r="I70" s="112">
@@ -44794,7 +44801,7 @@
       <c r="B71" t="s">
         <v>556</v>
       </c>
-      <c r="C71" s="128">
+      <c r="C71" s="127">
         <v>52.625</v>
       </c>
       <c r="D71" s="112">
@@ -44807,7 +44814,7 @@
       <c r="G71" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H71" s="132"/>
+      <c r="H71" s="131"/>
       <c r="I71" s="112"/>
       <c r="J71" s="112"/>
       <c r="K71" s="112"/>
@@ -44821,7 +44828,7 @@
       <c r="B72" t="s">
         <v>530</v>
       </c>
-      <c r="C72" s="128">
+      <c r="C72" s="127">
         <v>52.75</v>
       </c>
       <c r="D72" s="112">
@@ -44834,7 +44841,7 @@
       <c r="G72" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H72" s="132"/>
+      <c r="H72" s="131"/>
       <c r="I72" s="112"/>
       <c r="J72" s="112"/>
       <c r="K72" s="112"/>
@@ -44848,12 +44855,12 @@
       <c r="B73" t="s">
         <v>531</v>
       </c>
-      <c r="C73" s="128"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="112"/>
       <c r="E73" s="112"/>
       <c r="F73" s="112"/>
       <c r="G73" s="112"/>
-      <c r="H73" s="132"/>
+      <c r="H73" s="131"/>
       <c r="I73" s="112"/>
       <c r="J73" s="112"/>
       <c r="K73" s="112"/>
@@ -44867,7 +44874,7 @@
       <c r="B74" t="s">
         <v>557</v>
       </c>
-      <c r="C74" s="128">
+      <c r="C74" s="127">
         <v>63.25</v>
       </c>
       <c r="D74" s="112">
@@ -44880,7 +44887,7 @@
       <c r="G74" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H74" s="132"/>
+      <c r="H74" s="131"/>
       <c r="I74" s="112">
         <v>62.125</v>
       </c>
@@ -44904,7 +44911,7 @@
       <c r="B75" t="s">
         <v>601</v>
       </c>
-      <c r="C75" s="128">
+      <c r="C75" s="127">
         <v>34.75</v>
       </c>
       <c r="D75" s="112">
@@ -44917,7 +44924,7 @@
       <c r="G75" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H75" s="132"/>
+      <c r="H75" s="131"/>
       <c r="I75" s="112"/>
       <c r="J75" s="112"/>
       <c r="K75" s="112"/>
@@ -44931,7 +44938,7 @@
       <c r="B76" t="s">
         <v>602</v>
       </c>
-      <c r="C76" s="128">
+      <c r="C76" s="127">
         <v>40.625</v>
       </c>
       <c r="D76" s="112">
@@ -44944,7 +44951,7 @@
       <c r="G76" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H76" s="132"/>
+      <c r="H76" s="131"/>
       <c r="I76" s="112"/>
       <c r="J76" s="112"/>
       <c r="K76" s="112"/>
@@ -44958,7 +44965,7 @@
       <c r="B77" t="s">
         <v>599</v>
       </c>
-      <c r="C77" s="128">
+      <c r="C77" s="127">
         <v>34.75</v>
       </c>
       <c r="D77" s="112">
@@ -44971,7 +44978,7 @@
       <c r="G77" s="112" t="s">
         <v>652</v>
       </c>
-      <c r="H77" s="132"/>
+      <c r="H77" s="131"/>
       <c r="I77" s="112"/>
       <c r="J77" s="112"/>
       <c r="K77" s="112"/>
@@ -44985,7 +44992,7 @@
       <c r="B78" t="s">
         <v>600</v>
       </c>
-      <c r="C78" s="128">
+      <c r="C78" s="127">
         <v>40.625</v>
       </c>
       <c r="D78" s="112">
@@ -44998,7 +45005,7 @@
       <c r="G78" s="112" t="s">
         <v>656</v>
       </c>
-      <c r="H78" s="132"/>
+      <c r="H78" s="131"/>
       <c r="I78" s="112"/>
       <c r="J78" s="112"/>
       <c r="K78" s="112"/>
